--- a/MasterTest/รายชื่อ โอวัลติน.xlsx
+++ b/MasterTest/รายชื่อ โอวัลติน.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gus\Desktop\Github\OrderUniform\MasterTest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{650ACCD1-4BC8-46A4-8D36-7EA06384386F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07AAC08E-E201-4004-804D-BDB7AC0C1E6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2520" windowWidth="21600" windowHeight="11340" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="180" windowWidth="21600" windowHeight="11340" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="HO" sheetId="1" r:id="rId1"/>
@@ -3073,7 +3073,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="127">
+  <cellXfs count="126">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -3276,29 +3276,8 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="22" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3384,6 +3363,33 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="22" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3396,35 +3402,8 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3438,6 +3417,30 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3445,12 +3448,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -3851,119 +3848,119 @@
       <c r="J1" s="4"/>
     </row>
     <row r="2" spans="1:30" ht="30" customHeight="1">
-      <c r="A2" s="76" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="76" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="76" t="s">
+      <c r="A2" s="69" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="69" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="69" t="s">
         <v>3</v>
       </c>
       <c r="D2" s="5"/>
-      <c r="E2" s="76" t="s">
+      <c r="E2" s="69" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="76" t="s">
+      <c r="F2" s="69" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="76" t="s">
+      <c r="G2" s="69" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="76" t="s">
+      <c r="H2" s="69" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="90" t="s">
+      <c r="I2" s="83" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="92" t="s">
+      <c r="J2" s="85" t="s">
         <v>9</v>
       </c>
-      <c r="K2" s="93"/>
-      <c r="L2" s="93"/>
-      <c r="M2" s="93"/>
-      <c r="N2" s="93"/>
-      <c r="O2" s="94"/>
-      <c r="P2" s="95" t="s">
+      <c r="K2" s="86"/>
+      <c r="L2" s="86"/>
+      <c r="M2" s="86"/>
+      <c r="N2" s="86"/>
+      <c r="O2" s="87"/>
+      <c r="P2" s="88" t="s">
         <v>10</v>
       </c>
-      <c r="Q2" s="95"/>
-      <c r="R2" s="96"/>
-      <c r="S2" s="99" t="s">
+      <c r="Q2" s="88"/>
+      <c r="R2" s="89"/>
+      <c r="S2" s="92" t="s">
         <v>11</v>
       </c>
-      <c r="T2" s="100"/>
-      <c r="U2" s="100"/>
-      <c r="V2" s="100"/>
-      <c r="W2" s="100"/>
-      <c r="X2" s="100"/>
-      <c r="Y2" s="100"/>
-      <c r="Z2" s="100"/>
-      <c r="AA2" s="101"/>
-      <c r="AB2" s="102" t="s">
+      <c r="T2" s="93"/>
+      <c r="U2" s="93"/>
+      <c r="V2" s="93"/>
+      <c r="W2" s="93"/>
+      <c r="X2" s="93"/>
+      <c r="Y2" s="93"/>
+      <c r="Z2" s="93"/>
+      <c r="AA2" s="94"/>
+      <c r="AB2" s="95" t="s">
         <v>12</v>
       </c>
-      <c r="AC2" s="78" t="s">
+      <c r="AC2" s="71" t="s">
         <v>13</v>
       </c>
-      <c r="AD2" s="78" t="s">
+      <c r="AD2" s="71" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:30" ht="30" customHeight="1">
-      <c r="A3" s="77"/>
-      <c r="B3" s="77"/>
-      <c r="C3" s="77"/>
+      <c r="A3" s="70"/>
+      <c r="B3" s="70"/>
+      <c r="C3" s="70"/>
       <c r="D3" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="77"/>
-      <c r="F3" s="77"/>
-      <c r="G3" s="77"/>
-      <c r="H3" s="77"/>
-      <c r="I3" s="91"/>
-      <c r="J3" s="80" t="s">
+      <c r="E3" s="70"/>
+      <c r="F3" s="70"/>
+      <c r="G3" s="70"/>
+      <c r="H3" s="70"/>
+      <c r="I3" s="84"/>
+      <c r="J3" s="73" t="s">
         <v>16</v>
       </c>
-      <c r="K3" s="81"/>
-      <c r="L3" s="81"/>
-      <c r="M3" s="82" t="s">
+      <c r="K3" s="74"/>
+      <c r="L3" s="74"/>
+      <c r="M3" s="75" t="s">
         <v>17</v>
       </c>
-      <c r="N3" s="83"/>
-      <c r="O3" s="84"/>
-      <c r="P3" s="97"/>
-      <c r="Q3" s="97"/>
-      <c r="R3" s="98"/>
-      <c r="S3" s="85" t="s">
+      <c r="N3" s="76"/>
+      <c r="O3" s="77"/>
+      <c r="P3" s="90"/>
+      <c r="Q3" s="90"/>
+      <c r="R3" s="91"/>
+      <c r="S3" s="78" t="s">
         <v>18</v>
       </c>
-      <c r="T3" s="86"/>
-      <c r="U3" s="87"/>
-      <c r="V3" s="88" t="s">
+      <c r="T3" s="79"/>
+      <c r="U3" s="80"/>
+      <c r="V3" s="81" t="s">
         <v>19</v>
       </c>
-      <c r="W3" s="86"/>
-      <c r="X3" s="89"/>
-      <c r="Y3" s="85" t="s">
+      <c r="W3" s="79"/>
+      <c r="X3" s="82"/>
+      <c r="Y3" s="78" t="s">
         <v>20</v>
       </c>
-      <c r="Z3" s="86"/>
-      <c r="AA3" s="89"/>
-      <c r="AB3" s="103"/>
-      <c r="AC3" s="78"/>
-      <c r="AD3" s="78"/>
+      <c r="Z3" s="79"/>
+      <c r="AA3" s="82"/>
+      <c r="AB3" s="96"/>
+      <c r="AC3" s="71"/>
+      <c r="AD3" s="71"/>
     </row>
     <row r="4" spans="1:30" ht="23.25" customHeight="1">
-      <c r="A4" s="77"/>
-      <c r="B4" s="77"/>
-      <c r="C4" s="77"/>
+      <c r="A4" s="70"/>
+      <c r="B4" s="70"/>
+      <c r="C4" s="70"/>
       <c r="D4" s="6"/>
-      <c r="E4" s="77"/>
-      <c r="F4" s="77"/>
-      <c r="G4" s="77"/>
-      <c r="H4" s="77"/>
-      <c r="I4" s="91"/>
+      <c r="E4" s="70"/>
+      <c r="F4" s="70"/>
+      <c r="G4" s="70"/>
+      <c r="H4" s="70"/>
+      <c r="I4" s="84"/>
       <c r="J4" s="7" t="s">
         <v>7</v>
       </c>
@@ -4018,9 +4015,9 @@
       <c r="AA4" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="AB4" s="103"/>
-      <c r="AC4" s="79"/>
-      <c r="AD4" s="79"/>
+      <c r="AB4" s="96"/>
+      <c r="AC4" s="72"/>
+      <c r="AD4" s="72"/>
     </row>
     <row r="5" spans="1:30" s="20" customFormat="1" ht="16.5" customHeight="1">
       <c r="A5" s="18">
@@ -4943,32 +4940,32 @@
       </c>
     </row>
     <row r="19" spans="1:30" ht="16.5" customHeight="1">
-      <c r="A19" s="74">
+      <c r="A19" s="97">
         <v>15</v>
       </c>
-      <c r="B19" s="74">
+      <c r="B19" s="97">
         <v>20090120</v>
       </c>
       <c r="C19" s="22" t="e">
         <f>VLOOKUP(B19,#REF!,35,0)</f>
         <v>#REF!</v>
       </c>
-      <c r="D19" s="74" t="s">
+      <c r="D19" s="97" t="s">
         <v>35</v>
       </c>
       <c r="E19" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="F19" s="75" t="s">
+      <c r="F19" s="98" t="s">
         <v>65</v>
       </c>
-      <c r="G19" s="75" t="s">
+      <c r="G19" s="98" t="s">
         <v>66</v>
       </c>
-      <c r="H19" s="74" t="s">
-        <v>26</v>
-      </c>
-      <c r="I19" s="74" t="s">
+      <c r="H19" s="97" t="s">
+        <v>26</v>
+      </c>
+      <c r="I19" s="97" t="s">
         <v>27</v>
       </c>
       <c r="J19" s="22" t="s">
@@ -5015,15 +5012,15 @@
       <c r="AD19" s="23"/>
     </row>
     <row r="20" spans="1:30" ht="16.5" customHeight="1">
-      <c r="A20" s="74"/>
-      <c r="B20" s="74"/>
+      <c r="A20" s="97"/>
+      <c r="B20" s="97"/>
       <c r="C20" s="22"/>
-      <c r="D20" s="74"/>
+      <c r="D20" s="97"/>
       <c r="E20" s="22"/>
-      <c r="F20" s="75"/>
-      <c r="G20" s="75"/>
-      <c r="H20" s="74"/>
-      <c r="I20" s="74"/>
+      <c r="F20" s="98"/>
+      <c r="G20" s="98"/>
+      <c r="H20" s="97"/>
+      <c r="I20" s="97"/>
       <c r="J20" s="22" t="s">
         <v>26</v>
       </c>
@@ -6254,32 +6251,32 @@
       <c r="AD37" s="23"/>
     </row>
     <row r="38" spans="1:30" ht="16.5" customHeight="1">
-      <c r="A38" s="74">
+      <c r="A38" s="97">
         <v>33</v>
       </c>
-      <c r="B38" s="74">
+      <c r="B38" s="97">
         <v>20200667</v>
       </c>
       <c r="C38" s="22" t="e">
         <f>VLOOKUP(B38,#REF!,35,0)</f>
         <v>#REF!</v>
       </c>
-      <c r="D38" s="74" t="s">
+      <c r="D38" s="97" t="s">
         <v>35</v>
       </c>
       <c r="E38" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="F38" s="75" t="s">
+      <c r="F38" s="98" t="s">
         <v>105</v>
       </c>
-      <c r="G38" s="75" t="s">
+      <c r="G38" s="98" t="s">
         <v>106</v>
       </c>
-      <c r="H38" s="74" t="s">
-        <v>26</v>
-      </c>
-      <c r="I38" s="74" t="s">
+      <c r="H38" s="97" t="s">
+        <v>26</v>
+      </c>
+      <c r="I38" s="97" t="s">
         <v>27</v>
       </c>
       <c r="J38" s="22"/>
@@ -6320,15 +6317,15 @@
       <c r="AD38" s="23"/>
     </row>
     <row r="39" spans="1:30" ht="16.5" customHeight="1">
-      <c r="A39" s="74"/>
-      <c r="B39" s="74"/>
+      <c r="A39" s="97"/>
+      <c r="B39" s="97"/>
       <c r="C39" s="22"/>
-      <c r="D39" s="74"/>
+      <c r="D39" s="97"/>
       <c r="E39" s="22"/>
-      <c r="F39" s="75"/>
-      <c r="G39" s="75"/>
-      <c r="H39" s="74"/>
-      <c r="I39" s="74"/>
+      <c r="F39" s="98"/>
+      <c r="G39" s="98"/>
+      <c r="H39" s="97"/>
+      <c r="I39" s="97"/>
       <c r="J39" s="22"/>
       <c r="K39" s="24"/>
       <c r="L39" s="22"/>
@@ -6875,32 +6872,32 @@
       <c r="AD46" s="23"/>
     </row>
     <row r="47" spans="1:30" ht="16.5" customHeight="1">
-      <c r="A47" s="74">
+      <c r="A47" s="97">
         <v>41</v>
       </c>
-      <c r="B47" s="74">
+      <c r="B47" s="97">
         <v>20160450</v>
       </c>
       <c r="C47" s="22" t="e">
         <f>VLOOKUP(B47,#REF!,35,0)</f>
         <v>#REF!</v>
       </c>
-      <c r="D47" s="74" t="s">
+      <c r="D47" s="97" t="s">
         <v>122</v>
       </c>
       <c r="E47" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="F47" s="75" t="s">
+      <c r="F47" s="98" t="s">
         <v>125</v>
       </c>
-      <c r="G47" s="75" t="s">
+      <c r="G47" s="98" t="s">
         <v>126</v>
       </c>
-      <c r="H47" s="74" t="s">
-        <v>31</v>
-      </c>
-      <c r="I47" s="74" t="s">
+      <c r="H47" s="97" t="s">
+        <v>31</v>
+      </c>
+      <c r="I47" s="97" t="s">
         <v>27</v>
       </c>
       <c r="J47" s="22" t="s">
@@ -6941,15 +6938,15 @@
       <c r="AD47" s="23"/>
     </row>
     <row r="48" spans="1:30" ht="16.5" customHeight="1">
-      <c r="A48" s="74"/>
-      <c r="B48" s="74"/>
+      <c r="A48" s="97"/>
+      <c r="B48" s="97"/>
       <c r="C48" s="22"/>
-      <c r="D48" s="74"/>
+      <c r="D48" s="97"/>
       <c r="E48" s="22"/>
-      <c r="F48" s="75"/>
-      <c r="G48" s="75"/>
-      <c r="H48" s="74"/>
-      <c r="I48" s="74"/>
+      <c r="F48" s="98"/>
+      <c r="G48" s="98"/>
+      <c r="H48" s="97"/>
+      <c r="I48" s="97"/>
       <c r="J48" s="22" t="s">
         <v>31</v>
       </c>
@@ -6988,15 +6985,15 @@
       <c r="AD48" s="23"/>
     </row>
     <row r="49" spans="1:30" ht="16.5" customHeight="1">
-      <c r="A49" s="74"/>
-      <c r="B49" s="74"/>
+      <c r="A49" s="97"/>
+      <c r="B49" s="97"/>
       <c r="C49" s="22"/>
-      <c r="D49" s="74"/>
+      <c r="D49" s="97"/>
       <c r="E49" s="22"/>
-      <c r="F49" s="75"/>
-      <c r="G49" s="75"/>
-      <c r="H49" s="74"/>
-      <c r="I49" s="74"/>
+      <c r="F49" s="98"/>
+      <c r="G49" s="98"/>
+      <c r="H49" s="97"/>
+      <c r="I49" s="97"/>
       <c r="J49" s="22" t="s">
         <v>31</v>
       </c>
@@ -7115,32 +7112,32 @@
       <c r="AD50" s="23"/>
     </row>
     <row r="51" spans="1:30" ht="16.5" customHeight="1">
-      <c r="A51" s="74">
+      <c r="A51" s="97">
         <v>43</v>
       </c>
-      <c r="B51" s="74">
+      <c r="B51" s="97">
         <v>20190626</v>
       </c>
       <c r="C51" s="22" t="e">
         <f>VLOOKUP(B51,#REF!,35,0)</f>
         <v>#REF!</v>
       </c>
-      <c r="D51" s="74" t="s">
+      <c r="D51" s="97" t="s">
         <v>122</v>
       </c>
       <c r="E51" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="F51" s="75" t="s">
+      <c r="F51" s="98" t="s">
         <v>129</v>
       </c>
-      <c r="G51" s="75" t="s">
+      <c r="G51" s="98" t="s">
         <v>130</v>
       </c>
-      <c r="H51" s="74" t="s">
-        <v>26</v>
-      </c>
-      <c r="I51" s="74" t="s">
+      <c r="H51" s="97" t="s">
+        <v>26</v>
+      </c>
+      <c r="I51" s="97" t="s">
         <v>27</v>
       </c>
       <c r="J51" s="22" t="s">
@@ -7185,15 +7182,15 @@
       <c r="AD51" s="23"/>
     </row>
     <row r="52" spans="1:30" ht="16.5" customHeight="1">
-      <c r="A52" s="74"/>
-      <c r="B52" s="74"/>
+      <c r="A52" s="97"/>
+      <c r="B52" s="97"/>
       <c r="C52" s="22"/>
-      <c r="D52" s="74"/>
+      <c r="D52" s="97"/>
       <c r="E52" s="22"/>
-      <c r="F52" s="75"/>
-      <c r="G52" s="75"/>
-      <c r="H52" s="74"/>
-      <c r="I52" s="74"/>
+      <c r="F52" s="98"/>
+      <c r="G52" s="98"/>
+      <c r="H52" s="97"/>
+      <c r="I52" s="97"/>
       <c r="J52" s="22"/>
       <c r="K52" s="22"/>
       <c r="L52" s="22"/>
@@ -8142,32 +8139,32 @@
       <c r="AD65" s="23"/>
     </row>
     <row r="66" spans="1:30" ht="16.5" customHeight="1">
-      <c r="A66" s="74">
+      <c r="A66" s="97">
         <v>57</v>
       </c>
-      <c r="B66" s="74">
+      <c r="B66" s="97">
         <v>20180504</v>
       </c>
       <c r="C66" s="22" t="e">
         <f>VLOOKUP(B66,#REF!,35,0)</f>
         <v>#REF!</v>
       </c>
-      <c r="D66" s="74" t="s">
+      <c r="D66" s="97" t="s">
         <v>131</v>
       </c>
       <c r="E66" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="F66" s="75" t="s">
+      <c r="F66" s="98" t="s">
         <v>159</v>
       </c>
-      <c r="G66" s="75" t="s">
+      <c r="G66" s="98" t="s">
         <v>160</v>
       </c>
-      <c r="H66" s="74" t="s">
-        <v>31</v>
-      </c>
-      <c r="I66" s="74" t="s">
+      <c r="H66" s="97" t="s">
+        <v>31</v>
+      </c>
+      <c r="I66" s="97" t="s">
         <v>27</v>
       </c>
       <c r="J66" s="22" t="s">
@@ -8208,15 +8205,15 @@
       <c r="AD66" s="23"/>
     </row>
     <row r="67" spans="1:30" ht="16.5" customHeight="1">
-      <c r="A67" s="74"/>
-      <c r="B67" s="74"/>
+      <c r="A67" s="97"/>
+      <c r="B67" s="97"/>
       <c r="C67" s="22"/>
-      <c r="D67" s="74"/>
+      <c r="D67" s="97"/>
       <c r="E67" s="22"/>
-      <c r="F67" s="75"/>
-      <c r="G67" s="75"/>
-      <c r="H67" s="74"/>
-      <c r="I67" s="74"/>
+      <c r="F67" s="98"/>
+      <c r="G67" s="98"/>
+      <c r="H67" s="97"/>
+      <c r="I67" s="97"/>
       <c r="J67" s="22" t="s">
         <v>26</v>
       </c>
@@ -9171,32 +9168,32 @@
       <c r="AD80" s="23"/>
     </row>
     <row r="81" spans="1:30" ht="16.5" customHeight="1">
-      <c r="A81" s="74">
+      <c r="A81" s="97">
         <v>71</v>
       </c>
-      <c r="B81" s="74">
+      <c r="B81" s="97">
         <v>20210794</v>
       </c>
       <c r="C81" s="22" t="e">
         <f>VLOOKUP(B81,#REF!,35,0)</f>
         <v>#REF!</v>
       </c>
-      <c r="D81" s="74" t="s">
+      <c r="D81" s="97" t="s">
         <v>131</v>
       </c>
       <c r="E81" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="F81" s="75" t="s">
+      <c r="F81" s="98" t="s">
         <v>187</v>
       </c>
-      <c r="G81" s="75" t="s">
+      <c r="G81" s="98" t="s">
         <v>188</v>
       </c>
-      <c r="H81" s="74" t="s">
-        <v>31</v>
-      </c>
-      <c r="I81" s="74" t="s">
+      <c r="H81" s="97" t="s">
+        <v>31</v>
+      </c>
+      <c r="I81" s="97" t="s">
         <v>27</v>
       </c>
       <c r="J81" s="22" t="s">
@@ -9243,15 +9240,15 @@
       <c r="AD81" s="23"/>
     </row>
     <row r="82" spans="1:30" ht="16.5" customHeight="1">
-      <c r="A82" s="74"/>
-      <c r="B82" s="74"/>
+      <c r="A82" s="97"/>
+      <c r="B82" s="97"/>
       <c r="C82" s="22"/>
-      <c r="D82" s="74"/>
+      <c r="D82" s="97"/>
       <c r="E82" s="22"/>
-      <c r="F82" s="75"/>
-      <c r="G82" s="75"/>
-      <c r="H82" s="74"/>
-      <c r="I82" s="74"/>
+      <c r="F82" s="98"/>
+      <c r="G82" s="98"/>
+      <c r="H82" s="97"/>
+      <c r="I82" s="97"/>
       <c r="J82" s="22" t="s">
         <v>31</v>
       </c>
@@ -9498,29 +9495,29 @@
       <c r="AD85" s="23"/>
     </row>
     <row r="86" spans="1:30" ht="16.5" customHeight="1">
-      <c r="A86" s="74">
+      <c r="A86" s="97">
         <v>75</v>
       </c>
-      <c r="B86" s="74">
+      <c r="B86" s="97">
         <v>20210808</v>
       </c>
       <c r="C86" s="22" t="e">
         <f>VLOOKUP(B86,#REF!,35,0)</f>
         <v>#REF!</v>
       </c>
-      <c r="D86" s="74" t="s">
+      <c r="D86" s="97" t="s">
         <v>131</v>
       </c>
       <c r="E86" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="F86" s="75" t="s">
+      <c r="F86" s="98" t="s">
         <v>195</v>
       </c>
-      <c r="G86" s="75" t="s">
+      <c r="G86" s="98" t="s">
         <v>196</v>
       </c>
-      <c r="H86" s="74" t="s">
+      <c r="H86" s="97" t="s">
         <v>26</v>
       </c>
       <c r="I86" s="22" t="s">
@@ -9564,14 +9561,14 @@
       <c r="AD86" s="23"/>
     </row>
     <row r="87" spans="1:30" ht="16.5" customHeight="1">
-      <c r="A87" s="74"/>
-      <c r="B87" s="74"/>
+      <c r="A87" s="97"/>
+      <c r="B87" s="97"/>
       <c r="C87" s="22"/>
-      <c r="D87" s="74"/>
+      <c r="D87" s="97"/>
       <c r="E87" s="22"/>
-      <c r="F87" s="75"/>
-      <c r="G87" s="75"/>
-      <c r="H87" s="74"/>
+      <c r="F87" s="98"/>
+      <c r="G87" s="98"/>
+      <c r="H87" s="97"/>
       <c r="I87" s="22"/>
       <c r="J87" s="22"/>
       <c r="K87" s="22"/>
@@ -9821,32 +9818,32 @@
       <c r="AD90" s="23"/>
     </row>
     <row r="91" spans="1:30" ht="16.5" customHeight="1">
-      <c r="A91" s="74">
+      <c r="A91" s="97">
         <v>79</v>
       </c>
-      <c r="B91" s="74">
+      <c r="B91" s="97">
         <v>20030068</v>
       </c>
       <c r="C91" s="22" t="e">
         <f>VLOOKUP(B91,#REF!,35,0)</f>
         <v>#REF!</v>
       </c>
-      <c r="D91" s="74" t="s">
+      <c r="D91" s="97" t="s">
         <v>203</v>
       </c>
       <c r="E91" s="22" t="s">
         <v>204</v>
       </c>
-      <c r="F91" s="75" t="s">
+      <c r="F91" s="98" t="s">
         <v>205</v>
       </c>
-      <c r="G91" s="75" t="s">
+      <c r="G91" s="98" t="s">
         <v>206</v>
       </c>
-      <c r="H91" s="74" t="s">
-        <v>31</v>
-      </c>
-      <c r="I91" s="74" t="s">
+      <c r="H91" s="97" t="s">
+        <v>31</v>
+      </c>
+      <c r="I91" s="97" t="s">
         <v>27</v>
       </c>
       <c r="J91" s="22" t="s">
@@ -9895,15 +9892,15 @@
       <c r="AD91" s="23"/>
     </row>
     <row r="92" spans="1:30" ht="16.5" customHeight="1">
-      <c r="A92" s="74"/>
-      <c r="B92" s="74"/>
+      <c r="A92" s="97"/>
+      <c r="B92" s="97"/>
       <c r="C92" s="22"/>
-      <c r="D92" s="74"/>
+      <c r="D92" s="97"/>
       <c r="E92" s="22"/>
-      <c r="F92" s="75"/>
-      <c r="G92" s="75"/>
-      <c r="H92" s="74"/>
-      <c r="I92" s="74"/>
+      <c r="F92" s="98"/>
+      <c r="G92" s="98"/>
+      <c r="H92" s="97"/>
+      <c r="I92" s="97"/>
       <c r="J92" s="22" t="s">
         <v>31</v>
       </c>
@@ -10044,32 +10041,32 @@
       <c r="AD94" s="19"/>
     </row>
     <row r="95" spans="1:30" ht="16.5" customHeight="1">
-      <c r="A95" s="74">
+      <c r="A95" s="97">
         <v>82</v>
       </c>
-      <c r="B95" s="74">
+      <c r="B95" s="97">
         <v>20070101</v>
       </c>
       <c r="C95" s="22" t="e">
         <f>VLOOKUP(B95,#REF!,35,0)</f>
         <v>#REF!</v>
       </c>
-      <c r="D95" s="74" t="s">
+      <c r="D95" s="97" t="s">
         <v>203</v>
       </c>
       <c r="E95" s="22" t="s">
         <v>204</v>
       </c>
-      <c r="F95" s="75" t="s">
+      <c r="F95" s="98" t="s">
         <v>211</v>
       </c>
-      <c r="G95" s="75" t="s">
+      <c r="G95" s="98" t="s">
         <v>212</v>
       </c>
-      <c r="H95" s="74" t="s">
-        <v>31</v>
-      </c>
-      <c r="I95" s="74" t="s">
+      <c r="H95" s="97" t="s">
+        <v>31</v>
+      </c>
+      <c r="I95" s="97" t="s">
         <v>27</v>
       </c>
       <c r="J95" s="22" t="s">
@@ -10118,15 +10115,15 @@
       <c r="AD95" s="23"/>
     </row>
     <row r="96" spans="1:30" ht="16.5" customHeight="1">
-      <c r="A96" s="74"/>
-      <c r="B96" s="74"/>
+      <c r="A96" s="97"/>
+      <c r="B96" s="97"/>
       <c r="C96" s="22"/>
-      <c r="D96" s="74"/>
+      <c r="D96" s="97"/>
       <c r="E96" s="22"/>
-      <c r="F96" s="75"/>
-      <c r="G96" s="75"/>
-      <c r="H96" s="74"/>
-      <c r="I96" s="74"/>
+      <c r="F96" s="98"/>
+      <c r="G96" s="98"/>
+      <c r="H96" s="97"/>
+      <c r="I96" s="97"/>
       <c r="J96" s="22"/>
       <c r="K96" s="22"/>
       <c r="L96" s="22"/>
@@ -10167,15 +10164,15 @@
       <c r="AD96" s="23"/>
     </row>
     <row r="97" spans="1:30" ht="16.5" customHeight="1">
-      <c r="A97" s="74"/>
-      <c r="B97" s="74"/>
+      <c r="A97" s="97"/>
+      <c r="B97" s="97"/>
       <c r="C97" s="22"/>
-      <c r="D97" s="74"/>
+      <c r="D97" s="97"/>
       <c r="E97" s="22"/>
-      <c r="F97" s="75"/>
-      <c r="G97" s="75"/>
-      <c r="H97" s="74"/>
-      <c r="I97" s="74"/>
+      <c r="F97" s="98"/>
+      <c r="G97" s="98"/>
+      <c r="H97" s="97"/>
+      <c r="I97" s="97"/>
       <c r="J97" s="22"/>
       <c r="K97" s="22"/>
       <c r="L97" s="22"/>
@@ -10416,32 +10413,32 @@
       <c r="AD100" s="23"/>
     </row>
     <row r="101" spans="1:30" ht="16.5" customHeight="1">
-      <c r="A101" s="74">
+      <c r="A101" s="97">
         <v>86</v>
       </c>
-      <c r="B101" s="74">
+      <c r="B101" s="97">
         <v>20200670</v>
       </c>
       <c r="C101" s="22" t="e">
         <f>VLOOKUP(B101,#REF!,35,0)</f>
         <v>#REF!</v>
       </c>
-      <c r="D101" s="74" t="s">
+      <c r="D101" s="97" t="s">
         <v>203</v>
       </c>
       <c r="E101" s="22" t="s">
         <v>204</v>
       </c>
-      <c r="F101" s="75" t="s">
+      <c r="F101" s="98" t="s">
         <v>220</v>
       </c>
-      <c r="G101" s="75" t="s">
+      <c r="G101" s="98" t="s">
         <v>221</v>
       </c>
-      <c r="H101" s="74" t="s">
-        <v>31</v>
-      </c>
-      <c r="I101" s="74" t="s">
+      <c r="H101" s="97" t="s">
+        <v>31</v>
+      </c>
+      <c r="I101" s="97" t="s">
         <v>27</v>
       </c>
       <c r="J101" s="24"/>
@@ -10490,15 +10487,15 @@
       <c r="AD101" s="23"/>
     </row>
     <row r="102" spans="1:30" ht="16.5" customHeight="1">
-      <c r="A102" s="74"/>
-      <c r="B102" s="74"/>
+      <c r="A102" s="97"/>
+      <c r="B102" s="97"/>
       <c r="C102" s="22"/>
-      <c r="D102" s="74"/>
+      <c r="D102" s="97"/>
       <c r="E102" s="22"/>
-      <c r="F102" s="75"/>
-      <c r="G102" s="75"/>
-      <c r="H102" s="74"/>
-      <c r="I102" s="74"/>
+      <c r="F102" s="98"/>
+      <c r="G102" s="98"/>
+      <c r="H102" s="97"/>
+      <c r="I102" s="97"/>
       <c r="J102" s="24"/>
       <c r="K102" s="24"/>
       <c r="L102" s="22"/>
@@ -10605,32 +10602,32 @@
       <c r="AD103" s="23"/>
     </row>
     <row r="104" spans="1:30" ht="16.5" customHeight="1">
-      <c r="A104" s="74">
+      <c r="A104" s="97">
         <v>88</v>
       </c>
-      <c r="B104" s="74">
+      <c r="B104" s="97">
         <v>20140248</v>
       </c>
       <c r="C104" s="22" t="e">
         <f>VLOOKUP(B104,#REF!,35,0)</f>
         <v>#REF!</v>
       </c>
-      <c r="D104" s="74" t="s">
+      <c r="D104" s="97" t="s">
         <v>203</v>
       </c>
       <c r="E104" s="22" t="s">
         <v>225</v>
       </c>
-      <c r="F104" s="75" t="s">
+      <c r="F104" s="98" t="s">
         <v>226</v>
       </c>
-      <c r="G104" s="75" t="s">
+      <c r="G104" s="98" t="s">
         <v>227</v>
       </c>
-      <c r="H104" s="74" t="s">
-        <v>26</v>
-      </c>
-      <c r="I104" s="74" t="s">
+      <c r="H104" s="97" t="s">
+        <v>26</v>
+      </c>
+      <c r="I104" s="97" t="s">
         <v>27</v>
       </c>
       <c r="J104" s="22" t="s">
@@ -10671,15 +10668,15 @@
       <c r="AD104" s="23"/>
     </row>
     <row r="105" spans="1:30" ht="16.5" customHeight="1">
-      <c r="A105" s="74"/>
-      <c r="B105" s="74"/>
+      <c r="A105" s="97"/>
+      <c r="B105" s="97"/>
       <c r="C105" s="22"/>
-      <c r="D105" s="74"/>
+      <c r="D105" s="97"/>
       <c r="E105" s="22"/>
-      <c r="F105" s="75"/>
-      <c r="G105" s="75"/>
-      <c r="H105" s="74"/>
-      <c r="I105" s="74"/>
+      <c r="F105" s="98"/>
+      <c r="G105" s="98"/>
+      <c r="H105" s="97"/>
+      <c r="I105" s="97"/>
       <c r="J105" s="22" t="s">
         <v>26</v>
       </c>
@@ -10718,15 +10715,15 @@
       <c r="AD105" s="23"/>
     </row>
     <row r="106" spans="1:30" ht="16.5" customHeight="1">
-      <c r="A106" s="74"/>
-      <c r="B106" s="74"/>
+      <c r="A106" s="97"/>
+      <c r="B106" s="97"/>
       <c r="C106" s="22"/>
-      <c r="D106" s="74"/>
+      <c r="D106" s="97"/>
       <c r="E106" s="22"/>
-      <c r="F106" s="75"/>
-      <c r="G106" s="75"/>
-      <c r="H106" s="74"/>
-      <c r="I106" s="74"/>
+      <c r="F106" s="98"/>
+      <c r="G106" s="98"/>
+      <c r="H106" s="97"/>
+      <c r="I106" s="97"/>
       <c r="J106" s="22" t="s">
         <v>31</v>
       </c>
@@ -10759,7 +10756,7 @@
       <c r="AD106" s="23"/>
     </row>
     <row r="107" spans="1:30" ht="16.5" customHeight="1">
-      <c r="A107" s="74">
+      <c r="A107" s="97">
         <v>89</v>
       </c>
       <c r="B107" s="22">
@@ -10769,22 +10766,22 @@
         <f>VLOOKUP(B107,#REF!,35,0)</f>
         <v>#REF!</v>
       </c>
-      <c r="D107" s="74" t="s">
+      <c r="D107" s="97" t="s">
         <v>203</v>
       </c>
       <c r="E107" s="22" t="s">
         <v>225</v>
       </c>
-      <c r="F107" s="75" t="s">
+      <c r="F107" s="98" t="s">
         <v>228</v>
       </c>
-      <c r="G107" s="75" t="s">
+      <c r="G107" s="98" t="s">
         <v>229</v>
       </c>
-      <c r="H107" s="74" t="s">
-        <v>31</v>
-      </c>
-      <c r="I107" s="74" t="s">
+      <c r="H107" s="97" t="s">
+        <v>31</v>
+      </c>
+      <c r="I107" s="97" t="s">
         <v>27</v>
       </c>
       <c r="J107" s="22" t="s">
@@ -10829,15 +10826,15 @@
       <c r="AD107" s="23"/>
     </row>
     <row r="108" spans="1:30" ht="16.5" customHeight="1">
-      <c r="A108" s="74"/>
+      <c r="A108" s="97"/>
       <c r="B108" s="22"/>
       <c r="C108" s="22"/>
-      <c r="D108" s="74"/>
+      <c r="D108" s="97"/>
       <c r="E108" s="22"/>
-      <c r="F108" s="75"/>
-      <c r="G108" s="75"/>
-      <c r="H108" s="74"/>
-      <c r="I108" s="74"/>
+      <c r="F108" s="98"/>
+      <c r="G108" s="98"/>
+      <c r="H108" s="97"/>
+      <c r="I108" s="97"/>
       <c r="J108" s="22"/>
       <c r="K108" s="22"/>
       <c r="L108" s="22"/>
@@ -11402,32 +11399,32 @@
       <c r="AD116" s="19"/>
     </row>
     <row r="117" spans="1:30" ht="16.5" customHeight="1">
-      <c r="A117" s="74">
+      <c r="A117" s="97">
         <v>98</v>
       </c>
-      <c r="B117" s="74">
+      <c r="B117" s="97">
         <v>20160445</v>
       </c>
       <c r="C117" s="22" t="e">
         <f>VLOOKUP(B117,#REF!,35,0)</f>
         <v>#REF!</v>
       </c>
-      <c r="D117" s="74" t="s">
+      <c r="D117" s="97" t="s">
         <v>203</v>
       </c>
       <c r="E117" s="22" t="s">
         <v>245</v>
       </c>
-      <c r="F117" s="75" t="s">
+      <c r="F117" s="98" t="s">
         <v>248</v>
       </c>
-      <c r="G117" s="75" t="s">
+      <c r="G117" s="98" t="s">
         <v>249</v>
       </c>
-      <c r="H117" s="74" t="s">
-        <v>31</v>
-      </c>
-      <c r="I117" s="74" t="s">
+      <c r="H117" s="97" t="s">
+        <v>31</v>
+      </c>
+      <c r="I117" s="97" t="s">
         <v>27</v>
       </c>
       <c r="J117" s="22" t="s">
@@ -11468,15 +11465,15 @@
       <c r="AD117" s="23"/>
     </row>
     <row r="118" spans="1:30" ht="16.5" customHeight="1">
-      <c r="A118" s="74"/>
-      <c r="B118" s="74"/>
+      <c r="A118" s="97"/>
+      <c r="B118" s="97"/>
       <c r="C118" s="22"/>
-      <c r="D118" s="74"/>
+      <c r="D118" s="97"/>
       <c r="E118" s="22"/>
-      <c r="F118" s="75"/>
-      <c r="G118" s="75"/>
-      <c r="H118" s="74"/>
-      <c r="I118" s="74"/>
+      <c r="F118" s="98"/>
+      <c r="G118" s="98"/>
+      <c r="H118" s="97"/>
+      <c r="I118" s="97"/>
       <c r="J118" s="24"/>
       <c r="K118" s="24"/>
       <c r="L118" s="22"/>
@@ -11560,32 +11557,32 @@
       <c r="AD119" s="19"/>
     </row>
     <row r="120" spans="1:30" ht="16.5" customHeight="1">
-      <c r="A120" s="74">
+      <c r="A120" s="97">
         <v>100</v>
       </c>
-      <c r="B120" s="74">
+      <c r="B120" s="97">
         <v>20010056</v>
       </c>
       <c r="C120" s="22" t="e">
         <f>VLOOKUP(B120,#REF!,35,0)</f>
         <v>#REF!</v>
       </c>
-      <c r="D120" s="74" t="s">
+      <c r="D120" s="97" t="s">
         <v>253</v>
       </c>
       <c r="E120" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="F120" s="75" t="s">
+      <c r="F120" s="98" t="s">
         <v>254</v>
       </c>
-      <c r="G120" s="75" t="s">
+      <c r="G120" s="98" t="s">
         <v>255</v>
       </c>
-      <c r="H120" s="74" t="s">
-        <v>26</v>
-      </c>
-      <c r="I120" s="74" t="s">
+      <c r="H120" s="97" t="s">
+        <v>26</v>
+      </c>
+      <c r="I120" s="97" t="s">
         <v>27</v>
       </c>
       <c r="J120" s="22" t="s">
@@ -11632,15 +11629,15 @@
       <c r="AD120" s="23"/>
     </row>
     <row r="121" spans="1:30" ht="16.5" customHeight="1">
-      <c r="A121" s="74"/>
-      <c r="B121" s="74"/>
+      <c r="A121" s="97"/>
+      <c r="B121" s="97"/>
       <c r="C121" s="22"/>
-      <c r="D121" s="74"/>
+      <c r="D121" s="97"/>
       <c r="E121" s="22"/>
-      <c r="F121" s="75"/>
-      <c r="G121" s="75"/>
-      <c r="H121" s="74"/>
-      <c r="I121" s="74"/>
+      <c r="F121" s="98"/>
+      <c r="G121" s="98"/>
+      <c r="H121" s="97"/>
+      <c r="I121" s="97"/>
       <c r="J121" s="22"/>
       <c r="K121" s="22"/>
       <c r="L121" s="22"/>
@@ -11819,32 +11816,32 @@
       <c r="AD123" s="23"/>
     </row>
     <row r="124" spans="1:30" ht="16.5" customHeight="1">
-      <c r="A124" s="74">
+      <c r="A124" s="97">
         <v>103</v>
       </c>
-      <c r="B124" s="74">
+      <c r="B124" s="97">
         <v>20200679</v>
       </c>
       <c r="C124" s="22" t="e">
         <f>VLOOKUP(B124,#REF!,35,0)</f>
         <v>#REF!</v>
       </c>
-      <c r="D124" s="74" t="s">
+      <c r="D124" s="97" t="s">
         <v>253</v>
       </c>
       <c r="E124" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="F124" s="74" t="s">
+      <c r="F124" s="97" t="s">
         <v>262</v>
       </c>
-      <c r="G124" s="74" t="s">
+      <c r="G124" s="97" t="s">
         <v>263</v>
       </c>
-      <c r="H124" s="74" t="s">
-        <v>26</v>
-      </c>
-      <c r="I124" s="74" t="s">
+      <c r="H124" s="97" t="s">
+        <v>26</v>
+      </c>
+      <c r="I124" s="97" t="s">
         <v>27</v>
       </c>
       <c r="J124" s="22" t="s">
@@ -11895,15 +11892,15 @@
       <c r="AD124" s="23"/>
     </row>
     <row r="125" spans="1:30" ht="16.5" customHeight="1">
-      <c r="A125" s="74"/>
-      <c r="B125" s="74"/>
+      <c r="A125" s="97"/>
+      <c r="B125" s="97"/>
       <c r="C125" s="22"/>
-      <c r="D125" s="74"/>
+      <c r="D125" s="97"/>
       <c r="E125" s="22"/>
-      <c r="F125" s="74"/>
-      <c r="G125" s="74"/>
-      <c r="H125" s="74"/>
-      <c r="I125" s="74"/>
+      <c r="F125" s="97"/>
+      <c r="G125" s="97"/>
+      <c r="H125" s="97"/>
+      <c r="I125" s="97"/>
       <c r="J125" s="22" t="s">
         <v>26</v>
       </c>
@@ -12150,32 +12147,32 @@
       <c r="AD128" s="23"/>
     </row>
     <row r="129" spans="1:30" ht="16.5" customHeight="1">
-      <c r="A129" s="74">
+      <c r="A129" s="97">
         <v>107</v>
       </c>
-      <c r="B129" s="74">
+      <c r="B129" s="97">
         <v>20080109</v>
       </c>
       <c r="C129" s="22" t="e">
         <f>VLOOKUP(B129,#REF!,35,0)</f>
         <v>#REF!</v>
       </c>
-      <c r="D129" s="74" t="s">
+      <c r="D129" s="97" t="s">
         <v>271</v>
       </c>
       <c r="E129" s="22" t="s">
         <v>272</v>
       </c>
-      <c r="F129" s="75" t="s">
+      <c r="F129" s="98" t="s">
         <v>273</v>
       </c>
-      <c r="G129" s="75" t="s">
+      <c r="G129" s="98" t="s">
         <v>274</v>
       </c>
-      <c r="H129" s="74" t="s">
-        <v>31</v>
-      </c>
-      <c r="I129" s="74" t="s">
+      <c r="H129" s="97" t="s">
+        <v>31</v>
+      </c>
+      <c r="I129" s="97" t="s">
         <v>27</v>
       </c>
       <c r="J129" s="22" t="s">
@@ -12230,15 +12227,15 @@
       <c r="AD129" s="23"/>
     </row>
     <row r="130" spans="1:30" ht="16.5" customHeight="1">
-      <c r="A130" s="74"/>
-      <c r="B130" s="74"/>
+      <c r="A130" s="97"/>
+      <c r="B130" s="97"/>
       <c r="C130" s="22"/>
-      <c r="D130" s="74"/>
+      <c r="D130" s="97"/>
       <c r="E130" s="22"/>
-      <c r="F130" s="75"/>
-      <c r="G130" s="75"/>
-      <c r="H130" s="74"/>
-      <c r="I130" s="74"/>
+      <c r="F130" s="98"/>
+      <c r="G130" s="98"/>
+      <c r="H130" s="97"/>
+      <c r="I130" s="97"/>
       <c r="J130" s="22"/>
       <c r="K130" s="22"/>
       <c r="L130" s="22"/>
@@ -12463,32 +12460,32 @@
       <c r="AD133" s="23"/>
     </row>
     <row r="134" spans="1:30" ht="16.5" customHeight="1">
-      <c r="A134" s="74">
+      <c r="A134" s="97">
         <v>111</v>
       </c>
-      <c r="B134" s="74">
+      <c r="B134" s="97">
         <v>20200719</v>
       </c>
       <c r="C134" s="22" t="e">
         <f>VLOOKUP(B134,#REF!,35,0)</f>
         <v>#REF!</v>
       </c>
-      <c r="D134" s="74" t="s">
+      <c r="D134" s="97" t="s">
         <v>271</v>
       </c>
       <c r="E134" s="22" t="s">
         <v>282</v>
       </c>
-      <c r="F134" s="75" t="s">
+      <c r="F134" s="98" t="s">
         <v>285</v>
       </c>
-      <c r="G134" s="75" t="s">
+      <c r="G134" s="98" t="s">
         <v>286</v>
       </c>
-      <c r="H134" s="74" t="s">
-        <v>31</v>
-      </c>
-      <c r="I134" s="74" t="s">
+      <c r="H134" s="97" t="s">
+        <v>31</v>
+      </c>
+      <c r="I134" s="97" t="s">
         <v>27</v>
       </c>
       <c r="J134" s="22" t="s">
@@ -12533,15 +12530,15 @@
       <c r="AD134" s="23"/>
     </row>
     <row r="135" spans="1:30" ht="16.5" customHeight="1">
-      <c r="A135" s="74"/>
-      <c r="B135" s="74"/>
+      <c r="A135" s="97"/>
+      <c r="B135" s="97"/>
       <c r="C135" s="22"/>
-      <c r="D135" s="74"/>
+      <c r="D135" s="97"/>
       <c r="E135" s="22"/>
-      <c r="F135" s="75"/>
-      <c r="G135" s="75"/>
-      <c r="H135" s="74"/>
-      <c r="I135" s="74"/>
+      <c r="F135" s="98"/>
+      <c r="G135" s="98"/>
+      <c r="H135" s="97"/>
+      <c r="I135" s="97"/>
       <c r="J135" s="22" t="s">
         <v>26</v>
       </c>
@@ -12584,32 +12581,32 @@
       <c r="AD135" s="23"/>
     </row>
     <row r="136" spans="1:30" ht="16.5" customHeight="1">
-      <c r="A136" s="74">
+      <c r="A136" s="97">
         <v>112</v>
       </c>
-      <c r="B136" s="74">
+      <c r="B136" s="97">
         <v>20220886</v>
       </c>
       <c r="C136" s="22" t="e">
         <f>VLOOKUP(B136,#REF!,35,0)</f>
         <v>#REF!</v>
       </c>
-      <c r="D136" s="74" t="s">
+      <c r="D136" s="97" t="s">
         <v>271</v>
       </c>
       <c r="E136" s="22" t="s">
         <v>282</v>
       </c>
-      <c r="F136" s="75" t="s">
+      <c r="F136" s="98" t="s">
         <v>287</v>
       </c>
-      <c r="G136" s="75" t="s">
+      <c r="G136" s="98" t="s">
         <v>288</v>
       </c>
-      <c r="H136" s="74" t="s">
-        <v>31</v>
-      </c>
-      <c r="I136" s="74" t="s">
+      <c r="H136" s="97" t="s">
+        <v>31</v>
+      </c>
+      <c r="I136" s="97" t="s">
         <v>27</v>
       </c>
       <c r="J136" s="22" t="s">
@@ -12664,15 +12661,15 @@
       <c r="AD136" s="23"/>
     </row>
     <row r="137" spans="1:30" ht="16.5" customHeight="1">
-      <c r="A137" s="74"/>
-      <c r="B137" s="74"/>
+      <c r="A137" s="97"/>
+      <c r="B137" s="97"/>
       <c r="C137" s="22"/>
-      <c r="D137" s="74"/>
+      <c r="D137" s="97"/>
       <c r="E137" s="22"/>
-      <c r="F137" s="75"/>
-      <c r="G137" s="75"/>
-      <c r="H137" s="74"/>
-      <c r="I137" s="74"/>
+      <c r="F137" s="98"/>
+      <c r="G137" s="98"/>
+      <c r="H137" s="97"/>
+      <c r="I137" s="97"/>
       <c r="J137" s="22" t="s">
         <v>31</v>
       </c>
@@ -12791,32 +12788,32 @@
       <c r="AD138" s="23"/>
     </row>
     <row r="139" spans="1:30" ht="16.5" customHeight="1">
-      <c r="A139" s="74">
+      <c r="A139" s="97">
         <v>114</v>
       </c>
-      <c r="B139" s="74">
+      <c r="B139" s="97">
         <v>20140279</v>
       </c>
       <c r="C139" s="22" t="e">
         <f>VLOOKUP(B139,#REF!,35,0)</f>
         <v>#REF!</v>
       </c>
-      <c r="D139" s="74" t="s">
+      <c r="D139" s="97" t="s">
         <v>293</v>
       </c>
       <c r="E139" s="22" t="s">
         <v>293</v>
       </c>
-      <c r="F139" s="75" t="s">
+      <c r="F139" s="98" t="s">
         <v>294</v>
       </c>
-      <c r="G139" s="75" t="s">
+      <c r="G139" s="98" t="s">
         <v>295</v>
       </c>
-      <c r="H139" s="74" t="s">
-        <v>26</v>
-      </c>
-      <c r="I139" s="74" t="s">
+      <c r="H139" s="97" t="s">
+        <v>26</v>
+      </c>
+      <c r="I139" s="97" t="s">
         <v>27</v>
       </c>
       <c r="J139" s="22" t="s">
@@ -12851,15 +12848,15 @@
       <c r="AD139" s="23"/>
     </row>
     <row r="140" spans="1:30" ht="16.5" customHeight="1">
-      <c r="A140" s="74"/>
-      <c r="B140" s="74"/>
+      <c r="A140" s="97"/>
+      <c r="B140" s="97"/>
       <c r="C140" s="22"/>
-      <c r="D140" s="74"/>
+      <c r="D140" s="97"/>
       <c r="E140" s="22"/>
-      <c r="F140" s="75"/>
-      <c r="G140" s="75"/>
-      <c r="H140" s="74"/>
-      <c r="I140" s="74"/>
+      <c r="F140" s="98"/>
+      <c r="G140" s="98"/>
+      <c r="H140" s="97"/>
+      <c r="I140" s="97"/>
       <c r="J140" s="22" t="s">
         <v>26</v>
       </c>
@@ -13024,32 +13021,32 @@
       <c r="AD142" s="23"/>
     </row>
     <row r="143" spans="1:30" ht="16.5" customHeight="1">
-      <c r="A143" s="74">
+      <c r="A143" s="97">
         <v>117</v>
       </c>
-      <c r="B143" s="74">
+      <c r="B143" s="97">
         <v>20210731</v>
       </c>
       <c r="C143" s="22" t="e">
         <f>VLOOKUP(B143,#REF!,35,0)</f>
         <v>#REF!</v>
       </c>
-      <c r="D143" s="74" t="s">
+      <c r="D143" s="97" t="s">
         <v>296</v>
       </c>
       <c r="E143" s="22" t="s">
         <v>297</v>
       </c>
-      <c r="F143" s="74" t="s">
+      <c r="F143" s="97" t="s">
         <v>302</v>
       </c>
-      <c r="G143" s="74" t="s">
+      <c r="G143" s="97" t="s">
         <v>303</v>
       </c>
-      <c r="H143" s="74" t="s">
-        <v>31</v>
-      </c>
-      <c r="I143" s="74" t="s">
+      <c r="H143" s="97" t="s">
+        <v>31</v>
+      </c>
+      <c r="I143" s="97" t="s">
         <v>27</v>
       </c>
       <c r="J143" s="22" t="s">
@@ -13094,15 +13091,15 @@
       <c r="AD143" s="23"/>
     </row>
     <row r="144" spans="1:30" ht="16.5" customHeight="1">
-      <c r="A144" s="74"/>
-      <c r="B144" s="74"/>
+      <c r="A144" s="97"/>
+      <c r="B144" s="97"/>
       <c r="C144" s="22"/>
-      <c r="D144" s="74"/>
+      <c r="D144" s="97"/>
       <c r="E144" s="22"/>
-      <c r="F144" s="74"/>
-      <c r="G144" s="74"/>
-      <c r="H144" s="74"/>
-      <c r="I144" s="74"/>
+      <c r="F144" s="97"/>
+      <c r="G144" s="97"/>
+      <c r="H144" s="97"/>
+      <c r="I144" s="97"/>
       <c r="J144" s="22"/>
       <c r="K144" s="24"/>
       <c r="L144" s="22"/>
@@ -13535,32 +13532,32 @@
       <c r="AD150" s="23"/>
     </row>
     <row r="151" spans="1:30" ht="16.5" customHeight="1">
-      <c r="A151" s="74">
+      <c r="A151" s="97">
         <v>124</v>
       </c>
-      <c r="B151" s="74">
+      <c r="B151" s="97">
         <v>20190610</v>
       </c>
       <c r="C151" s="22" t="e">
         <f>VLOOKUP(B151,#REF!,35,0)</f>
         <v>#REF!</v>
       </c>
-      <c r="D151" s="74" t="s">
+      <c r="D151" s="97" t="s">
         <v>296</v>
       </c>
       <c r="E151" s="22" t="s">
         <v>319</v>
       </c>
-      <c r="F151" s="75" t="s">
+      <c r="F151" s="98" t="s">
         <v>320</v>
       </c>
-      <c r="G151" s="75" t="s">
+      <c r="G151" s="98" t="s">
         <v>321</v>
       </c>
-      <c r="H151" s="74" t="s">
-        <v>31</v>
-      </c>
-      <c r="I151" s="74" t="s">
+      <c r="H151" s="97" t="s">
+        <v>31</v>
+      </c>
+      <c r="I151" s="97" t="s">
         <v>27</v>
       </c>
       <c r="J151" s="22" t="s">
@@ -13605,15 +13602,15 @@
       <c r="AD151" s="23"/>
     </row>
     <row r="152" spans="1:30" ht="16.5" customHeight="1">
-      <c r="A152" s="74"/>
-      <c r="B152" s="74"/>
+      <c r="A152" s="97"/>
+      <c r="B152" s="97"/>
       <c r="C152" s="22"/>
-      <c r="D152" s="74"/>
+      <c r="D152" s="97"/>
       <c r="E152" s="22"/>
-      <c r="F152" s="75"/>
-      <c r="G152" s="75"/>
-      <c r="H152" s="74"/>
-      <c r="I152" s="74"/>
+      <c r="F152" s="98"/>
+      <c r="G152" s="98"/>
+      <c r="H152" s="97"/>
+      <c r="I152" s="97"/>
       <c r="J152" s="22" t="s">
         <v>31</v>
       </c>
@@ -13786,32 +13783,32 @@
       <c r="AD154" s="23"/>
     </row>
     <row r="155" spans="1:30" ht="16.5" customHeight="1">
-      <c r="A155" s="74">
+      <c r="A155" s="97">
         <v>127</v>
       </c>
-      <c r="B155" s="74">
+      <c r="B155" s="97">
         <v>20220874</v>
       </c>
       <c r="C155" s="22" t="e">
         <f>VLOOKUP(B155,#REF!,35,0)</f>
         <v>#REF!</v>
       </c>
-      <c r="D155" s="74" t="s">
+      <c r="D155" s="97" t="s">
         <v>296</v>
       </c>
       <c r="E155" s="22" t="s">
         <v>326</v>
       </c>
-      <c r="F155" s="75" t="s">
+      <c r="F155" s="98" t="s">
         <v>329</v>
       </c>
-      <c r="G155" s="75" t="s">
+      <c r="G155" s="98" t="s">
         <v>330</v>
       </c>
-      <c r="H155" s="74" t="s">
-        <v>31</v>
-      </c>
-      <c r="I155" s="74" t="s">
+      <c r="H155" s="97" t="s">
+        <v>31</v>
+      </c>
+      <c r="I155" s="97" t="s">
         <v>27</v>
       </c>
       <c r="J155" s="22" t="s">
@@ -13852,15 +13849,15 @@
       <c r="AD155" s="23"/>
     </row>
     <row r="156" spans="1:30" ht="16.5" customHeight="1">
-      <c r="A156" s="74"/>
-      <c r="B156" s="74"/>
+      <c r="A156" s="97"/>
+      <c r="B156" s="97"/>
       <c r="C156" s="22"/>
-      <c r="D156" s="74"/>
+      <c r="D156" s="97"/>
       <c r="E156" s="22"/>
-      <c r="F156" s="75"/>
-      <c r="G156" s="75"/>
-      <c r="H156" s="74"/>
-      <c r="I156" s="74"/>
+      <c r="F156" s="98"/>
+      <c r="G156" s="98"/>
+      <c r="H156" s="97"/>
+      <c r="I156" s="97"/>
       <c r="J156" s="22" t="s">
         <v>26</v>
       </c>
@@ -13899,32 +13896,32 @@
       <c r="AD156" s="23"/>
     </row>
     <row r="157" spans="1:30" ht="16.5" customHeight="1">
-      <c r="A157" s="74">
+      <c r="A157" s="97">
         <v>128</v>
       </c>
-      <c r="B157" s="74">
+      <c r="B157" s="97">
         <v>20190607</v>
       </c>
       <c r="C157" s="22" t="e">
         <f>VLOOKUP(B157,#REF!,35,0)</f>
         <v>#REF!</v>
       </c>
-      <c r="D157" s="74" t="s">
+      <c r="D157" s="97" t="s">
         <v>296</v>
       </c>
       <c r="E157" s="22" t="s">
         <v>331</v>
       </c>
-      <c r="F157" s="75" t="s">
+      <c r="F157" s="98" t="s">
         <v>332</v>
       </c>
-      <c r="G157" s="75" t="s">
+      <c r="G157" s="98" t="s">
         <v>333</v>
       </c>
-      <c r="H157" s="74" t="s">
-        <v>26</v>
-      </c>
-      <c r="I157" s="74" t="s">
+      <c r="H157" s="97" t="s">
+        <v>26</v>
+      </c>
+      <c r="I157" s="97" t="s">
         <v>27</v>
       </c>
       <c r="J157" s="22" t="s">
@@ -13969,15 +13966,15 @@
       <c r="AD157" s="23"/>
     </row>
     <row r="158" spans="1:30" ht="16.5" customHeight="1">
-      <c r="A158" s="74"/>
-      <c r="B158" s="74"/>
+      <c r="A158" s="97"/>
+      <c r="B158" s="97"/>
       <c r="C158" s="22"/>
-      <c r="D158" s="74"/>
+      <c r="D158" s="97"/>
       <c r="E158" s="22"/>
-      <c r="F158" s="75"/>
-      <c r="G158" s="75"/>
-      <c r="H158" s="74"/>
-      <c r="I158" s="74"/>
+      <c r="F158" s="98"/>
+      <c r="G158" s="98"/>
+      <c r="H158" s="97"/>
+      <c r="I158" s="97"/>
       <c r="J158" s="22"/>
       <c r="K158" s="22"/>
       <c r="L158" s="22"/>
@@ -14136,32 +14133,32 @@
       <c r="AD160" s="19"/>
     </row>
     <row r="161" spans="1:30" ht="16.5" customHeight="1">
-      <c r="A161" s="74">
+      <c r="A161" s="97">
         <v>131</v>
       </c>
-      <c r="B161" s="74">
+      <c r="B161" s="97">
         <v>20130242</v>
       </c>
       <c r="C161" s="22" t="e">
         <f>VLOOKUP(B161,#REF!,35,0)</f>
         <v>#REF!</v>
       </c>
-      <c r="D161" s="74" t="s">
+      <c r="D161" s="97" t="s">
         <v>341</v>
       </c>
       <c r="E161" s="22" t="s">
         <v>342</v>
       </c>
-      <c r="F161" s="75" t="s">
+      <c r="F161" s="98" t="s">
         <v>343</v>
       </c>
-      <c r="G161" s="75" t="s">
+      <c r="G161" s="98" t="s">
         <v>344</v>
       </c>
-      <c r="H161" s="74" t="s">
-        <v>26</v>
-      </c>
-      <c r="I161" s="74" t="s">
+      <c r="H161" s="97" t="s">
+        <v>26</v>
+      </c>
+      <c r="I161" s="97" t="s">
         <v>27</v>
       </c>
       <c r="J161" s="22" t="s">
@@ -14212,15 +14209,15 @@
       <c r="AD161" s="23"/>
     </row>
     <row r="162" spans="1:30" ht="16.5" customHeight="1">
-      <c r="A162" s="74"/>
-      <c r="B162" s="74"/>
+      <c r="A162" s="97"/>
+      <c r="B162" s="97"/>
       <c r="C162" s="22"/>
-      <c r="D162" s="74"/>
+      <c r="D162" s="97"/>
       <c r="E162" s="22"/>
-      <c r="F162" s="75"/>
-      <c r="G162" s="75"/>
-      <c r="H162" s="74"/>
-      <c r="I162" s="74"/>
+      <c r="F162" s="98"/>
+      <c r="G162" s="98"/>
+      <c r="H162" s="97"/>
+      <c r="I162" s="97"/>
       <c r="J162" s="22" t="s">
         <v>26</v>
       </c>
@@ -14319,32 +14316,32 @@
       <c r="AD163" s="23"/>
     </row>
     <row r="164" spans="1:30" ht="16.5" customHeight="1">
-      <c r="A164" s="74">
+      <c r="A164" s="97">
         <v>133</v>
       </c>
-      <c r="B164" s="74">
+      <c r="B164" s="97">
         <v>20040072</v>
       </c>
       <c r="C164" s="22" t="e">
         <f>VLOOKUP(B164,#REF!,35,0)</f>
         <v>#REF!</v>
       </c>
-      <c r="D164" s="74" t="s">
+      <c r="D164" s="97" t="s">
         <v>347</v>
       </c>
       <c r="E164" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="F164" s="75" t="s">
+      <c r="F164" s="98" t="s">
         <v>348</v>
       </c>
-      <c r="G164" s="75" t="s">
+      <c r="G164" s="98" t="s">
         <v>349</v>
       </c>
-      <c r="H164" s="74" t="s">
-        <v>31</v>
-      </c>
-      <c r="I164" s="74" t="s">
+      <c r="H164" s="97" t="s">
+        <v>31</v>
+      </c>
+      <c r="I164" s="97" t="s">
         <v>27</v>
       </c>
       <c r="J164" s="22" t="s">
@@ -14385,15 +14382,15 @@
       <c r="AD164" s="23"/>
     </row>
     <row r="165" spans="1:30" ht="16.5" customHeight="1">
-      <c r="A165" s="74"/>
-      <c r="B165" s="74"/>
+      <c r="A165" s="97"/>
+      <c r="B165" s="97"/>
       <c r="C165" s="22"/>
-      <c r="D165" s="74"/>
+      <c r="D165" s="97"/>
       <c r="E165" s="22"/>
-      <c r="F165" s="75"/>
-      <c r="G165" s="75"/>
-      <c r="H165" s="74"/>
-      <c r="I165" s="74"/>
+      <c r="F165" s="98"/>
+      <c r="G165" s="98"/>
+      <c r="H165" s="97"/>
+      <c r="I165" s="97"/>
       <c r="J165" s="22" t="s">
         <v>26</v>
       </c>
@@ -14426,15 +14423,15 @@
       <c r="AD165" s="23"/>
     </row>
     <row r="166" spans="1:30" ht="16.5" customHeight="1">
-      <c r="A166" s="74"/>
-      <c r="B166" s="74"/>
+      <c r="A166" s="97"/>
+      <c r="B166" s="97"/>
       <c r="C166" s="22"/>
-      <c r="D166" s="74"/>
+      <c r="D166" s="97"/>
       <c r="E166" s="22"/>
-      <c r="F166" s="75"/>
-      <c r="G166" s="75"/>
-      <c r="H166" s="74"/>
-      <c r="I166" s="74"/>
+      <c r="F166" s="98"/>
+      <c r="G166" s="98"/>
+      <c r="H166" s="97"/>
+      <c r="I166" s="97"/>
       <c r="J166" s="22" t="s">
         <v>26</v>
       </c>
@@ -14467,15 +14464,15 @@
       <c r="AD166" s="23"/>
     </row>
     <row r="167" spans="1:30" ht="16.5" customHeight="1">
-      <c r="A167" s="74"/>
-      <c r="B167" s="74"/>
+      <c r="A167" s="97"/>
+      <c r="B167" s="97"/>
       <c r="C167" s="22"/>
-      <c r="D167" s="74"/>
+      <c r="D167" s="97"/>
       <c r="E167" s="22"/>
-      <c r="F167" s="75"/>
-      <c r="G167" s="75"/>
-      <c r="H167" s="74"/>
-      <c r="I167" s="74"/>
+      <c r="F167" s="98"/>
+      <c r="G167" s="98"/>
+      <c r="H167" s="97"/>
+      <c r="I167" s="97"/>
       <c r="J167" s="22" t="s">
         <v>31</v>
       </c>
@@ -14508,32 +14505,32 @@
       <c r="AD167" s="23"/>
     </row>
     <row r="168" spans="1:30" ht="16.5" customHeight="1">
-      <c r="A168" s="74">
+      <c r="A168" s="97">
         <v>134</v>
       </c>
-      <c r="B168" s="74">
+      <c r="B168" s="97">
         <v>20130241</v>
       </c>
       <c r="C168" s="22" t="e">
         <f>VLOOKUP(B168,#REF!,35,0)</f>
         <v>#REF!</v>
       </c>
-      <c r="D168" s="74" t="s">
+      <c r="D168" s="97" t="s">
         <v>347</v>
       </c>
       <c r="E168" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="F168" s="75" t="s">
+      <c r="F168" s="98" t="s">
         <v>350</v>
       </c>
-      <c r="G168" s="75" t="s">
+      <c r="G168" s="98" t="s">
         <v>351</v>
       </c>
-      <c r="H168" s="74" t="s">
-        <v>31</v>
-      </c>
-      <c r="I168" s="74" t="s">
+      <c r="H168" s="97" t="s">
+        <v>31</v>
+      </c>
+      <c r="I168" s="97" t="s">
         <v>27</v>
       </c>
       <c r="J168" s="22" t="s">
@@ -14574,15 +14571,15 @@
       <c r="AD168" s="23"/>
     </row>
     <row r="169" spans="1:30" ht="16.5" customHeight="1">
-      <c r="A169" s="74"/>
-      <c r="B169" s="74"/>
+      <c r="A169" s="97"/>
+      <c r="B169" s="97"/>
       <c r="C169" s="22"/>
-      <c r="D169" s="74"/>
+      <c r="D169" s="97"/>
       <c r="E169" s="22"/>
-      <c r="F169" s="75"/>
-      <c r="G169" s="75"/>
-      <c r="H169" s="74"/>
-      <c r="I169" s="74"/>
+      <c r="F169" s="98"/>
+      <c r="G169" s="98"/>
+      <c r="H169" s="97"/>
+      <c r="I169" s="97"/>
       <c r="J169" s="22" t="s">
         <v>31</v>
       </c>
@@ -14701,32 +14698,32 @@
       <c r="AD170" s="23"/>
     </row>
     <row r="171" spans="1:30" ht="16.5" customHeight="1">
-      <c r="A171" s="74">
+      <c r="A171" s="97">
         <v>136</v>
       </c>
-      <c r="B171" s="74">
+      <c r="B171" s="97">
         <v>20190596</v>
       </c>
       <c r="C171" s="22" t="e">
         <f>VLOOKUP(B171,#REF!,35,0)</f>
         <v>#REF!</v>
       </c>
-      <c r="D171" s="74" t="s">
+      <c r="D171" s="97" t="s">
         <v>347</v>
       </c>
       <c r="E171" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="F171" s="75" t="s">
+      <c r="F171" s="98" t="s">
         <v>354</v>
       </c>
-      <c r="G171" s="75" t="s">
+      <c r="G171" s="98" t="s">
         <v>355</v>
       </c>
-      <c r="H171" s="74" t="s">
-        <v>31</v>
-      </c>
-      <c r="I171" s="74" t="s">
+      <c r="H171" s="97" t="s">
+        <v>31</v>
+      </c>
+      <c r="I171" s="97" t="s">
         <v>27</v>
       </c>
       <c r="J171" s="22" t="s">
@@ -14779,15 +14776,15 @@
       <c r="AD171" s="23"/>
     </row>
     <row r="172" spans="1:30" ht="16.5" customHeight="1">
-      <c r="A172" s="74"/>
-      <c r="B172" s="74"/>
+      <c r="A172" s="97"/>
+      <c r="B172" s="97"/>
       <c r="C172" s="22"/>
-      <c r="D172" s="74"/>
+      <c r="D172" s="97"/>
       <c r="E172" s="22"/>
-      <c r="F172" s="75"/>
-      <c r="G172" s="75"/>
-      <c r="H172" s="74"/>
-      <c r="I172" s="74"/>
+      <c r="F172" s="98"/>
+      <c r="G172" s="98"/>
+      <c r="H172" s="97"/>
+      <c r="I172" s="97"/>
       <c r="J172" s="22" t="s">
         <v>31</v>
       </c>
@@ -14826,15 +14823,15 @@
       <c r="AD172" s="23"/>
     </row>
     <row r="173" spans="1:30" ht="16.5" customHeight="1">
-      <c r="A173" s="74"/>
-      <c r="B173" s="74"/>
+      <c r="A173" s="97"/>
+      <c r="B173" s="97"/>
       <c r="C173" s="22"/>
-      <c r="D173" s="74"/>
+      <c r="D173" s="97"/>
       <c r="E173" s="22"/>
-      <c r="F173" s="75"/>
-      <c r="G173" s="75"/>
-      <c r="H173" s="74"/>
-      <c r="I173" s="74"/>
+      <c r="F173" s="98"/>
+      <c r="G173" s="98"/>
+      <c r="H173" s="97"/>
+      <c r="I173" s="97"/>
       <c r="J173" s="22"/>
       <c r="K173" s="22"/>
       <c r="L173" s="22"/>
@@ -14933,32 +14930,32 @@
       <c r="AD174" s="23"/>
     </row>
     <row r="175" spans="1:30" ht="16.5" customHeight="1">
-      <c r="A175" s="74">
+      <c r="A175" s="97">
         <v>138</v>
       </c>
-      <c r="B175" s="74">
+      <c r="B175" s="97">
         <v>20200634</v>
       </c>
       <c r="C175" s="22" t="e">
         <f>VLOOKUP(B175,#REF!,35,0)</f>
         <v>#REF!</v>
       </c>
-      <c r="D175" s="74" t="s">
+      <c r="D175" s="97" t="s">
         <v>347</v>
       </c>
       <c r="E175" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="F175" s="75" t="s">
+      <c r="F175" s="98" t="s">
         <v>358</v>
       </c>
-      <c r="G175" s="75" t="s">
+      <c r="G175" s="98" t="s">
         <v>359</v>
       </c>
-      <c r="H175" s="74" t="s">
-        <v>31</v>
-      </c>
-      <c r="I175" s="74" t="s">
+      <c r="H175" s="97" t="s">
+        <v>31</v>
+      </c>
+      <c r="I175" s="97" t="s">
         <v>27</v>
       </c>
       <c r="J175" s="22" t="s">
@@ -15013,15 +15010,15 @@
       <c r="AD175" s="23"/>
     </row>
     <row r="176" spans="1:30" ht="16.5" customHeight="1">
-      <c r="A176" s="74"/>
-      <c r="B176" s="74"/>
+      <c r="A176" s="97"/>
+      <c r="B176" s="97"/>
       <c r="C176" s="22"/>
-      <c r="D176" s="74"/>
+      <c r="D176" s="97"/>
       <c r="E176" s="22"/>
-      <c r="F176" s="75"/>
-      <c r="G176" s="75"/>
-      <c r="H176" s="74"/>
-      <c r="I176" s="74"/>
+      <c r="F176" s="98"/>
+      <c r="G176" s="98"/>
+      <c r="H176" s="97"/>
+      <c r="I176" s="97"/>
       <c r="J176" s="22"/>
       <c r="K176" s="22"/>
       <c r="L176" s="22"/>
@@ -15054,15 +15051,15 @@
       <c r="AD176" s="23"/>
     </row>
     <row r="177" spans="1:30" ht="16.5" customHeight="1">
-      <c r="A177" s="74"/>
-      <c r="B177" s="74"/>
+      <c r="A177" s="97"/>
+      <c r="B177" s="97"/>
       <c r="C177" s="22"/>
-      <c r="D177" s="74"/>
+      <c r="D177" s="97"/>
       <c r="E177" s="22"/>
-      <c r="F177" s="75"/>
-      <c r="G177" s="75"/>
-      <c r="H177" s="74"/>
-      <c r="I177" s="74"/>
+      <c r="F177" s="98"/>
+      <c r="G177" s="98"/>
+      <c r="H177" s="97"/>
+      <c r="I177" s="97"/>
       <c r="J177" s="22"/>
       <c r="K177" s="22"/>
       <c r="L177" s="22"/>
@@ -15165,32 +15162,32 @@
       <c r="AD178" s="23"/>
     </row>
     <row r="179" spans="1:30" ht="16.5" customHeight="1">
-      <c r="A179" s="74">
+      <c r="A179" s="97">
         <v>140</v>
       </c>
-      <c r="B179" s="74">
+      <c r="B179" s="97">
         <v>20200673</v>
       </c>
       <c r="C179" s="22" t="e">
         <f>VLOOKUP(B179,#REF!,35,0)</f>
         <v>#REF!</v>
       </c>
-      <c r="D179" s="74" t="s">
+      <c r="D179" s="97" t="s">
         <v>347</v>
       </c>
       <c r="E179" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="F179" s="75" t="s">
+      <c r="F179" s="98" t="s">
         <v>362</v>
       </c>
-      <c r="G179" s="75" t="s">
+      <c r="G179" s="98" t="s">
         <v>363</v>
       </c>
-      <c r="H179" s="75" t="s">
-        <v>31</v>
-      </c>
-      <c r="I179" s="74" t="s">
+      <c r="H179" s="98" t="s">
+        <v>31</v>
+      </c>
+      <c r="I179" s="97" t="s">
         <v>27</v>
       </c>
       <c r="J179" s="22" t="s">
@@ -15231,15 +15228,15 @@
       <c r="AD179" s="23"/>
     </row>
     <row r="180" spans="1:30" ht="16.5" customHeight="1">
-      <c r="A180" s="74"/>
-      <c r="B180" s="74"/>
+      <c r="A180" s="97"/>
+      <c r="B180" s="97"/>
       <c r="C180" s="22"/>
-      <c r="D180" s="74"/>
+      <c r="D180" s="97"/>
       <c r="E180" s="22"/>
-      <c r="F180" s="75"/>
-      <c r="G180" s="75"/>
-      <c r="H180" s="75"/>
-      <c r="I180" s="74"/>
+      <c r="F180" s="98"/>
+      <c r="G180" s="98"/>
+      <c r="H180" s="98"/>
+      <c r="I180" s="97"/>
       <c r="J180" s="22" t="s">
         <v>31</v>
       </c>
@@ -15420,32 +15417,32 @@
       <c r="AD182" s="23"/>
     </row>
     <row r="183" spans="1:30" ht="16.5" customHeight="1">
-      <c r="A183" s="74">
+      <c r="A183" s="97">
         <v>143</v>
       </c>
-      <c r="B183" s="74">
+      <c r="B183" s="97">
         <v>20200710</v>
       </c>
       <c r="C183" s="22" t="e">
         <f>VLOOKUP(B183,#REF!,35,0)</f>
         <v>#REF!</v>
       </c>
-      <c r="D183" s="74" t="s">
+      <c r="D183" s="97" t="s">
         <v>347</v>
       </c>
       <c r="E183" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="F183" s="75" t="s">
+      <c r="F183" s="98" t="s">
         <v>369</v>
       </c>
-      <c r="G183" s="75" t="s">
+      <c r="G183" s="98" t="s">
         <v>370</v>
       </c>
-      <c r="H183" s="74" t="s">
-        <v>31</v>
-      </c>
-      <c r="I183" s="74" t="s">
+      <c r="H183" s="97" t="s">
+        <v>31</v>
+      </c>
+      <c r="I183" s="97" t="s">
         <v>27</v>
       </c>
       <c r="J183" s="22" t="s">
@@ -15486,15 +15483,15 @@
       <c r="AD183" s="23"/>
     </row>
     <row r="184" spans="1:30" ht="16.5" customHeight="1">
-      <c r="A184" s="74"/>
-      <c r="B184" s="74"/>
+      <c r="A184" s="97"/>
+      <c r="B184" s="97"/>
       <c r="C184" s="22"/>
-      <c r="D184" s="74"/>
+      <c r="D184" s="97"/>
       <c r="E184" s="22"/>
-      <c r="F184" s="75"/>
-      <c r="G184" s="75"/>
-      <c r="H184" s="74"/>
-      <c r="I184" s="74"/>
+      <c r="F184" s="98"/>
+      <c r="G184" s="98"/>
+      <c r="H184" s="97"/>
+      <c r="I184" s="97"/>
       <c r="J184" s="22"/>
       <c r="K184" s="22"/>
       <c r="L184" s="22"/>
@@ -15527,15 +15524,15 @@
       <c r="AD184" s="23"/>
     </row>
     <row r="185" spans="1:30" ht="16.5" customHeight="1">
-      <c r="A185" s="74"/>
-      <c r="B185" s="74"/>
+      <c r="A185" s="97"/>
+      <c r="B185" s="97"/>
       <c r="C185" s="22"/>
-      <c r="D185" s="74"/>
+      <c r="D185" s="97"/>
       <c r="E185" s="22"/>
-      <c r="F185" s="75"/>
-      <c r="G185" s="75"/>
-      <c r="H185" s="74"/>
-      <c r="I185" s="74"/>
+      <c r="F185" s="98"/>
+      <c r="G185" s="98"/>
+      <c r="H185" s="97"/>
+      <c r="I185" s="97"/>
       <c r="J185" s="22"/>
       <c r="K185" s="22"/>
       <c r="L185" s="22"/>
@@ -15568,15 +15565,15 @@
       <c r="AD185" s="23"/>
     </row>
     <row r="186" spans="1:30" ht="16.5" customHeight="1">
-      <c r="A186" s="74"/>
-      <c r="B186" s="74"/>
+      <c r="A186" s="97"/>
+      <c r="B186" s="97"/>
       <c r="C186" s="22"/>
-      <c r="D186" s="74"/>
+      <c r="D186" s="97"/>
       <c r="E186" s="22"/>
-      <c r="F186" s="75"/>
-      <c r="G186" s="75"/>
-      <c r="H186" s="74"/>
-      <c r="I186" s="74"/>
+      <c r="F186" s="98"/>
+      <c r="G186" s="98"/>
+      <c r="H186" s="97"/>
+      <c r="I186" s="97"/>
       <c r="J186" s="22"/>
       <c r="K186" s="22"/>
       <c r="L186" s="22"/>
@@ -15885,32 +15882,32 @@
       </c>
     </row>
     <row r="191" spans="1:30" ht="16.5" customHeight="1">
-      <c r="A191" s="74">
+      <c r="A191" s="97">
         <v>148</v>
       </c>
-      <c r="B191" s="74">
+      <c r="B191" s="97">
         <v>20220828</v>
       </c>
       <c r="C191" s="22" t="e">
         <f>VLOOKUP(B191,#REF!,35,0)</f>
         <v>#REF!</v>
       </c>
-      <c r="D191" s="74" t="s">
+      <c r="D191" s="97" t="s">
         <v>347</v>
       </c>
       <c r="E191" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="F191" s="75" t="s">
+      <c r="F191" s="98" t="s">
         <v>380</v>
       </c>
-      <c r="G191" s="75" t="s">
+      <c r="G191" s="98" t="s">
         <v>381</v>
       </c>
-      <c r="H191" s="74" t="s">
-        <v>31</v>
-      </c>
-      <c r="I191" s="74" t="s">
+      <c r="H191" s="97" t="s">
+        <v>31</v>
+      </c>
+      <c r="I191" s="97" t="s">
         <v>27</v>
       </c>
       <c r="J191" s="22" t="s">
@@ -15955,15 +15952,15 @@
       <c r="AD191" s="23"/>
     </row>
     <row r="192" spans="1:30" ht="16.5" customHeight="1">
-      <c r="A192" s="74"/>
-      <c r="B192" s="74"/>
+      <c r="A192" s="97"/>
+      <c r="B192" s="97"/>
       <c r="C192" s="22"/>
-      <c r="D192" s="74"/>
+      <c r="D192" s="97"/>
       <c r="E192" s="22"/>
-      <c r="F192" s="75"/>
-      <c r="G192" s="75"/>
-      <c r="H192" s="74"/>
-      <c r="I192" s="74"/>
+      <c r="F192" s="98"/>
+      <c r="G192" s="98"/>
+      <c r="H192" s="97"/>
+      <c r="I192" s="97"/>
       <c r="J192" s="22" t="s">
         <v>26</v>
       </c>
@@ -16152,32 +16149,32 @@
       <c r="AD194" s="23"/>
     </row>
     <row r="195" spans="1:30" ht="16.5" customHeight="1">
-      <c r="A195" s="74">
+      <c r="A195" s="97">
         <v>151</v>
       </c>
-      <c r="B195" s="74">
+      <c r="B195" s="97">
         <v>20190579</v>
       </c>
       <c r="C195" s="22" t="e">
         <f>VLOOKUP(B195,#REF!,35,0)</f>
         <v>#REF!</v>
       </c>
-      <c r="D195" s="74" t="s">
+      <c r="D195" s="97" t="s">
         <v>347</v>
       </c>
       <c r="E195" s="22" t="s">
         <v>117</v>
       </c>
-      <c r="F195" s="75" t="s">
+      <c r="F195" s="98" t="s">
         <v>386</v>
       </c>
-      <c r="G195" s="75" t="s">
+      <c r="G195" s="98" t="s">
         <v>387</v>
       </c>
-      <c r="H195" s="74" t="s">
-        <v>31</v>
-      </c>
-      <c r="I195" s="74" t="s">
+      <c r="H195" s="97" t="s">
+        <v>31</v>
+      </c>
+      <c r="I195" s="97" t="s">
         <v>27</v>
       </c>
       <c r="J195" s="22" t="s">
@@ -16218,15 +16215,15 @@
       <c r="AD195" s="23"/>
     </row>
     <row r="196" spans="1:30" ht="16.5" customHeight="1">
-      <c r="A196" s="74"/>
-      <c r="B196" s="74"/>
+      <c r="A196" s="97"/>
+      <c r="B196" s="97"/>
       <c r="C196" s="22"/>
-      <c r="D196" s="74"/>
+      <c r="D196" s="97"/>
       <c r="E196" s="22"/>
-      <c r="F196" s="75"/>
-      <c r="G196" s="75"/>
-      <c r="H196" s="74"/>
-      <c r="I196" s="74"/>
+      <c r="F196" s="98"/>
+      <c r="G196" s="98"/>
+      <c r="H196" s="97"/>
+      <c r="I196" s="97"/>
       <c r="J196" s="22" t="s">
         <v>31</v>
       </c>
@@ -17093,32 +17090,32 @@
       <c r="AD208" s="23"/>
     </row>
     <row r="209" spans="1:30" ht="16.5" customHeight="1">
-      <c r="A209" s="74">
+      <c r="A209" s="97">
         <v>164</v>
       </c>
-      <c r="B209" s="74">
+      <c r="B209" s="97">
         <v>20110153</v>
       </c>
       <c r="C209" s="22" t="e">
         <f>VLOOKUP(B209,#REF!,35,0)</f>
         <v>#REF!</v>
       </c>
-      <c r="D209" s="74" t="s">
+      <c r="D209" s="97" t="s">
         <v>402</v>
       </c>
       <c r="E209" s="22" t="s">
         <v>403</v>
       </c>
-      <c r="F209" s="75" t="s">
+      <c r="F209" s="98" t="s">
         <v>416</v>
       </c>
-      <c r="G209" s="75" t="s">
+      <c r="G209" s="98" t="s">
         <v>417</v>
       </c>
-      <c r="H209" s="74" t="s">
-        <v>26</v>
-      </c>
-      <c r="I209" s="74" t="s">
+      <c r="H209" s="97" t="s">
+        <v>26</v>
+      </c>
+      <c r="I209" s="97" t="s">
         <v>27</v>
       </c>
       <c r="J209" s="22" t="s">
@@ -17163,15 +17160,15 @@
       <c r="AD209" s="23"/>
     </row>
     <row r="210" spans="1:30" ht="16.5" customHeight="1">
-      <c r="A210" s="74"/>
-      <c r="B210" s="74"/>
+      <c r="A210" s="97"/>
+      <c r="B210" s="97"/>
       <c r="C210" s="22"/>
-      <c r="D210" s="74"/>
+      <c r="D210" s="97"/>
       <c r="E210" s="22"/>
-      <c r="F210" s="75"/>
-      <c r="G210" s="75"/>
-      <c r="H210" s="74"/>
-      <c r="I210" s="74"/>
+      <c r="F210" s="98"/>
+      <c r="G210" s="98"/>
+      <c r="H210" s="97"/>
+      <c r="I210" s="97"/>
       <c r="J210" s="22" t="s">
         <v>31</v>
       </c>
@@ -18002,32 +17999,32 @@
       <c r="AD221" s="23"/>
     </row>
     <row r="222" spans="1:30" ht="17.25" customHeight="1">
-      <c r="A222" s="74">
+      <c r="A222" s="97">
         <v>176</v>
       </c>
-      <c r="B222" s="74">
+      <c r="B222" s="97">
         <v>20180539</v>
       </c>
       <c r="C222" s="22" t="e">
         <f>VLOOKUP(B222,#REF!,35,0)</f>
         <v>#REF!</v>
       </c>
-      <c r="D222" s="74" t="s">
+      <c r="D222" s="97" t="s">
         <v>402</v>
       </c>
       <c r="E222" s="22" t="s">
         <v>403</v>
       </c>
-      <c r="F222" s="75" t="s">
+      <c r="F222" s="98" t="s">
         <v>441</v>
       </c>
-      <c r="G222" s="75" t="s">
+      <c r="G222" s="98" t="s">
         <v>442</v>
       </c>
-      <c r="H222" s="74" t="s">
-        <v>26</v>
-      </c>
-      <c r="I222" s="74" t="s">
+      <c r="H222" s="97" t="s">
+        <v>26</v>
+      </c>
+      <c r="I222" s="97" t="s">
         <v>27</v>
       </c>
       <c r="J222" s="22" t="s">
@@ -18066,15 +18063,15 @@
       <c r="AD222" s="23"/>
     </row>
     <row r="223" spans="1:30" ht="17.25" customHeight="1">
-      <c r="A223" s="74"/>
-      <c r="B223" s="74"/>
+      <c r="A223" s="97"/>
+      <c r="B223" s="97"/>
       <c r="C223" s="22"/>
-      <c r="D223" s="74"/>
+      <c r="D223" s="97"/>
       <c r="E223" s="22"/>
-      <c r="F223" s="75"/>
-      <c r="G223" s="75"/>
-      <c r="H223" s="74"/>
-      <c r="I223" s="74"/>
+      <c r="F223" s="98"/>
+      <c r="G223" s="98"/>
+      <c r="H223" s="97"/>
+      <c r="I223" s="97"/>
       <c r="J223" s="22"/>
       <c r="K223" s="22"/>
       <c r="L223" s="22"/>
@@ -18697,27 +18694,27 @@
       <c r="AD232" s="28"/>
     </row>
     <row r="233" spans="1:30" s="29" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A233" s="70">
+      <c r="A233" s="101">
         <v>186</v>
       </c>
-      <c r="B233" s="70">
+      <c r="B233" s="101">
         <v>100158278</v>
       </c>
       <c r="C233" s="25"/>
-      <c r="D233" s="71">
+      <c r="D233" s="102">
         <v>20220898</v>
       </c>
       <c r="E233" s="27"/>
       <c r="F233" s="25" t="s">
         <v>402</v>
       </c>
-      <c r="G233" s="73" t="s">
+      <c r="G233" s="104" t="s">
         <v>466</v>
       </c>
-      <c r="H233" s="70" t="s">
-        <v>26</v>
-      </c>
-      <c r="I233" s="70" t="s">
+      <c r="H233" s="101" t="s">
+        <v>26</v>
+      </c>
+      <c r="I233" s="101" t="s">
         <v>27</v>
       </c>
       <c r="J233" s="25" t="s">
@@ -18768,17 +18765,17 @@
       <c r="AD233" s="28"/>
     </row>
     <row r="234" spans="1:30" s="29" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A234" s="70"/>
-      <c r="B234" s="70"/>
+      <c r="A234" s="101"/>
+      <c r="B234" s="101"/>
       <c r="C234" s="25"/>
-      <c r="D234" s="72"/>
+      <c r="D234" s="103"/>
       <c r="E234" s="27"/>
       <c r="F234" s="25" t="s">
         <v>402</v>
       </c>
-      <c r="G234" s="73"/>
-      <c r="H234" s="70"/>
-      <c r="I234" s="70"/>
+      <c r="G234" s="104"/>
+      <c r="H234" s="101"/>
+      <c r="I234" s="101"/>
       <c r="J234" s="25"/>
       <c r="K234" s="26"/>
       <c r="L234" s="25"/>
@@ -19165,7 +19162,7 @@
       <c r="AD240" s="28"/>
     </row>
     <row r="241" spans="1:31" s="33" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A241" s="68">
+      <c r="A241" s="99">
         <v>193</v>
       </c>
       <c r="B241" s="30"/>
@@ -19173,7 +19170,7 @@
       <c r="D241" s="30"/>
       <c r="E241" s="30"/>
       <c r="F241" s="31"/>
-      <c r="G241" s="68" t="s">
+      <c r="G241" s="99" t="s">
         <v>478</v>
       </c>
       <c r="H241" s="30"/>
@@ -19213,13 +19210,13 @@
       <c r="AD241" s="31"/>
     </row>
     <row r="242" spans="1:31" s="33" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A242" s="68"/>
+      <c r="A242" s="99"/>
       <c r="B242" s="30"/>
       <c r="C242" s="30"/>
       <c r="D242" s="30"/>
       <c r="E242" s="30"/>
       <c r="F242" s="31"/>
-      <c r="G242" s="68"/>
+      <c r="G242" s="99"/>
       <c r="H242" s="30"/>
       <c r="I242" s="30"/>
       <c r="J242" s="30" t="s">
@@ -19257,13 +19254,13 @@
       <c r="AD242" s="31"/>
     </row>
     <row r="243" spans="1:31" s="33" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A243" s="68"/>
+      <c r="A243" s="99"/>
       <c r="B243" s="30"/>
       <c r="C243" s="30"/>
       <c r="D243" s="30"/>
       <c r="E243" s="30"/>
       <c r="F243" s="31"/>
-      <c r="G243" s="68"/>
+      <c r="G243" s="99"/>
       <c r="H243" s="30"/>
       <c r="I243" s="30"/>
       <c r="J243" s="30" t="s">
@@ -19301,13 +19298,13 @@
       <c r="AD243" s="31"/>
     </row>
     <row r="244" spans="1:31" s="33" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A244" s="68"/>
+      <c r="A244" s="99"/>
       <c r="B244" s="30"/>
       <c r="C244" s="30"/>
       <c r="D244" s="30"/>
       <c r="E244" s="30"/>
       <c r="F244" s="31"/>
-      <c r="G244" s="68"/>
+      <c r="G244" s="99"/>
       <c r="H244" s="30"/>
       <c r="I244" s="30"/>
       <c r="J244" s="30" t="s">
@@ -19345,13 +19342,13 @@
       <c r="AD244" s="31"/>
     </row>
     <row r="245" spans="1:31" s="33" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A245" s="68"/>
+      <c r="A245" s="99"/>
       <c r="B245" s="30"/>
       <c r="C245" s="30"/>
       <c r="D245" s="30"/>
       <c r="E245" s="30"/>
       <c r="F245" s="31"/>
-      <c r="G245" s="68"/>
+      <c r="G245" s="99"/>
       <c r="H245" s="30"/>
       <c r="I245" s="30"/>
       <c r="J245" s="30" t="s">
@@ -19389,13 +19386,13 @@
       <c r="AD245" s="31"/>
     </row>
     <row r="246" spans="1:31" s="33" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A246" s="68"/>
+      <c r="A246" s="99"/>
       <c r="B246" s="30"/>
       <c r="C246" s="30"/>
       <c r="D246" s="30"/>
       <c r="E246" s="30"/>
       <c r="F246" s="31"/>
-      <c r="G246" s="68"/>
+      <c r="G246" s="99"/>
       <c r="H246" s="30"/>
       <c r="I246" s="30"/>
       <c r="J246" s="30" t="s">
@@ -19433,13 +19430,13 @@
       <c r="AD246" s="31"/>
     </row>
     <row r="247" spans="1:31" s="33" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A247" s="68"/>
+      <c r="A247" s="99"/>
       <c r="B247" s="30"/>
       <c r="C247" s="30"/>
       <c r="D247" s="30"/>
       <c r="E247" s="30"/>
       <c r="F247" s="31"/>
-      <c r="G247" s="68"/>
+      <c r="G247" s="99"/>
       <c r="H247" s="30"/>
       <c r="I247" s="30"/>
       <c r="J247" s="30" t="s">
@@ -19477,13 +19474,13 @@
       <c r="AD247" s="31"/>
     </row>
     <row r="248" spans="1:31" s="33" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A248" s="68"/>
+      <c r="A248" s="99"/>
       <c r="B248" s="30"/>
       <c r="C248" s="30"/>
       <c r="D248" s="30"/>
       <c r="E248" s="30"/>
       <c r="F248" s="31"/>
-      <c r="G248" s="68"/>
+      <c r="G248" s="99"/>
       <c r="H248" s="30"/>
       <c r="I248" s="30"/>
       <c r="J248" s="30" t="s">
@@ -19521,13 +19518,13 @@
       <c r="AD248" s="31"/>
     </row>
     <row r="249" spans="1:31" s="33" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A249" s="68"/>
+      <c r="A249" s="99"/>
       <c r="B249" s="30"/>
       <c r="C249" s="30"/>
       <c r="D249" s="30"/>
       <c r="E249" s="30"/>
       <c r="F249" s="31"/>
-      <c r="G249" s="68"/>
+      <c r="G249" s="99"/>
       <c r="H249" s="30"/>
       <c r="I249" s="30"/>
       <c r="J249" s="30" t="s">
@@ -19653,15 +19650,15 @@
       <c r="AD251" s="35"/>
     </row>
     <row r="252" spans="1:31" s="36" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A252" s="69" t="s">
+      <c r="A252" s="100" t="s">
         <v>12</v>
       </c>
-      <c r="B252" s="69"/>
-      <c r="C252" s="69"/>
-      <c r="D252" s="69"/>
-      <c r="E252" s="69"/>
-      <c r="F252" s="69"/>
-      <c r="G252" s="69"/>
+      <c r="B252" s="100"/>
+      <c r="C252" s="100"/>
+      <c r="D252" s="100"/>
+      <c r="E252" s="100"/>
+      <c r="F252" s="100"/>
+      <c r="G252" s="100"/>
       <c r="H252" s="34"/>
       <c r="I252" s="34"/>
       <c r="J252" s="34"/>
@@ -22881,53 +22878,203 @@
     </sortState>
   </autoFilter>
   <mergeCells count="264">
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="C2:C4"/>
-    <mergeCell ref="E2:E4"/>
-    <mergeCell ref="F2:F4"/>
-    <mergeCell ref="G2:G4"/>
-    <mergeCell ref="AC2:AC4"/>
-    <mergeCell ref="AD2:AD4"/>
-    <mergeCell ref="J3:L3"/>
-    <mergeCell ref="M3:O3"/>
-    <mergeCell ref="S3:U3"/>
-    <mergeCell ref="V3:X3"/>
-    <mergeCell ref="Y3:AA3"/>
-    <mergeCell ref="H2:H4"/>
-    <mergeCell ref="I2:I4"/>
-    <mergeCell ref="J2:O2"/>
-    <mergeCell ref="P2:R3"/>
-    <mergeCell ref="S2:AA2"/>
-    <mergeCell ref="AB2:AB4"/>
-    <mergeCell ref="I19:I20"/>
-    <mergeCell ref="A38:A39"/>
-    <mergeCell ref="B38:B39"/>
-    <mergeCell ref="D38:D39"/>
-    <mergeCell ref="F38:F39"/>
-    <mergeCell ref="G38:G39"/>
-    <mergeCell ref="H38:H39"/>
-    <mergeCell ref="I38:I39"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="G19:G20"/>
-    <mergeCell ref="H19:H20"/>
-    <mergeCell ref="I47:I49"/>
-    <mergeCell ref="A51:A52"/>
-    <mergeCell ref="B51:B52"/>
-    <mergeCell ref="D51:D52"/>
-    <mergeCell ref="F51:F52"/>
-    <mergeCell ref="G51:G52"/>
-    <mergeCell ref="H51:H52"/>
-    <mergeCell ref="I51:I52"/>
-    <mergeCell ref="A47:A49"/>
-    <mergeCell ref="B47:B49"/>
-    <mergeCell ref="D47:D49"/>
-    <mergeCell ref="F47:F49"/>
-    <mergeCell ref="G47:G49"/>
-    <mergeCell ref="H47:H49"/>
+    <mergeCell ref="A241:A249"/>
+    <mergeCell ref="G241:G249"/>
+    <mergeCell ref="A252:G252"/>
+    <mergeCell ref="A233:A234"/>
+    <mergeCell ref="B233:B234"/>
+    <mergeCell ref="D233:D234"/>
+    <mergeCell ref="G233:G234"/>
+    <mergeCell ref="H233:H234"/>
+    <mergeCell ref="I233:I234"/>
+    <mergeCell ref="I209:I210"/>
+    <mergeCell ref="A222:A223"/>
+    <mergeCell ref="B222:B223"/>
+    <mergeCell ref="D222:D223"/>
+    <mergeCell ref="F222:F223"/>
+    <mergeCell ref="G222:G223"/>
+    <mergeCell ref="H222:H223"/>
+    <mergeCell ref="I222:I223"/>
+    <mergeCell ref="A209:A210"/>
+    <mergeCell ref="B209:B210"/>
+    <mergeCell ref="D209:D210"/>
+    <mergeCell ref="F209:F210"/>
+    <mergeCell ref="G209:G210"/>
+    <mergeCell ref="H209:H210"/>
+    <mergeCell ref="I191:I192"/>
+    <mergeCell ref="A195:A196"/>
+    <mergeCell ref="B195:B196"/>
+    <mergeCell ref="D195:D196"/>
+    <mergeCell ref="F195:F196"/>
+    <mergeCell ref="G195:G196"/>
+    <mergeCell ref="H195:H196"/>
+    <mergeCell ref="I195:I196"/>
+    <mergeCell ref="A191:A192"/>
+    <mergeCell ref="B191:B192"/>
+    <mergeCell ref="D191:D192"/>
+    <mergeCell ref="F191:F192"/>
+    <mergeCell ref="G191:G192"/>
+    <mergeCell ref="H191:H192"/>
+    <mergeCell ref="I179:I180"/>
+    <mergeCell ref="A183:A186"/>
+    <mergeCell ref="B183:B186"/>
+    <mergeCell ref="D183:D186"/>
+    <mergeCell ref="F183:F186"/>
+    <mergeCell ref="G183:G186"/>
+    <mergeCell ref="H183:H186"/>
+    <mergeCell ref="I183:I186"/>
+    <mergeCell ref="A179:A180"/>
+    <mergeCell ref="B179:B180"/>
+    <mergeCell ref="D179:D180"/>
+    <mergeCell ref="F179:F180"/>
+    <mergeCell ref="G179:G180"/>
+    <mergeCell ref="H179:H180"/>
+    <mergeCell ref="I171:I173"/>
+    <mergeCell ref="A175:A177"/>
+    <mergeCell ref="B175:B177"/>
+    <mergeCell ref="D175:D177"/>
+    <mergeCell ref="F175:F177"/>
+    <mergeCell ref="G175:G177"/>
+    <mergeCell ref="H175:H177"/>
+    <mergeCell ref="I175:I177"/>
+    <mergeCell ref="A171:A173"/>
+    <mergeCell ref="B171:B173"/>
+    <mergeCell ref="D171:D173"/>
+    <mergeCell ref="F171:F173"/>
+    <mergeCell ref="G171:G173"/>
+    <mergeCell ref="H171:H173"/>
+    <mergeCell ref="I164:I167"/>
+    <mergeCell ref="A168:A169"/>
+    <mergeCell ref="B168:B169"/>
+    <mergeCell ref="D168:D169"/>
+    <mergeCell ref="F168:F169"/>
+    <mergeCell ref="G168:G169"/>
+    <mergeCell ref="H168:H169"/>
+    <mergeCell ref="I168:I169"/>
+    <mergeCell ref="A164:A167"/>
+    <mergeCell ref="B164:B167"/>
+    <mergeCell ref="D164:D167"/>
+    <mergeCell ref="F164:F167"/>
+    <mergeCell ref="G164:G167"/>
+    <mergeCell ref="H164:H167"/>
+    <mergeCell ref="I157:I158"/>
+    <mergeCell ref="A161:A162"/>
+    <mergeCell ref="B161:B162"/>
+    <mergeCell ref="D161:D162"/>
+    <mergeCell ref="F161:F162"/>
+    <mergeCell ref="G161:G162"/>
+    <mergeCell ref="H161:H162"/>
+    <mergeCell ref="I161:I162"/>
+    <mergeCell ref="A157:A158"/>
+    <mergeCell ref="B157:B158"/>
+    <mergeCell ref="D157:D158"/>
+    <mergeCell ref="F157:F158"/>
+    <mergeCell ref="G157:G158"/>
+    <mergeCell ref="H157:H158"/>
+    <mergeCell ref="I151:I152"/>
+    <mergeCell ref="A155:A156"/>
+    <mergeCell ref="B155:B156"/>
+    <mergeCell ref="D155:D156"/>
+    <mergeCell ref="F155:F156"/>
+    <mergeCell ref="G155:G156"/>
+    <mergeCell ref="H155:H156"/>
+    <mergeCell ref="I155:I156"/>
+    <mergeCell ref="A151:A152"/>
+    <mergeCell ref="B151:B152"/>
+    <mergeCell ref="D151:D152"/>
+    <mergeCell ref="F151:F152"/>
+    <mergeCell ref="G151:G152"/>
+    <mergeCell ref="H151:H152"/>
+    <mergeCell ref="I139:I140"/>
+    <mergeCell ref="A143:A144"/>
+    <mergeCell ref="B143:B144"/>
+    <mergeCell ref="D143:D144"/>
+    <mergeCell ref="F143:F144"/>
+    <mergeCell ref="G143:G144"/>
+    <mergeCell ref="H143:H144"/>
+    <mergeCell ref="I143:I144"/>
+    <mergeCell ref="A139:A140"/>
+    <mergeCell ref="B139:B140"/>
+    <mergeCell ref="D139:D140"/>
+    <mergeCell ref="F139:F140"/>
+    <mergeCell ref="G139:G140"/>
+    <mergeCell ref="H139:H140"/>
+    <mergeCell ref="I134:I135"/>
+    <mergeCell ref="A136:A137"/>
+    <mergeCell ref="B136:B137"/>
+    <mergeCell ref="D136:D137"/>
+    <mergeCell ref="F136:F137"/>
+    <mergeCell ref="G136:G137"/>
+    <mergeCell ref="H136:H137"/>
+    <mergeCell ref="I136:I137"/>
+    <mergeCell ref="A134:A135"/>
+    <mergeCell ref="B134:B135"/>
+    <mergeCell ref="D134:D135"/>
+    <mergeCell ref="F134:F135"/>
+    <mergeCell ref="G134:G135"/>
+    <mergeCell ref="H134:H135"/>
+    <mergeCell ref="I124:I125"/>
+    <mergeCell ref="A129:A130"/>
+    <mergeCell ref="B129:B130"/>
+    <mergeCell ref="D129:D130"/>
+    <mergeCell ref="F129:F130"/>
+    <mergeCell ref="G129:G130"/>
+    <mergeCell ref="H129:H130"/>
+    <mergeCell ref="I129:I130"/>
+    <mergeCell ref="A124:A125"/>
+    <mergeCell ref="B124:B125"/>
+    <mergeCell ref="D124:D125"/>
+    <mergeCell ref="F124:F125"/>
+    <mergeCell ref="G124:G125"/>
+    <mergeCell ref="H124:H125"/>
+    <mergeCell ref="I117:I118"/>
+    <mergeCell ref="A120:A121"/>
+    <mergeCell ref="B120:B121"/>
+    <mergeCell ref="D120:D121"/>
+    <mergeCell ref="F120:F121"/>
+    <mergeCell ref="G120:G121"/>
+    <mergeCell ref="H120:H121"/>
+    <mergeCell ref="I120:I121"/>
+    <mergeCell ref="A117:A118"/>
+    <mergeCell ref="B117:B118"/>
+    <mergeCell ref="D117:D118"/>
+    <mergeCell ref="F117:F118"/>
+    <mergeCell ref="G117:G118"/>
+    <mergeCell ref="H117:H118"/>
+    <mergeCell ref="A107:A108"/>
+    <mergeCell ref="D107:D108"/>
+    <mergeCell ref="F107:F108"/>
+    <mergeCell ref="G107:G108"/>
+    <mergeCell ref="H107:H108"/>
+    <mergeCell ref="I107:I108"/>
+    <mergeCell ref="I101:I102"/>
+    <mergeCell ref="A104:A106"/>
+    <mergeCell ref="B104:B106"/>
+    <mergeCell ref="D104:D106"/>
+    <mergeCell ref="F104:F106"/>
+    <mergeCell ref="G104:G106"/>
+    <mergeCell ref="H104:H106"/>
+    <mergeCell ref="I104:I106"/>
+    <mergeCell ref="A101:A102"/>
+    <mergeCell ref="B101:B102"/>
+    <mergeCell ref="D101:D102"/>
+    <mergeCell ref="F101:F102"/>
+    <mergeCell ref="G101:G102"/>
+    <mergeCell ref="H101:H102"/>
+    <mergeCell ref="I91:I92"/>
+    <mergeCell ref="A95:A97"/>
+    <mergeCell ref="B95:B97"/>
+    <mergeCell ref="D95:D97"/>
+    <mergeCell ref="F95:F97"/>
+    <mergeCell ref="G95:G97"/>
+    <mergeCell ref="H95:H97"/>
+    <mergeCell ref="I95:I97"/>
+    <mergeCell ref="A91:A92"/>
+    <mergeCell ref="B91:B92"/>
+    <mergeCell ref="D91:D92"/>
+    <mergeCell ref="F91:F92"/>
+    <mergeCell ref="G91:G92"/>
+    <mergeCell ref="H91:H92"/>
     <mergeCell ref="A86:A87"/>
     <mergeCell ref="B86:B87"/>
     <mergeCell ref="D86:D87"/>
@@ -22948,203 +23095,53 @@
     <mergeCell ref="F66:F67"/>
     <mergeCell ref="G66:G67"/>
     <mergeCell ref="H66:H67"/>
-    <mergeCell ref="I91:I92"/>
-    <mergeCell ref="A95:A97"/>
-    <mergeCell ref="B95:B97"/>
-    <mergeCell ref="D95:D97"/>
-    <mergeCell ref="F95:F97"/>
-    <mergeCell ref="G95:G97"/>
-    <mergeCell ref="H95:H97"/>
-    <mergeCell ref="I95:I97"/>
-    <mergeCell ref="A91:A92"/>
-    <mergeCell ref="B91:B92"/>
-    <mergeCell ref="D91:D92"/>
-    <mergeCell ref="F91:F92"/>
-    <mergeCell ref="G91:G92"/>
-    <mergeCell ref="H91:H92"/>
-    <mergeCell ref="A107:A108"/>
-    <mergeCell ref="D107:D108"/>
-    <mergeCell ref="F107:F108"/>
-    <mergeCell ref="G107:G108"/>
-    <mergeCell ref="H107:H108"/>
-    <mergeCell ref="I107:I108"/>
-    <mergeCell ref="I101:I102"/>
-    <mergeCell ref="A104:A106"/>
-    <mergeCell ref="B104:B106"/>
-    <mergeCell ref="D104:D106"/>
-    <mergeCell ref="F104:F106"/>
-    <mergeCell ref="G104:G106"/>
-    <mergeCell ref="H104:H106"/>
-    <mergeCell ref="I104:I106"/>
-    <mergeCell ref="A101:A102"/>
-    <mergeCell ref="B101:B102"/>
-    <mergeCell ref="D101:D102"/>
-    <mergeCell ref="F101:F102"/>
-    <mergeCell ref="G101:G102"/>
-    <mergeCell ref="H101:H102"/>
-    <mergeCell ref="I117:I118"/>
-    <mergeCell ref="A120:A121"/>
-    <mergeCell ref="B120:B121"/>
-    <mergeCell ref="D120:D121"/>
-    <mergeCell ref="F120:F121"/>
-    <mergeCell ref="G120:G121"/>
-    <mergeCell ref="H120:H121"/>
-    <mergeCell ref="I120:I121"/>
-    <mergeCell ref="A117:A118"/>
-    <mergeCell ref="B117:B118"/>
-    <mergeCell ref="D117:D118"/>
-    <mergeCell ref="F117:F118"/>
-    <mergeCell ref="G117:G118"/>
-    <mergeCell ref="H117:H118"/>
-    <mergeCell ref="I124:I125"/>
-    <mergeCell ref="A129:A130"/>
-    <mergeCell ref="B129:B130"/>
-    <mergeCell ref="D129:D130"/>
-    <mergeCell ref="F129:F130"/>
-    <mergeCell ref="G129:G130"/>
-    <mergeCell ref="H129:H130"/>
-    <mergeCell ref="I129:I130"/>
-    <mergeCell ref="A124:A125"/>
-    <mergeCell ref="B124:B125"/>
-    <mergeCell ref="D124:D125"/>
-    <mergeCell ref="F124:F125"/>
-    <mergeCell ref="G124:G125"/>
-    <mergeCell ref="H124:H125"/>
-    <mergeCell ref="I134:I135"/>
-    <mergeCell ref="A136:A137"/>
-    <mergeCell ref="B136:B137"/>
-    <mergeCell ref="D136:D137"/>
-    <mergeCell ref="F136:F137"/>
-    <mergeCell ref="G136:G137"/>
-    <mergeCell ref="H136:H137"/>
-    <mergeCell ref="I136:I137"/>
-    <mergeCell ref="A134:A135"/>
-    <mergeCell ref="B134:B135"/>
-    <mergeCell ref="D134:D135"/>
-    <mergeCell ref="F134:F135"/>
-    <mergeCell ref="G134:G135"/>
-    <mergeCell ref="H134:H135"/>
-    <mergeCell ref="I139:I140"/>
-    <mergeCell ref="A143:A144"/>
-    <mergeCell ref="B143:B144"/>
-    <mergeCell ref="D143:D144"/>
-    <mergeCell ref="F143:F144"/>
-    <mergeCell ref="G143:G144"/>
-    <mergeCell ref="H143:H144"/>
-    <mergeCell ref="I143:I144"/>
-    <mergeCell ref="A139:A140"/>
-    <mergeCell ref="B139:B140"/>
-    <mergeCell ref="D139:D140"/>
-    <mergeCell ref="F139:F140"/>
-    <mergeCell ref="G139:G140"/>
-    <mergeCell ref="H139:H140"/>
-    <mergeCell ref="I151:I152"/>
-    <mergeCell ref="A155:A156"/>
-    <mergeCell ref="B155:B156"/>
-    <mergeCell ref="D155:D156"/>
-    <mergeCell ref="F155:F156"/>
-    <mergeCell ref="G155:G156"/>
-    <mergeCell ref="H155:H156"/>
-    <mergeCell ref="I155:I156"/>
-    <mergeCell ref="A151:A152"/>
-    <mergeCell ref="B151:B152"/>
-    <mergeCell ref="D151:D152"/>
-    <mergeCell ref="F151:F152"/>
-    <mergeCell ref="G151:G152"/>
-    <mergeCell ref="H151:H152"/>
-    <mergeCell ref="I157:I158"/>
-    <mergeCell ref="A161:A162"/>
-    <mergeCell ref="B161:B162"/>
-    <mergeCell ref="D161:D162"/>
-    <mergeCell ref="F161:F162"/>
-    <mergeCell ref="G161:G162"/>
-    <mergeCell ref="H161:H162"/>
-    <mergeCell ref="I161:I162"/>
-    <mergeCell ref="A157:A158"/>
-    <mergeCell ref="B157:B158"/>
-    <mergeCell ref="D157:D158"/>
-    <mergeCell ref="F157:F158"/>
-    <mergeCell ref="G157:G158"/>
-    <mergeCell ref="H157:H158"/>
-    <mergeCell ref="I164:I167"/>
-    <mergeCell ref="A168:A169"/>
-    <mergeCell ref="B168:B169"/>
-    <mergeCell ref="D168:D169"/>
-    <mergeCell ref="F168:F169"/>
-    <mergeCell ref="G168:G169"/>
-    <mergeCell ref="H168:H169"/>
-    <mergeCell ref="I168:I169"/>
-    <mergeCell ref="A164:A167"/>
-    <mergeCell ref="B164:B167"/>
-    <mergeCell ref="D164:D167"/>
-    <mergeCell ref="F164:F167"/>
-    <mergeCell ref="G164:G167"/>
-    <mergeCell ref="H164:H167"/>
-    <mergeCell ref="I171:I173"/>
-    <mergeCell ref="A175:A177"/>
-    <mergeCell ref="B175:B177"/>
-    <mergeCell ref="D175:D177"/>
-    <mergeCell ref="F175:F177"/>
-    <mergeCell ref="G175:G177"/>
-    <mergeCell ref="H175:H177"/>
-    <mergeCell ref="I175:I177"/>
-    <mergeCell ref="A171:A173"/>
-    <mergeCell ref="B171:B173"/>
-    <mergeCell ref="D171:D173"/>
-    <mergeCell ref="F171:F173"/>
-    <mergeCell ref="G171:G173"/>
-    <mergeCell ref="H171:H173"/>
-    <mergeCell ref="I179:I180"/>
-    <mergeCell ref="A183:A186"/>
-    <mergeCell ref="B183:B186"/>
-    <mergeCell ref="D183:D186"/>
-    <mergeCell ref="F183:F186"/>
-    <mergeCell ref="G183:G186"/>
-    <mergeCell ref="H183:H186"/>
-    <mergeCell ref="I183:I186"/>
-    <mergeCell ref="A179:A180"/>
-    <mergeCell ref="B179:B180"/>
-    <mergeCell ref="D179:D180"/>
-    <mergeCell ref="F179:F180"/>
-    <mergeCell ref="G179:G180"/>
-    <mergeCell ref="H179:H180"/>
-    <mergeCell ref="I191:I192"/>
-    <mergeCell ref="A195:A196"/>
-    <mergeCell ref="B195:B196"/>
-    <mergeCell ref="D195:D196"/>
-    <mergeCell ref="F195:F196"/>
-    <mergeCell ref="G195:G196"/>
-    <mergeCell ref="H195:H196"/>
-    <mergeCell ref="I195:I196"/>
-    <mergeCell ref="A191:A192"/>
-    <mergeCell ref="B191:B192"/>
-    <mergeCell ref="D191:D192"/>
-    <mergeCell ref="F191:F192"/>
-    <mergeCell ref="G191:G192"/>
-    <mergeCell ref="H191:H192"/>
-    <mergeCell ref="I209:I210"/>
-    <mergeCell ref="A222:A223"/>
-    <mergeCell ref="B222:B223"/>
-    <mergeCell ref="D222:D223"/>
-    <mergeCell ref="F222:F223"/>
-    <mergeCell ref="G222:G223"/>
-    <mergeCell ref="H222:H223"/>
-    <mergeCell ref="I222:I223"/>
-    <mergeCell ref="A209:A210"/>
-    <mergeCell ref="B209:B210"/>
-    <mergeCell ref="D209:D210"/>
-    <mergeCell ref="F209:F210"/>
-    <mergeCell ref="G209:G210"/>
-    <mergeCell ref="H209:H210"/>
-    <mergeCell ref="A241:A249"/>
-    <mergeCell ref="G241:G249"/>
-    <mergeCell ref="A252:G252"/>
-    <mergeCell ref="A233:A234"/>
-    <mergeCell ref="B233:B234"/>
-    <mergeCell ref="D233:D234"/>
-    <mergeCell ref="G233:G234"/>
-    <mergeCell ref="H233:H234"/>
-    <mergeCell ref="I233:I234"/>
+    <mergeCell ref="I47:I49"/>
+    <mergeCell ref="A51:A52"/>
+    <mergeCell ref="B51:B52"/>
+    <mergeCell ref="D51:D52"/>
+    <mergeCell ref="F51:F52"/>
+    <mergeCell ref="G51:G52"/>
+    <mergeCell ref="H51:H52"/>
+    <mergeCell ref="I51:I52"/>
+    <mergeCell ref="A47:A49"/>
+    <mergeCell ref="B47:B49"/>
+    <mergeCell ref="D47:D49"/>
+    <mergeCell ref="F47:F49"/>
+    <mergeCell ref="G47:G49"/>
+    <mergeCell ref="H47:H49"/>
+    <mergeCell ref="I19:I20"/>
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="B38:B39"/>
+    <mergeCell ref="D38:D39"/>
+    <mergeCell ref="F38:F39"/>
+    <mergeCell ref="G38:G39"/>
+    <mergeCell ref="H38:H39"/>
+    <mergeCell ref="I38:I39"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="H19:H20"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="C2:C4"/>
+    <mergeCell ref="E2:E4"/>
+    <mergeCell ref="F2:F4"/>
+    <mergeCell ref="G2:G4"/>
+    <mergeCell ref="AC2:AC4"/>
+    <mergeCell ref="AD2:AD4"/>
+    <mergeCell ref="J3:L3"/>
+    <mergeCell ref="M3:O3"/>
+    <mergeCell ref="S3:U3"/>
+    <mergeCell ref="V3:X3"/>
+    <mergeCell ref="Y3:AA3"/>
+    <mergeCell ref="H2:H4"/>
+    <mergeCell ref="I2:I4"/>
+    <mergeCell ref="J2:O2"/>
+    <mergeCell ref="P2:R3"/>
+    <mergeCell ref="S2:AA2"/>
+    <mergeCell ref="AB2:AB4"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0.19685039370078741" bottom="0" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -23160,7 +23157,7 @@
   <dimension ref="A1:AE373"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="8" ySplit="4" topLeftCell="N5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="8" ySplit="4" topLeftCell="I8" activePane="bottomRight" state="frozen"/>
       <selection activeCell="K145" sqref="K145"/>
       <selection pane="topRight" activeCell="K145" sqref="K145"/>
       <selection pane="bottomLeft" activeCell="K145" sqref="K145"/>
@@ -23206,119 +23203,119 @@
       <c r="J1" s="4"/>
     </row>
     <row r="2" spans="1:30" ht="30" customHeight="1">
-      <c r="A2" s="76" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="76" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="76" t="s">
+      <c r="A2" s="69" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="69" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="69" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="76" t="s">
+      <c r="D2" s="69" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="76" t="s">
+      <c r="E2" s="69" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="76" t="s">
+      <c r="F2" s="69" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="76" t="s">
+      <c r="G2" s="69" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="76" t="s">
+      <c r="H2" s="69" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="90" t="s">
+      <c r="I2" s="83" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="92" t="s">
+      <c r="J2" s="85" t="s">
         <v>9</v>
       </c>
-      <c r="K2" s="93"/>
-      <c r="L2" s="93"/>
-      <c r="M2" s="93"/>
-      <c r="N2" s="93"/>
-      <c r="O2" s="94"/>
-      <c r="P2" s="95" t="s">
+      <c r="K2" s="86"/>
+      <c r="L2" s="86"/>
+      <c r="M2" s="86"/>
+      <c r="N2" s="86"/>
+      <c r="O2" s="87"/>
+      <c r="P2" s="88" t="s">
         <v>10</v>
       </c>
-      <c r="Q2" s="95"/>
-      <c r="R2" s="96"/>
-      <c r="S2" s="99" t="s">
+      <c r="Q2" s="88"/>
+      <c r="R2" s="89"/>
+      <c r="S2" s="92" t="s">
         <v>11</v>
       </c>
-      <c r="T2" s="100"/>
-      <c r="U2" s="100"/>
-      <c r="V2" s="100"/>
-      <c r="W2" s="100"/>
-      <c r="X2" s="100"/>
-      <c r="Y2" s="100"/>
-      <c r="Z2" s="100"/>
-      <c r="AA2" s="101"/>
-      <c r="AB2" s="102" t="s">
+      <c r="T2" s="93"/>
+      <c r="U2" s="93"/>
+      <c r="V2" s="93"/>
+      <c r="W2" s="93"/>
+      <c r="X2" s="93"/>
+      <c r="Y2" s="93"/>
+      <c r="Z2" s="93"/>
+      <c r="AA2" s="94"/>
+      <c r="AB2" s="95" t="s">
         <v>12</v>
       </c>
-      <c r="AC2" s="78" t="s">
+      <c r="AC2" s="71" t="s">
         <v>13</v>
       </c>
-      <c r="AD2" s="78" t="s">
+      <c r="AD2" s="71" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:30" ht="30" customHeight="1">
-      <c r="A3" s="77"/>
-      <c r="B3" s="77"/>
-      <c r="C3" s="77"/>
-      <c r="D3" s="77"/>
-      <c r="E3" s="77"/>
-      <c r="F3" s="77"/>
-      <c r="G3" s="77"/>
-      <c r="H3" s="77"/>
-      <c r="I3" s="91"/>
-      <c r="J3" s="80" t="s">
+      <c r="A3" s="70"/>
+      <c r="B3" s="70"/>
+      <c r="C3" s="70"/>
+      <c r="D3" s="70"/>
+      <c r="E3" s="70"/>
+      <c r="F3" s="70"/>
+      <c r="G3" s="70"/>
+      <c r="H3" s="70"/>
+      <c r="I3" s="84"/>
+      <c r="J3" s="73" t="s">
         <v>16</v>
       </c>
-      <c r="K3" s="81"/>
-      <c r="L3" s="81"/>
-      <c r="M3" s="82" t="s">
+      <c r="K3" s="74"/>
+      <c r="L3" s="74"/>
+      <c r="M3" s="75" t="s">
         <v>17</v>
       </c>
-      <c r="N3" s="83"/>
-      <c r="O3" s="84"/>
-      <c r="P3" s="97"/>
-      <c r="Q3" s="97"/>
-      <c r="R3" s="98"/>
-      <c r="S3" s="85" t="s">
+      <c r="N3" s="76"/>
+      <c r="O3" s="77"/>
+      <c r="P3" s="90"/>
+      <c r="Q3" s="90"/>
+      <c r="R3" s="91"/>
+      <c r="S3" s="78" t="s">
         <v>18</v>
       </c>
-      <c r="T3" s="86"/>
-      <c r="U3" s="87"/>
-      <c r="V3" s="88" t="s">
+      <c r="T3" s="79"/>
+      <c r="U3" s="80"/>
+      <c r="V3" s="81" t="s">
         <v>19</v>
       </c>
-      <c r="W3" s="86"/>
-      <c r="X3" s="89"/>
-      <c r="Y3" s="85" t="s">
+      <c r="W3" s="79"/>
+      <c r="X3" s="82"/>
+      <c r="Y3" s="78" t="s">
         <v>20</v>
       </c>
-      <c r="Z3" s="86"/>
-      <c r="AA3" s="89"/>
-      <c r="AB3" s="103"/>
-      <c r="AC3" s="78"/>
-      <c r="AD3" s="78"/>
+      <c r="Z3" s="79"/>
+      <c r="AA3" s="82"/>
+      <c r="AB3" s="96"/>
+      <c r="AC3" s="71"/>
+      <c r="AD3" s="71"/>
     </row>
     <row r="4" spans="1:30" ht="23.25" customHeight="1" thickBot="1">
-      <c r="A4" s="108"/>
-      <c r="B4" s="108"/>
-      <c r="C4" s="108"/>
-      <c r="D4" s="108"/>
-      <c r="E4" s="108"/>
-      <c r="F4" s="108"/>
-      <c r="G4" s="108"/>
-      <c r="H4" s="108"/>
-      <c r="I4" s="109"/>
+      <c r="A4" s="105"/>
+      <c r="B4" s="105"/>
+      <c r="C4" s="105"/>
+      <c r="D4" s="105"/>
+      <c r="E4" s="105"/>
+      <c r="F4" s="105"/>
+      <c r="G4" s="105"/>
+      <c r="H4" s="105"/>
+      <c r="I4" s="110"/>
       <c r="J4" s="7" t="s">
         <v>7</v>
       </c>
@@ -23373,9 +23370,9 @@
       <c r="AA4" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="AB4" s="107"/>
-      <c r="AC4" s="78"/>
-      <c r="AD4" s="78"/>
+      <c r="AB4" s="109"/>
+      <c r="AC4" s="71"/>
+      <c r="AD4" s="71"/>
     </row>
     <row r="5" spans="1:30" ht="16.5" customHeight="1">
       <c r="A5" s="22">
@@ -24714,17 +24711,17 @@
       <c r="AD26" s="35"/>
     </row>
     <row r="27" spans="1:31" s="36" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A27" s="104" t="s">
+      <c r="A27" s="106" t="s">
         <v>545</v>
       </c>
-      <c r="B27" s="105"/>
-      <c r="C27" s="105"/>
-      <c r="D27" s="105"/>
-      <c r="E27" s="105"/>
-      <c r="F27" s="105"/>
-      <c r="G27" s="105"/>
-      <c r="H27" s="105"/>
-      <c r="I27" s="106"/>
+      <c r="B27" s="107"/>
+      <c r="C27" s="107"/>
+      <c r="D27" s="107"/>
+      <c r="E27" s="107"/>
+      <c r="F27" s="107"/>
+      <c r="G27" s="107"/>
+      <c r="H27" s="107"/>
+      <c r="I27" s="108"/>
       <c r="J27" s="34"/>
       <c r="K27" s="34"/>
       <c r="L27" s="58">
@@ -27874,11 +27871,6 @@
     </sortState>
   </autoFilter>
   <mergeCells count="21">
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="C2:C4"/>
-    <mergeCell ref="D2:D4"/>
-    <mergeCell ref="E2:E4"/>
-    <mergeCell ref="F2:F4"/>
     <mergeCell ref="A27:I27"/>
     <mergeCell ref="AB2:AB4"/>
     <mergeCell ref="AC2:AC4"/>
@@ -27895,6 +27887,11 @@
     <mergeCell ref="P2:R3"/>
     <mergeCell ref="S2:AA2"/>
     <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="C2:C4"/>
+    <mergeCell ref="D2:D4"/>
+    <mergeCell ref="E2:E4"/>
+    <mergeCell ref="F2:F4"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -27910,17 +27907,17 @@
   <dimension ref="A1:AD611"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="7" ySplit="4" topLeftCell="O5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="4" topLeftCell="O50" activePane="bottomRight" state="frozen"/>
       <selection activeCell="K145" sqref="K145"/>
       <selection pane="topRight" activeCell="K145" sqref="K145"/>
       <selection pane="bottomLeft" activeCell="K145" sqref="K145"/>
-      <selection pane="bottomRight" activeCell="V18" sqref="V18"/>
+      <selection pane="bottomRight" activeCell="F56" sqref="F56:F58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="7.140625" style="4" customWidth="1"/>
-    <col min="2" max="2" width="9.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.28515625" style="4" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.85546875" style="4" hidden="1" customWidth="1"/>
     <col min="4" max="4" width="14.85546875" style="4" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="24.85546875" style="3" hidden="1" customWidth="1"/>
@@ -27952,114 +27949,114 @@
       <c r="I1" s="4"/>
     </row>
     <row r="2" spans="1:29" ht="30" customHeight="1">
-      <c r="A2" s="76" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="76" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="76" t="s">
+      <c r="A2" s="69" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="69" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="69" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="76" t="s">
+      <c r="D2" s="69" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="76" t="s">
+      <c r="E2" s="69" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="76" t="s">
+      <c r="F2" s="69" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="76" t="s">
+      <c r="G2" s="69" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="76" t="s">
+      <c r="H2" s="69" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="92" t="s">
+      <c r="I2" s="85" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="93"/>
-      <c r="K2" s="93"/>
-      <c r="L2" s="93"/>
-      <c r="M2" s="93"/>
-      <c r="N2" s="94"/>
-      <c r="O2" s="120" t="s">
+      <c r="J2" s="86"/>
+      <c r="K2" s="86"/>
+      <c r="L2" s="86"/>
+      <c r="M2" s="86"/>
+      <c r="N2" s="87"/>
+      <c r="O2" s="113" t="s">
         <v>10</v>
       </c>
-      <c r="P2" s="95"/>
-      <c r="Q2" s="96"/>
-      <c r="R2" s="99" t="s">
+      <c r="P2" s="88"/>
+      <c r="Q2" s="89"/>
+      <c r="R2" s="92" t="s">
         <v>11</v>
       </c>
-      <c r="S2" s="100"/>
-      <c r="T2" s="100"/>
-      <c r="U2" s="100"/>
-      <c r="V2" s="100"/>
-      <c r="W2" s="100"/>
-      <c r="X2" s="100"/>
-      <c r="Y2" s="100"/>
-      <c r="Z2" s="101"/>
-      <c r="AA2" s="102" t="s">
+      <c r="S2" s="93"/>
+      <c r="T2" s="93"/>
+      <c r="U2" s="93"/>
+      <c r="V2" s="93"/>
+      <c r="W2" s="93"/>
+      <c r="X2" s="93"/>
+      <c r="Y2" s="93"/>
+      <c r="Z2" s="94"/>
+      <c r="AA2" s="95" t="s">
         <v>12</v>
       </c>
-      <c r="AB2" s="78" t="s">
+      <c r="AB2" s="71" t="s">
         <v>13</v>
       </c>
-      <c r="AC2" s="78" t="s">
+      <c r="AC2" s="71" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:29" ht="30" customHeight="1">
-      <c r="A3" s="77"/>
-      <c r="B3" s="77"/>
-      <c r="C3" s="77"/>
-      <c r="D3" s="77"/>
-      <c r="E3" s="77"/>
-      <c r="F3" s="77"/>
-      <c r="G3" s="77"/>
-      <c r="H3" s="77"/>
-      <c r="I3" s="80" t="s">
+      <c r="A3" s="70"/>
+      <c r="B3" s="70"/>
+      <c r="C3" s="70"/>
+      <c r="D3" s="70"/>
+      <c r="E3" s="70"/>
+      <c r="F3" s="70"/>
+      <c r="G3" s="70"/>
+      <c r="H3" s="70"/>
+      <c r="I3" s="73" t="s">
         <v>16</v>
       </c>
-      <c r="J3" s="81"/>
-      <c r="K3" s="81"/>
-      <c r="L3" s="82" t="s">
+      <c r="J3" s="74"/>
+      <c r="K3" s="74"/>
+      <c r="L3" s="75" t="s">
         <v>17</v>
       </c>
-      <c r="M3" s="83"/>
-      <c r="N3" s="84"/>
-      <c r="O3" s="121"/>
-      <c r="P3" s="97"/>
-      <c r="Q3" s="98"/>
-      <c r="R3" s="118" t="s">
+      <c r="M3" s="76"/>
+      <c r="N3" s="77"/>
+      <c r="O3" s="114"/>
+      <c r="P3" s="90"/>
+      <c r="Q3" s="91"/>
+      <c r="R3" s="111" t="s">
         <v>18</v>
       </c>
-      <c r="S3" s="119"/>
-      <c r="T3" s="119"/>
-      <c r="U3" s="88" t="s">
+      <c r="S3" s="112"/>
+      <c r="T3" s="112"/>
+      <c r="U3" s="81" t="s">
         <v>19</v>
       </c>
-      <c r="V3" s="86"/>
-      <c r="W3" s="89"/>
-      <c r="X3" s="88" t="s">
+      <c r="V3" s="79"/>
+      <c r="W3" s="82"/>
+      <c r="X3" s="81" t="s">
         <v>20</v>
       </c>
-      <c r="Y3" s="86"/>
-      <c r="Z3" s="89"/>
-      <c r="AA3" s="103"/>
-      <c r="AB3" s="78"/>
-      <c r="AC3" s="78"/>
+      <c r="Y3" s="79"/>
+      <c r="Z3" s="82"/>
+      <c r="AA3" s="96"/>
+      <c r="AB3" s="71"/>
+      <c r="AC3" s="71"/>
     </row>
     <row r="4" spans="1:29" ht="23.25" customHeight="1">
-      <c r="A4" s="77"/>
-      <c r="B4" s="77"/>
-      <c r="C4" s="77"/>
-      <c r="D4" s="77"/>
-      <c r="E4" s="77"/>
-      <c r="F4" s="77"/>
-      <c r="G4" s="77"/>
-      <c r="H4" s="77"/>
+      <c r="A4" s="70"/>
+      <c r="B4" s="70"/>
+      <c r="C4" s="70"/>
+      <c r="D4" s="70"/>
+      <c r="E4" s="70"/>
+      <c r="F4" s="70"/>
+      <c r="G4" s="70"/>
+      <c r="H4" s="70"/>
       <c r="I4" s="7" t="s">
         <v>7</v>
       </c>
@@ -28114,33 +28111,33 @@
       <c r="Z4" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="AA4" s="103"/>
-      <c r="AB4" s="79"/>
-      <c r="AC4" s="79"/>
+      <c r="AA4" s="96"/>
+      <c r="AB4" s="72"/>
+      <c r="AC4" s="72"/>
     </row>
     <row r="5" spans="1:29" ht="16.5" customHeight="1">
-      <c r="A5" s="74">
-        <v>1</v>
-      </c>
-      <c r="B5" s="74">
+      <c r="A5" s="97">
+        <v>1</v>
+      </c>
+      <c r="B5" s="97">
         <v>20180537</v>
       </c>
       <c r="C5" s="22">
         <v>20180537</v>
       </c>
-      <c r="D5" s="74" t="s">
+      <c r="D5" s="97" t="s">
         <v>546</v>
       </c>
       <c r="E5" s="23" t="s">
         <v>547</v>
       </c>
-      <c r="F5" s="75" t="s">
+      <c r="F5" s="98" t="s">
         <v>548</v>
       </c>
-      <c r="G5" s="74" t="s">
-        <v>31</v>
-      </c>
-      <c r="H5" s="74" t="s">
+      <c r="G5" s="97" t="s">
+        <v>31</v>
+      </c>
+      <c r="H5" s="97" t="s">
         <v>549</v>
       </c>
       <c r="I5" s="22" t="s">
@@ -28178,19 +28175,19 @@
         <v>3</v>
       </c>
       <c r="AB5" s="23"/>
-      <c r="AC5" s="74" t="s">
+      <c r="AC5" s="97" t="s">
         <v>550</v>
       </c>
     </row>
     <row r="6" spans="1:29" ht="16.5" customHeight="1">
-      <c r="A6" s="74"/>
-      <c r="B6" s="74"/>
+      <c r="A6" s="97"/>
+      <c r="B6" s="97"/>
       <c r="C6" s="22"/>
-      <c r="D6" s="74"/>
+      <c r="D6" s="97"/>
       <c r="E6" s="23"/>
-      <c r="F6" s="75"/>
-      <c r="G6" s="74"/>
-      <c r="H6" s="74"/>
+      <c r="F6" s="98"/>
+      <c r="G6" s="97"/>
+      <c r="H6" s="97"/>
       <c r="I6" s="22" t="s">
         <v>26</v>
       </c>
@@ -28226,95 +28223,95 @@
         <v>2</v>
       </c>
       <c r="AB6" s="23"/>
-      <c r="AC6" s="74"/>
-    </row>
-    <row r="7" spans="1:29" s="124" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A7" s="122">
-        <v>2</v>
-      </c>
-      <c r="B7" s="122">
+      <c r="AC6" s="97"/>
+    </row>
+    <row r="7" spans="1:29" ht="16.5" customHeight="1">
+      <c r="A7" s="22">
+        <v>2</v>
+      </c>
+      <c r="B7" s="22">
         <v>20180531</v>
       </c>
-      <c r="C7" s="122">
+      <c r="C7" s="22">
         <v>20180531</v>
       </c>
-      <c r="D7" s="122" t="s">
+      <c r="D7" s="22" t="s">
         <v>551</v>
       </c>
-      <c r="E7" s="123" t="s">
+      <c r="E7" s="23" t="s">
         <v>552</v>
       </c>
-      <c r="F7" s="123" t="s">
+      <c r="F7" s="23" t="s">
         <v>553</v>
       </c>
-      <c r="G7" s="122" t="s">
-        <v>26</v>
-      </c>
-      <c r="H7" s="122" t="s">
+      <c r="G7" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="H7" s="22" t="s">
         <v>549</v>
       </c>
-      <c r="I7" s="122" t="s">
-        <v>26</v>
-      </c>
-      <c r="J7" s="122" t="s">
+      <c r="I7" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="J7" s="22" t="s">
         <v>57</v>
       </c>
-      <c r="K7" s="122">
+      <c r="K7" s="22">
         <v>3</v>
       </c>
-      <c r="L7" s="122" t="s">
-        <v>26</v>
-      </c>
-      <c r="M7" s="122" t="s">
+      <c r="L7" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="M7" s="22" t="s">
         <v>57</v>
       </c>
-      <c r="N7" s="122">
-        <v>2</v>
-      </c>
-      <c r="O7" s="122"/>
-      <c r="P7" s="122"/>
-      <c r="Q7" s="122"/>
-      <c r="R7" s="122"/>
-      <c r="S7" s="122"/>
-      <c r="T7" s="122"/>
-      <c r="U7" s="122"/>
-      <c r="V7" s="122"/>
-      <c r="W7" s="122"/>
-      <c r="X7" s="122"/>
-      <c r="Y7" s="122"/>
-      <c r="Z7" s="122"/>
-      <c r="AA7" s="122">
+      <c r="N7" s="22">
+        <v>2</v>
+      </c>
+      <c r="O7" s="22"/>
+      <c r="P7" s="22"/>
+      <c r="Q7" s="22"/>
+      <c r="R7" s="22"/>
+      <c r="S7" s="22"/>
+      <c r="T7" s="22"/>
+      <c r="U7" s="22"/>
+      <c r="V7" s="22"/>
+      <c r="W7" s="22"/>
+      <c r="X7" s="22"/>
+      <c r="Y7" s="22"/>
+      <c r="Z7" s="22"/>
+      <c r="AA7" s="22">
         <f>K7+N7+Q7+T7+W7+Z7</f>
         <v>5</v>
       </c>
-      <c r="AB7" s="123"/>
-      <c r="AC7" s="123" t="s">
+      <c r="AB7" s="23"/>
+      <c r="AC7" s="23" t="s">
         <v>550</v>
       </c>
     </row>
     <row r="8" spans="1:29" ht="16.5" customHeight="1">
-      <c r="A8" s="74">
+      <c r="A8" s="97">
         <v>3</v>
       </c>
-      <c r="B8" s="74">
+      <c r="B8" s="97">
         <v>20120170</v>
       </c>
       <c r="C8" s="22">
         <v>20120170</v>
       </c>
-      <c r="D8" s="74" t="s">
+      <c r="D8" s="97" t="s">
         <v>554</v>
       </c>
       <c r="E8" s="23" t="s">
         <v>555</v>
       </c>
-      <c r="F8" s="75" t="s">
+      <c r="F8" s="98" t="s">
         <v>556</v>
       </c>
-      <c r="G8" s="74" t="s">
-        <v>31</v>
-      </c>
-      <c r="H8" s="74" t="s">
+      <c r="G8" s="97" t="s">
+        <v>31</v>
+      </c>
+      <c r="H8" s="97" t="s">
         <v>549</v>
       </c>
       <c r="I8" s="22" t="s">
@@ -28355,14 +28352,14 @@
       <c r="AC8" s="23"/>
     </row>
     <row r="9" spans="1:29" ht="16.5" customHeight="1">
-      <c r="A9" s="74"/>
-      <c r="B9" s="74"/>
+      <c r="A9" s="97"/>
+      <c r="B9" s="97"/>
       <c r="C9" s="22"/>
-      <c r="D9" s="74"/>
+      <c r="D9" s="97"/>
       <c r="E9" s="23"/>
-      <c r="F9" s="75"/>
-      <c r="G9" s="74"/>
-      <c r="H9" s="74"/>
+      <c r="F9" s="98"/>
+      <c r="G9" s="97"/>
+      <c r="H9" s="97"/>
       <c r="I9" s="22" t="s">
         <v>26</v>
       </c>
@@ -28401,14 +28398,14 @@
       <c r="AC9" s="23"/>
     </row>
     <row r="10" spans="1:29" ht="16.5" customHeight="1">
-      <c r="A10" s="74"/>
-      <c r="B10" s="74"/>
+      <c r="A10" s="97"/>
+      <c r="B10" s="97"/>
       <c r="C10" s="22"/>
-      <c r="D10" s="74"/>
+      <c r="D10" s="97"/>
       <c r="E10" s="23"/>
-      <c r="F10" s="75"/>
-      <c r="G10" s="74"/>
-      <c r="H10" s="74"/>
+      <c r="F10" s="98"/>
+      <c r="G10" s="97"/>
+      <c r="H10" s="97"/>
       <c r="I10" s="22" t="s">
         <v>31</v>
       </c>
@@ -28447,28 +28444,28 @@
       <c r="AC10" s="23"/>
     </row>
     <row r="11" spans="1:29" ht="16.5" customHeight="1">
-      <c r="A11" s="74">
+      <c r="A11" s="97">
         <v>4</v>
       </c>
-      <c r="B11" s="74">
+      <c r="B11" s="97">
         <v>20130199</v>
       </c>
       <c r="C11" s="22">
         <v>20130199</v>
       </c>
-      <c r="D11" s="74" t="s">
+      <c r="D11" s="97" t="s">
         <v>554</v>
       </c>
       <c r="E11" s="23" t="s">
         <v>557</v>
       </c>
-      <c r="F11" s="74" t="s">
+      <c r="F11" s="97" t="s">
         <v>558</v>
       </c>
-      <c r="G11" s="74" t="s">
-        <v>31</v>
-      </c>
-      <c r="H11" s="74" t="s">
+      <c r="G11" s="97" t="s">
+        <v>31</v>
+      </c>
+      <c r="H11" s="97" t="s">
         <v>549</v>
       </c>
       <c r="I11" s="22" t="s">
@@ -28513,14 +28510,14 @@
       <c r="AC11" s="23"/>
     </row>
     <row r="12" spans="1:29" ht="16.5" customHeight="1">
-      <c r="A12" s="74"/>
-      <c r="B12" s="74"/>
+      <c r="A12" s="97"/>
+      <c r="B12" s="97"/>
       <c r="C12" s="22"/>
-      <c r="D12" s="74"/>
+      <c r="D12" s="97"/>
       <c r="E12" s="23"/>
-      <c r="F12" s="74"/>
-      <c r="G12" s="74"/>
-      <c r="H12" s="74"/>
+      <c r="F12" s="97"/>
+      <c r="G12" s="97"/>
+      <c r="H12" s="97"/>
       <c r="I12" s="22" t="s">
         <v>31</v>
       </c>
@@ -28630,583 +28627,583 @@
       <c r="AB13" s="23"/>
       <c r="AC13" s="23"/>
     </row>
-    <row r="14" spans="1:29" s="124" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A14" s="122">
+    <row r="14" spans="1:29" ht="16.5" customHeight="1">
+      <c r="A14" s="22">
         <v>6</v>
       </c>
-      <c r="B14" s="122">
+      <c r="B14" s="22">
         <v>20200721</v>
       </c>
-      <c r="C14" s="122">
+      <c r="C14" s="22">
         <v>20200721</v>
       </c>
-      <c r="D14" s="122" t="s">
+      <c r="D14" s="22" t="s">
         <v>561</v>
       </c>
-      <c r="E14" s="123" t="s">
+      <c r="E14" s="23" t="s">
         <v>562</v>
       </c>
-      <c r="F14" s="123" t="s">
+      <c r="F14" s="23" t="s">
         <v>563</v>
       </c>
-      <c r="G14" s="122" t="s">
-        <v>31</v>
-      </c>
-      <c r="H14" s="122" t="s">
+      <c r="G14" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="H14" s="22" t="s">
         <v>549</v>
       </c>
-      <c r="I14" s="122" t="s">
-        <v>26</v>
-      </c>
-      <c r="J14" s="122" t="s">
+      <c r="I14" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="J14" s="22" t="s">
         <v>67</v>
       </c>
-      <c r="K14" s="122">
+      <c r="K14" s="22">
         <v>3</v>
       </c>
-      <c r="L14" s="122" t="s">
-        <v>26</v>
-      </c>
-      <c r="M14" s="122" t="s">
+      <c r="L14" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="M14" s="22" t="s">
         <v>67</v>
       </c>
-      <c r="N14" s="122">
-        <v>2</v>
-      </c>
-      <c r="O14" s="122"/>
-      <c r="P14" s="122"/>
-      <c r="Q14" s="122"/>
-      <c r="R14" s="122"/>
-      <c r="S14" s="122"/>
-      <c r="T14" s="122"/>
-      <c r="U14" s="122"/>
-      <c r="V14" s="122"/>
-      <c r="W14" s="122"/>
-      <c r="X14" s="122"/>
-      <c r="Y14" s="122"/>
-      <c r="Z14" s="122"/>
-      <c r="AA14" s="122">
+      <c r="N14" s="22">
+        <v>2</v>
+      </c>
+      <c r="O14" s="22"/>
+      <c r="P14" s="22"/>
+      <c r="Q14" s="22"/>
+      <c r="R14" s="22"/>
+      <c r="S14" s="22"/>
+      <c r="T14" s="22"/>
+      <c r="U14" s="22"/>
+      <c r="V14" s="22"/>
+      <c r="W14" s="22"/>
+      <c r="X14" s="22"/>
+      <c r="Y14" s="22"/>
+      <c r="Z14" s="22"/>
+      <c r="AA14" s="22">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="AB14" s="123"/>
-      <c r="AC14" s="123" t="s">
+      <c r="AB14" s="23"/>
+      <c r="AC14" s="23" t="s">
         <v>550</v>
       </c>
     </row>
-    <row r="15" spans="1:29" s="124" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A15" s="122">
+    <row r="15" spans="1:29" ht="16.5" customHeight="1">
+      <c r="A15" s="22">
         <v>7</v>
       </c>
-      <c r="B15" s="122">
+      <c r="B15" s="22">
         <v>20220871</v>
       </c>
-      <c r="C15" s="122">
+      <c r="C15" s="22">
         <v>20220871</v>
       </c>
-      <c r="D15" s="122" t="s">
+      <c r="D15" s="22" t="s">
         <v>564</v>
       </c>
-      <c r="E15" s="123" t="s">
+      <c r="E15" s="23" t="s">
         <v>565</v>
       </c>
-      <c r="F15" s="123" t="s">
+      <c r="F15" s="23" t="s">
         <v>566</v>
       </c>
-      <c r="G15" s="122" t="s">
-        <v>26</v>
-      </c>
-      <c r="H15" s="122" t="s">
+      <c r="G15" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="H15" s="22" t="s">
         <v>549</v>
       </c>
-      <c r="I15" s="122" t="s">
-        <v>26</v>
-      </c>
-      <c r="J15" s="122" t="s">
+      <c r="I15" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="J15" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="K15" s="122">
-        <v>2</v>
-      </c>
-      <c r="L15" s="122" t="s">
-        <v>26</v>
-      </c>
-      <c r="M15" s="122" t="s">
+      <c r="K15" s="22">
+        <v>2</v>
+      </c>
+      <c r="L15" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="M15" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="N15" s="122">
+      <c r="N15" s="22">
         <v>3</v>
       </c>
-      <c r="O15" s="122"/>
-      <c r="P15" s="122"/>
-      <c r="Q15" s="122"/>
-      <c r="R15" s="122"/>
-      <c r="S15" s="122"/>
-      <c r="T15" s="122"/>
-      <c r="U15" s="122"/>
-      <c r="V15" s="122"/>
-      <c r="W15" s="122"/>
-      <c r="X15" s="122"/>
-      <c r="Y15" s="122"/>
-      <c r="Z15" s="122"/>
-      <c r="AA15" s="122">
+      <c r="O15" s="22"/>
+      <c r="P15" s="22"/>
+      <c r="Q15" s="22"/>
+      <c r="R15" s="22"/>
+      <c r="S15" s="22"/>
+      <c r="T15" s="22"/>
+      <c r="U15" s="22"/>
+      <c r="V15" s="22"/>
+      <c r="W15" s="22"/>
+      <c r="X15" s="22"/>
+      <c r="Y15" s="22"/>
+      <c r="Z15" s="22"/>
+      <c r="AA15" s="22">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="AB15" s="123"/>
-      <c r="AC15" s="123" t="s">
+      <c r="AB15" s="23"/>
+      <c r="AC15" s="23" t="s">
         <v>550</v>
       </c>
     </row>
-    <row r="16" spans="1:29" s="124" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A16" s="122">
+    <row r="16" spans="1:29" ht="16.5" customHeight="1">
+      <c r="A16" s="22">
         <v>8</v>
       </c>
-      <c r="B16" s="122">
+      <c r="B16" s="22">
         <v>20030067</v>
       </c>
-      <c r="C16" s="122">
+      <c r="C16" s="22">
         <v>20030067</v>
       </c>
-      <c r="D16" s="122" t="s">
+      <c r="D16" s="22" t="s">
         <v>567</v>
       </c>
-      <c r="E16" s="123" t="s">
+      <c r="E16" s="23" t="s">
         <v>568</v>
       </c>
-      <c r="F16" s="123" t="s">
+      <c r="F16" s="23" t="s">
         <v>569</v>
       </c>
-      <c r="G16" s="122" t="s">
-        <v>26</v>
-      </c>
-      <c r="H16" s="122" t="s">
+      <c r="G16" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="H16" s="22" t="s">
         <v>549</v>
       </c>
-      <c r="I16" s="122" t="s">
-        <v>26</v>
-      </c>
-      <c r="J16" s="122" t="s">
+      <c r="I16" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="J16" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="K16" s="122">
+      <c r="K16" s="22">
         <v>3</v>
       </c>
-      <c r="L16" s="122" t="s">
-        <v>26</v>
-      </c>
-      <c r="M16" s="122" t="s">
+      <c r="L16" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="M16" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="N16" s="122">
-        <v>2</v>
-      </c>
-      <c r="O16" s="122"/>
-      <c r="P16" s="122"/>
-      <c r="Q16" s="122"/>
-      <c r="R16" s="122"/>
-      <c r="S16" s="122"/>
-      <c r="T16" s="122"/>
-      <c r="U16" s="122"/>
-      <c r="V16" s="122"/>
-      <c r="W16" s="122"/>
-      <c r="X16" s="122"/>
-      <c r="Y16" s="122"/>
-      <c r="Z16" s="122"/>
-      <c r="AA16" s="122">
+      <c r="N16" s="22">
+        <v>2</v>
+      </c>
+      <c r="O16" s="22"/>
+      <c r="P16" s="22"/>
+      <c r="Q16" s="22"/>
+      <c r="R16" s="22"/>
+      <c r="S16" s="22"/>
+      <c r="T16" s="22"/>
+      <c r="U16" s="22"/>
+      <c r="V16" s="22"/>
+      <c r="W16" s="22"/>
+      <c r="X16" s="22"/>
+      <c r="Y16" s="22"/>
+      <c r="Z16" s="22"/>
+      <c r="AA16" s="22">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="AB16" s="123"/>
-      <c r="AC16" s="123" t="s">
+      <c r="AB16" s="23"/>
+      <c r="AC16" s="23" t="s">
         <v>550</v>
       </c>
     </row>
-    <row r="17" spans="1:29" s="124" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A17" s="122">
+    <row r="17" spans="1:29" ht="16.5" customHeight="1">
+      <c r="A17" s="22">
         <v>9</v>
       </c>
-      <c r="B17" s="122">
+      <c r="B17" s="22">
         <v>20140264</v>
       </c>
-      <c r="C17" s="122">
+      <c r="C17" s="22">
         <v>20140264</v>
       </c>
-      <c r="D17" s="122" t="s">
+      <c r="D17" s="22" t="s">
         <v>570</v>
       </c>
-      <c r="E17" s="123" t="s">
+      <c r="E17" s="23" t="s">
         <v>571</v>
       </c>
-      <c r="F17" s="123" t="s">
+      <c r="F17" s="23" t="s">
         <v>572</v>
       </c>
-      <c r="G17" s="122" t="s">
-        <v>26</v>
-      </c>
-      <c r="H17" s="122" t="s">
+      <c r="G17" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="H17" s="22" t="s">
         <v>549</v>
       </c>
-      <c r="I17" s="122" t="s">
-        <v>26</v>
-      </c>
-      <c r="J17" s="122" t="s">
+      <c r="I17" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="J17" s="22" t="s">
         <v>57</v>
       </c>
-      <c r="K17" s="122">
+      <c r="K17" s="22">
         <v>3</v>
       </c>
-      <c r="L17" s="122" t="s">
-        <v>26</v>
-      </c>
-      <c r="M17" s="122" t="s">
+      <c r="L17" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="M17" s="22" t="s">
         <v>57</v>
       </c>
-      <c r="N17" s="122">
-        <v>2</v>
-      </c>
-      <c r="O17" s="122"/>
-      <c r="P17" s="122"/>
-      <c r="Q17" s="122"/>
-      <c r="R17" s="122"/>
-      <c r="S17" s="122"/>
-      <c r="T17" s="122"/>
-      <c r="U17" s="122"/>
-      <c r="V17" s="122"/>
-      <c r="W17" s="122"/>
-      <c r="X17" s="122"/>
-      <c r="Y17" s="122"/>
-      <c r="Z17" s="122"/>
-      <c r="AA17" s="122">
+      <c r="N17" s="22">
+        <v>2</v>
+      </c>
+      <c r="O17" s="22"/>
+      <c r="P17" s="22"/>
+      <c r="Q17" s="22"/>
+      <c r="R17" s="22"/>
+      <c r="S17" s="22"/>
+      <c r="T17" s="22"/>
+      <c r="U17" s="22"/>
+      <c r="V17" s="22"/>
+      <c r="W17" s="22"/>
+      <c r="X17" s="22"/>
+      <c r="Y17" s="22"/>
+      <c r="Z17" s="22"/>
+      <c r="AA17" s="22">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="AB17" s="123"/>
-      <c r="AC17" s="123" t="s">
+      <c r="AB17" s="23"/>
+      <c r="AC17" s="23" t="s">
         <v>550</v>
       </c>
     </row>
-    <row r="18" spans="1:29" s="124" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A18" s="125">
+    <row r="18" spans="1:29" ht="16.5" customHeight="1">
+      <c r="A18" s="97">
         <v>10</v>
       </c>
-      <c r="B18" s="125">
+      <c r="B18" s="97">
         <v>20120165</v>
       </c>
-      <c r="C18" s="122">
+      <c r="C18" s="22">
         <v>20120165</v>
       </c>
-      <c r="D18" s="125" t="s">
+      <c r="D18" s="97" t="s">
         <v>573</v>
       </c>
-      <c r="E18" s="123" t="s">
+      <c r="E18" s="23" t="s">
         <v>574</v>
       </c>
-      <c r="F18" s="126" t="s">
+      <c r="F18" s="98" t="s">
         <v>575</v>
       </c>
-      <c r="G18" s="125" t="s">
-        <v>31</v>
-      </c>
-      <c r="H18" s="125" t="s">
+      <c r="G18" s="97" t="s">
+        <v>31</v>
+      </c>
+      <c r="H18" s="97" t="s">
         <v>549</v>
       </c>
-      <c r="I18" s="122" t="s">
-        <v>31</v>
-      </c>
-      <c r="J18" s="122" t="s">
+      <c r="I18" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="J18" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="K18" s="122">
-        <v>2</v>
-      </c>
-      <c r="L18" s="122" t="s">
-        <v>31</v>
-      </c>
-      <c r="M18" s="122" t="s">
+      <c r="K18" s="22">
+        <v>2</v>
+      </c>
+      <c r="L18" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="M18" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="N18" s="122">
-        <v>2</v>
-      </c>
-      <c r="O18" s="122"/>
-      <c r="P18" s="122"/>
-      <c r="Q18" s="122"/>
-      <c r="R18" s="122"/>
-      <c r="S18" s="122"/>
-      <c r="T18" s="122"/>
-      <c r="U18" s="122"/>
-      <c r="V18" s="122"/>
-      <c r="W18" s="122"/>
-      <c r="X18" s="122"/>
-      <c r="Y18" s="122">
+      <c r="N18" s="22">
+        <v>2</v>
+      </c>
+      <c r="O18" s="22"/>
+      <c r="P18" s="22"/>
+      <c r="Q18" s="22"/>
+      <c r="R18" s="22"/>
+      <c r="S18" s="22"/>
+      <c r="T18" s="22"/>
+      <c r="U18" s="22"/>
+      <c r="V18" s="22"/>
+      <c r="W18" s="22"/>
+      <c r="X18" s="22"/>
+      <c r="Y18" s="22">
         <v>28</v>
       </c>
-      <c r="Z18" s="122">
-        <v>1</v>
-      </c>
-      <c r="AA18" s="122">
+      <c r="Z18" s="22">
+        <v>1</v>
+      </c>
+      <c r="AA18" s="22">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="AB18" s="123"/>
-      <c r="AC18" s="123"/>
-    </row>
-    <row r="19" spans="1:29" s="124" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A19" s="125"/>
-      <c r="B19" s="125"/>
-      <c r="C19" s="122"/>
-      <c r="D19" s="125"/>
-      <c r="E19" s="123"/>
-      <c r="F19" s="126"/>
-      <c r="G19" s="125"/>
-      <c r="H19" s="125"/>
-      <c r="I19" s="122" t="s">
-        <v>26</v>
-      </c>
-      <c r="J19" s="122" t="s">
+      <c r="AB18" s="23"/>
+      <c r="AC18" s="23"/>
+    </row>
+    <row r="19" spans="1:29" ht="16.5" customHeight="1">
+      <c r="A19" s="97"/>
+      <c r="B19" s="97"/>
+      <c r="C19" s="22"/>
+      <c r="D19" s="97"/>
+      <c r="E19" s="23"/>
+      <c r="F19" s="98"/>
+      <c r="G19" s="97"/>
+      <c r="H19" s="97"/>
+      <c r="I19" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="J19" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="K19" s="122">
-        <v>2</v>
-      </c>
-      <c r="L19" s="122" t="s">
-        <v>26</v>
-      </c>
-      <c r="M19" s="122" t="s">
+      <c r="K19" s="22">
+        <v>2</v>
+      </c>
+      <c r="L19" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="M19" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="N19" s="122">
-        <v>2</v>
-      </c>
-      <c r="O19" s="122"/>
-      <c r="P19" s="122"/>
-      <c r="Q19" s="122"/>
-      <c r="R19" s="122"/>
-      <c r="S19" s="122"/>
-      <c r="T19" s="122"/>
-      <c r="U19" s="122"/>
-      <c r="V19" s="122"/>
-      <c r="W19" s="122"/>
-      <c r="X19" s="122"/>
-      <c r="Y19" s="122"/>
-      <c r="Z19" s="122"/>
-      <c r="AA19" s="122">
+      <c r="N19" s="22">
+        <v>2</v>
+      </c>
+      <c r="O19" s="22"/>
+      <c r="P19" s="22"/>
+      <c r="Q19" s="22"/>
+      <c r="R19" s="22"/>
+      <c r="S19" s="22"/>
+      <c r="T19" s="22"/>
+      <c r="U19" s="22"/>
+      <c r="V19" s="22"/>
+      <c r="W19" s="22"/>
+      <c r="X19" s="22"/>
+      <c r="Y19" s="22"/>
+      <c r="Z19" s="22"/>
+      <c r="AA19" s="22">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="AB19" s="123"/>
-      <c r="AC19" s="123"/>
-    </row>
-    <row r="20" spans="1:29" s="63" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A20" s="61">
+      <c r="AB19" s="23"/>
+      <c r="AC19" s="23"/>
+    </row>
+    <row r="20" spans="1:29" ht="16.5" customHeight="1">
+      <c r="A20" s="22">
         <v>11</v>
       </c>
-      <c r="B20" s="61">
+      <c r="B20" s="22">
         <v>20180529</v>
       </c>
-      <c r="C20" s="61">
+      <c r="C20" s="22">
         <v>20180529</v>
       </c>
-      <c r="D20" s="61" t="s">
+      <c r="D20" s="22" t="s">
         <v>573</v>
       </c>
-      <c r="E20" s="62" t="s">
+      <c r="E20" s="23" t="s">
         <v>576</v>
       </c>
-      <c r="F20" s="62" t="s">
+      <c r="F20" s="23" t="s">
         <v>577</v>
       </c>
-      <c r="G20" s="61" t="s">
-        <v>26</v>
-      </c>
-      <c r="H20" s="61" t="s">
+      <c r="G20" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="H20" s="22" t="s">
         <v>549</v>
       </c>
-      <c r="I20" s="61" t="s">
-        <v>26</v>
-      </c>
-      <c r="J20" s="61" t="s">
+      <c r="I20" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="J20" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="K20" s="61">
-        <v>2</v>
-      </c>
-      <c r="L20" s="61" t="s">
-        <v>26</v>
-      </c>
-      <c r="M20" s="61" t="s">
+      <c r="K20" s="22">
+        <v>2</v>
+      </c>
+      <c r="L20" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="M20" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="N20" s="61">
+      <c r="N20" s="22">
         <v>3</v>
       </c>
-      <c r="O20" s="61" t="s">
-        <v>26</v>
-      </c>
-      <c r="P20" s="61" t="s">
+      <c r="O20" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="P20" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="Q20" s="61">
-        <v>1</v>
-      </c>
-      <c r="R20" s="61"/>
-      <c r="S20" s="61">
+      <c r="Q20" s="22">
+        <v>1</v>
+      </c>
+      <c r="R20" s="22"/>
+      <c r="S20" s="22">
         <v>32</v>
       </c>
-      <c r="T20" s="61">
+      <c r="T20" s="22">
         <v>3</v>
       </c>
-      <c r="U20" s="61"/>
-      <c r="V20" s="61"/>
-      <c r="W20" s="61"/>
-      <c r="X20" s="61"/>
-      <c r="Y20" s="61"/>
-      <c r="Z20" s="61"/>
-      <c r="AA20" s="61">
+      <c r="U20" s="22"/>
+      <c r="V20" s="22"/>
+      <c r="W20" s="22"/>
+      <c r="X20" s="22"/>
+      <c r="Y20" s="22"/>
+      <c r="Z20" s="22"/>
+      <c r="AA20" s="22">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="AB20" s="62"/>
-      <c r="AC20" s="62"/>
-    </row>
-    <row r="21" spans="1:29" s="63" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A21" s="61">
+      <c r="AB20" s="23"/>
+      <c r="AC20" s="23"/>
+    </row>
+    <row r="21" spans="1:29" ht="16.5" customHeight="1">
+      <c r="A21" s="22">
         <v>12</v>
       </c>
-      <c r="B21" s="61">
+      <c r="B21" s="22">
         <v>20180536</v>
       </c>
-      <c r="C21" s="61">
+      <c r="C21" s="22">
         <v>20180536</v>
       </c>
-      <c r="D21" s="61" t="s">
+      <c r="D21" s="22" t="s">
         <v>573</v>
       </c>
-      <c r="E21" s="62" t="s">
+      <c r="E21" s="23" t="s">
         <v>578</v>
       </c>
-      <c r="F21" s="62" t="s">
+      <c r="F21" s="23" t="s">
         <v>579</v>
       </c>
-      <c r="G21" s="61" t="s">
-        <v>31</v>
-      </c>
-      <c r="H21" s="61" t="s">
+      <c r="G21" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="H21" s="22" t="s">
         <v>549</v>
       </c>
-      <c r="I21" s="61" t="s">
-        <v>31</v>
-      </c>
-      <c r="J21" s="61" t="s">
+      <c r="I21" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="J21" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="K21" s="61">
-        <v>2</v>
-      </c>
-      <c r="L21" s="61" t="s">
-        <v>31</v>
-      </c>
-      <c r="M21" s="61" t="s">
+      <c r="K21" s="22">
+        <v>2</v>
+      </c>
+      <c r="L21" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="M21" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="N21" s="61">
+      <c r="N21" s="22">
         <v>3</v>
       </c>
-      <c r="O21" s="61" t="s">
-        <v>31</v>
-      </c>
-      <c r="P21" s="61" t="s">
+      <c r="O21" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="P21" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="Q21" s="61">
-        <v>1</v>
-      </c>
-      <c r="R21" s="61"/>
-      <c r="S21" s="61"/>
-      <c r="T21" s="61"/>
-      <c r="U21" s="61"/>
-      <c r="V21" s="61">
+      <c r="Q21" s="22">
+        <v>1</v>
+      </c>
+      <c r="R21" s="22"/>
+      <c r="S21" s="22"/>
+      <c r="T21" s="22"/>
+      <c r="U21" s="22"/>
+      <c r="V21" s="22">
         <v>28</v>
       </c>
-      <c r="W21" s="61">
-        <v>2</v>
-      </c>
-      <c r="X21" s="61"/>
-      <c r="Y21" s="61">
+      <c r="W21" s="22">
+        <v>2</v>
+      </c>
+      <c r="X21" s="22"/>
+      <c r="Y21" s="22">
         <v>28</v>
       </c>
-      <c r="Z21" s="61">
-        <v>1</v>
-      </c>
-      <c r="AA21" s="61">
+      <c r="Z21" s="22">
+        <v>1</v>
+      </c>
+      <c r="AA21" s="22">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="AB21" s="62"/>
-      <c r="AC21" s="62"/>
-    </row>
-    <row r="22" spans="1:29" s="124" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A22" s="122">
+      <c r="AB21" s="23"/>
+      <c r="AC21" s="23"/>
+    </row>
+    <row r="22" spans="1:29" ht="16.5" customHeight="1">
+      <c r="A22" s="22">
         <v>13</v>
       </c>
-      <c r="B22" s="122">
+      <c r="B22" s="22">
         <v>20210811</v>
       </c>
-      <c r="C22" s="122">
+      <c r="C22" s="22">
         <v>20210811</v>
       </c>
-      <c r="D22" s="122" t="s">
+      <c r="D22" s="22" t="s">
         <v>573</v>
       </c>
-      <c r="E22" s="123" t="s">
+      <c r="E22" s="23" t="s">
         <v>580</v>
       </c>
-      <c r="F22" s="123" t="s">
+      <c r="F22" s="23" t="s">
         <v>581</v>
       </c>
-      <c r="G22" s="122" t="s">
-        <v>31</v>
-      </c>
-      <c r="H22" s="122" t="s">
+      <c r="G22" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="H22" s="22" t="s">
         <v>549</v>
       </c>
-      <c r="I22" s="122" t="s">
-        <v>26</v>
-      </c>
-      <c r="J22" s="122" t="s">
+      <c r="I22" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="J22" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="K22" s="122">
-        <v>2</v>
-      </c>
-      <c r="L22" s="122" t="s">
-        <v>26</v>
-      </c>
-      <c r="M22" s="122" t="s">
+      <c r="K22" s="22">
+        <v>2</v>
+      </c>
+      <c r="L22" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="M22" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="N22" s="122">
+      <c r="N22" s="22">
         <v>3</v>
       </c>
-      <c r="O22" s="122"/>
-      <c r="P22" s="122"/>
-      <c r="Q22" s="122"/>
-      <c r="R22" s="122"/>
-      <c r="S22" s="122"/>
-      <c r="T22" s="122"/>
-      <c r="U22" s="122"/>
-      <c r="V22" s="122"/>
-      <c r="W22" s="122"/>
-      <c r="X22" s="122"/>
-      <c r="Y22" s="122"/>
-      <c r="Z22" s="122"/>
-      <c r="AA22" s="122">
+      <c r="O22" s="22"/>
+      <c r="P22" s="22"/>
+      <c r="Q22" s="22"/>
+      <c r="R22" s="22"/>
+      <c r="S22" s="22"/>
+      <c r="T22" s="22"/>
+      <c r="U22" s="22"/>
+      <c r="V22" s="22"/>
+      <c r="W22" s="22"/>
+      <c r="X22" s="22"/>
+      <c r="Y22" s="22"/>
+      <c r="Z22" s="22"/>
+      <c r="AA22" s="22">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="AB22" s="123"/>
-      <c r="AC22" s="123"/>
+      <c r="AB22" s="23"/>
+      <c r="AC22" s="23"/>
     </row>
     <row r="23" spans="1:29" ht="16.5" customHeight="1">
       <c r="A23" s="22">
@@ -29551,28 +29548,28 @@
       <c r="AC27" s="23"/>
     </row>
     <row r="28" spans="1:29" ht="16.5" customHeight="1">
-      <c r="A28" s="74">
+      <c r="A28" s="97">
         <v>19</v>
       </c>
-      <c r="B28" s="74">
+      <c r="B28" s="97">
         <v>20140260</v>
       </c>
       <c r="C28" s="22">
         <v>20140260</v>
       </c>
-      <c r="D28" s="74" t="s">
+      <c r="D28" s="97" t="s">
         <v>582</v>
       </c>
       <c r="E28" s="23" t="s">
         <v>594</v>
       </c>
-      <c r="F28" s="75" t="s">
+      <c r="F28" s="98" t="s">
         <v>595</v>
       </c>
-      <c r="G28" s="74" t="s">
-        <v>31</v>
-      </c>
-      <c r="H28" s="74" t="s">
+      <c r="G28" s="97" t="s">
+        <v>31</v>
+      </c>
+      <c r="H28" s="97" t="s">
         <v>549</v>
       </c>
       <c r="I28" s="22" t="s">
@@ -29613,14 +29610,14 @@
       <c r="AC28" s="23"/>
     </row>
     <row r="29" spans="1:29" ht="16.5" customHeight="1">
-      <c r="A29" s="74"/>
-      <c r="B29" s="74"/>
+      <c r="A29" s="97"/>
+      <c r="B29" s="97"/>
       <c r="C29" s="22"/>
-      <c r="D29" s="74"/>
+      <c r="D29" s="97"/>
       <c r="E29" s="23"/>
-      <c r="F29" s="75"/>
-      <c r="G29" s="74"/>
-      <c r="H29" s="74"/>
+      <c r="F29" s="98"/>
+      <c r="G29" s="97"/>
+      <c r="H29" s="97"/>
       <c r="I29" s="22" t="s">
         <v>26</v>
       </c>
@@ -29937,28 +29934,28 @@
       <c r="AC33" s="23"/>
     </row>
     <row r="34" spans="1:29" ht="16.5" customHeight="1">
-      <c r="A34" s="74">
+      <c r="A34" s="97">
         <v>24</v>
       </c>
-      <c r="B34" s="74">
+      <c r="B34" s="97">
         <v>20150298</v>
       </c>
       <c r="C34" s="22">
         <v>20150298</v>
       </c>
-      <c r="D34" s="74" t="s">
+      <c r="D34" s="97" t="s">
         <v>602</v>
       </c>
       <c r="E34" s="23" t="s">
         <v>605</v>
       </c>
-      <c r="F34" s="75" t="s">
+      <c r="F34" s="98" t="s">
         <v>606</v>
       </c>
-      <c r="G34" s="74" t="s">
-        <v>31</v>
-      </c>
-      <c r="H34" s="74" t="s">
+      <c r="G34" s="97" t="s">
+        <v>31</v>
+      </c>
+      <c r="H34" s="97" t="s">
         <v>549</v>
       </c>
       <c r="I34" s="22" t="s">
@@ -30009,14 +30006,14 @@
       <c r="AC34" s="23"/>
     </row>
     <row r="35" spans="1:29" ht="16.5" customHeight="1">
-      <c r="A35" s="74"/>
-      <c r="B35" s="74"/>
+      <c r="A35" s="97"/>
+      <c r="B35" s="97"/>
       <c r="C35" s="22"/>
-      <c r="D35" s="74"/>
+      <c r="D35" s="97"/>
       <c r="E35" s="23"/>
-      <c r="F35" s="75"/>
-      <c r="G35" s="74"/>
-      <c r="H35" s="74"/>
+      <c r="F35" s="98"/>
+      <c r="G35" s="97"/>
+      <c r="H35" s="97"/>
       <c r="I35" s="22" t="s">
         <v>26</v>
       </c>
@@ -30128,8 +30125,8 @@
       <c r="A37" s="22">
         <v>26</v>
       </c>
-      <c r="B37" s="24">
-        <v>100118448</v>
+      <c r="B37" s="68">
+        <v>20160338</v>
       </c>
       <c r="C37" s="22">
         <v>100118448</v>
@@ -30189,28 +30186,28 @@
       </c>
     </row>
     <row r="38" spans="1:29" ht="16.5" customHeight="1">
-      <c r="A38" s="74">
+      <c r="A38" s="97">
         <v>27</v>
       </c>
-      <c r="B38" s="74">
+      <c r="B38" s="97">
         <v>20210786</v>
       </c>
       <c r="C38" s="22">
         <v>20210786</v>
       </c>
-      <c r="D38" s="74" t="s">
+      <c r="D38" s="97" t="s">
         <v>602</v>
       </c>
       <c r="E38" s="23" t="s">
         <v>612</v>
       </c>
-      <c r="F38" s="75" t="s">
+      <c r="F38" s="98" t="s">
         <v>613</v>
       </c>
-      <c r="G38" s="74" t="s">
-        <v>31</v>
-      </c>
-      <c r="H38" s="74" t="s">
+      <c r="G38" s="97" t="s">
+        <v>31</v>
+      </c>
+      <c r="H38" s="97" t="s">
         <v>549</v>
       </c>
       <c r="I38" s="22" t="s">
@@ -30259,14 +30256,14 @@
       <c r="AC38" s="23"/>
     </row>
     <row r="39" spans="1:29" ht="16.5" customHeight="1">
-      <c r="A39" s="74"/>
-      <c r="B39" s="74"/>
+      <c r="A39" s="97"/>
+      <c r="B39" s="97"/>
       <c r="C39" s="22"/>
-      <c r="D39" s="74"/>
+      <c r="D39" s="97"/>
       <c r="E39" s="23"/>
-      <c r="F39" s="75"/>
-      <c r="G39" s="74"/>
-      <c r="H39" s="74"/>
+      <c r="F39" s="98"/>
+      <c r="G39" s="97"/>
+      <c r="H39" s="97"/>
       <c r="I39" s="22"/>
       <c r="J39" s="24"/>
       <c r="K39" s="22"/>
@@ -30361,28 +30358,28 @@
       <c r="AC40" s="23"/>
     </row>
     <row r="41" spans="1:29" ht="16.5" customHeight="1">
-      <c r="A41" s="74">
+      <c r="A41" s="97">
         <v>29</v>
       </c>
-      <c r="B41" s="74">
+      <c r="B41" s="97">
         <v>20200682</v>
       </c>
       <c r="C41" s="22">
         <v>20200682</v>
       </c>
-      <c r="D41" s="74" t="s">
+      <c r="D41" s="97" t="s">
         <v>602</v>
       </c>
       <c r="E41" s="23" t="s">
         <v>616</v>
       </c>
-      <c r="F41" s="75" t="s">
+      <c r="F41" s="98" t="s">
         <v>617</v>
       </c>
-      <c r="G41" s="74" t="s">
-        <v>31</v>
-      </c>
-      <c r="H41" s="74" t="s">
+      <c r="G41" s="97" t="s">
+        <v>31</v>
+      </c>
+      <c r="H41" s="97" t="s">
         <v>549</v>
       </c>
       <c r="I41" s="22" t="s">
@@ -30423,14 +30420,14 @@
       <c r="AC41" s="23"/>
     </row>
     <row r="42" spans="1:29" ht="16.5" customHeight="1">
-      <c r="A42" s="74"/>
-      <c r="B42" s="74"/>
+      <c r="A42" s="97"/>
+      <c r="B42" s="97"/>
       <c r="C42" s="22"/>
-      <c r="D42" s="74"/>
+      <c r="D42" s="97"/>
       <c r="E42" s="23"/>
-      <c r="F42" s="75"/>
-      <c r="G42" s="74"/>
-      <c r="H42" s="74"/>
+      <c r="F42" s="98"/>
+      <c r="G42" s="97"/>
+      <c r="H42" s="97"/>
       <c r="I42" s="22" t="s">
         <v>31</v>
       </c>
@@ -30601,28 +30598,28 @@
       <c r="AC44" s="23"/>
     </row>
     <row r="45" spans="1:29" ht="16.5" customHeight="1">
-      <c r="A45" s="74">
+      <c r="A45" s="97">
         <v>32</v>
       </c>
-      <c r="B45" s="74">
+      <c r="B45" s="97">
         <v>20200658</v>
       </c>
       <c r="C45" s="22">
         <v>20200658</v>
       </c>
-      <c r="D45" s="74" t="s">
+      <c r="D45" s="97" t="s">
         <v>618</v>
       </c>
       <c r="E45" s="23" t="s">
         <v>623</v>
       </c>
-      <c r="F45" s="75" t="s">
+      <c r="F45" s="98" t="s">
         <v>624</v>
       </c>
-      <c r="G45" s="74" t="s">
-        <v>26</v>
-      </c>
-      <c r="H45" s="74" t="s">
+      <c r="G45" s="97" t="s">
+        <v>26</v>
+      </c>
+      <c r="H45" s="97" t="s">
         <v>549</v>
       </c>
       <c r="I45" s="22" t="s">
@@ -30663,14 +30660,14 @@
       <c r="AC45" s="23"/>
     </row>
     <row r="46" spans="1:29" ht="16.5" customHeight="1">
-      <c r="A46" s="74"/>
-      <c r="B46" s="74"/>
+      <c r="A46" s="97"/>
+      <c r="B46" s="97"/>
       <c r="C46" s="22"/>
-      <c r="D46" s="74"/>
+      <c r="D46" s="97"/>
       <c r="E46" s="23"/>
-      <c r="F46" s="75"/>
-      <c r="G46" s="74"/>
-      <c r="H46" s="74"/>
+      <c r="F46" s="98"/>
+      <c r="G46" s="97"/>
+      <c r="H46" s="97"/>
       <c r="I46" s="22" t="s">
         <v>26</v>
       </c>
@@ -30709,14 +30706,14 @@
       <c r="AC46" s="23"/>
     </row>
     <row r="47" spans="1:29" ht="16.5" customHeight="1">
-      <c r="A47" s="74"/>
-      <c r="B47" s="74"/>
+      <c r="A47" s="97"/>
+      <c r="B47" s="97"/>
       <c r="C47" s="22"/>
-      <c r="D47" s="74"/>
+      <c r="D47" s="97"/>
       <c r="E47" s="23"/>
-      <c r="F47" s="75"/>
-      <c r="G47" s="74"/>
-      <c r="H47" s="74"/>
+      <c r="F47" s="98"/>
+      <c r="G47" s="97"/>
+      <c r="H47" s="97"/>
       <c r="I47" s="22" t="s">
         <v>26</v>
       </c>
@@ -30751,28 +30748,28 @@
       <c r="AC47" s="23"/>
     </row>
     <row r="48" spans="1:29" ht="16.5" customHeight="1">
-      <c r="A48" s="74">
+      <c r="A48" s="97">
         <v>33</v>
       </c>
-      <c r="B48" s="74">
+      <c r="B48" s="97">
         <v>20220887</v>
       </c>
       <c r="C48" s="22">
         <v>20220887</v>
       </c>
-      <c r="D48" s="74" t="s">
+      <c r="D48" s="97" t="s">
         <v>618</v>
       </c>
       <c r="E48" s="23" t="s">
         <v>625</v>
       </c>
-      <c r="F48" s="75" t="s">
+      <c r="F48" s="98" t="s">
         <v>626</v>
       </c>
-      <c r="G48" s="74" t="s">
-        <v>26</v>
-      </c>
-      <c r="H48" s="74" t="s">
+      <c r="G48" s="97" t="s">
+        <v>26</v>
+      </c>
+      <c r="H48" s="97" t="s">
         <v>549</v>
       </c>
       <c r="I48" s="22" t="s">
@@ -30819,14 +30816,14 @@
       <c r="AC48" s="23"/>
     </row>
     <row r="49" spans="1:29" ht="16.5" customHeight="1">
-      <c r="A49" s="74"/>
-      <c r="B49" s="74"/>
+      <c r="A49" s="97"/>
+      <c r="B49" s="97"/>
       <c r="C49" s="22"/>
-      <c r="D49" s="74"/>
+      <c r="D49" s="97"/>
       <c r="E49" s="23"/>
-      <c r="F49" s="75"/>
-      <c r="G49" s="74"/>
-      <c r="H49" s="74"/>
+      <c r="F49" s="98"/>
+      <c r="G49" s="97"/>
+      <c r="H49" s="97"/>
       <c r="I49" s="22"/>
       <c r="J49" s="22"/>
       <c r="K49" s="22"/>
@@ -30999,28 +30996,28 @@
       <c r="AC51" s="23"/>
     </row>
     <row r="52" spans="1:29" ht="16.5" customHeight="1">
-      <c r="A52" s="74">
+      <c r="A52" s="97">
         <v>36</v>
       </c>
-      <c r="B52" s="74">
+      <c r="B52" s="97">
         <v>11111113</v>
       </c>
       <c r="C52" s="22">
         <v>11111113</v>
       </c>
-      <c r="D52" s="74" t="s">
+      <c r="D52" s="97" t="s">
         <v>235</v>
       </c>
       <c r="E52" s="23" t="s">
         <v>631</v>
       </c>
-      <c r="F52" s="75" t="s">
+      <c r="F52" s="98" t="s">
         <v>632</v>
       </c>
-      <c r="G52" s="74" t="s">
-        <v>26</v>
-      </c>
-      <c r="H52" s="74" t="s">
+      <c r="G52" s="97" t="s">
+        <v>26</v>
+      </c>
+      <c r="H52" s="97" t="s">
         <v>549</v>
       </c>
       <c r="I52" s="22" t="s">
@@ -31058,19 +31055,19 @@
         <v>2</v>
       </c>
       <c r="AB52" s="23"/>
-      <c r="AC52" s="74" t="s">
+      <c r="AC52" s="97" t="s">
         <v>611</v>
       </c>
     </row>
     <row r="53" spans="1:29" ht="16.5" customHeight="1">
-      <c r="A53" s="74"/>
-      <c r="B53" s="74"/>
+      <c r="A53" s="97"/>
+      <c r="B53" s="97"/>
       <c r="C53" s="22"/>
-      <c r="D53" s="74"/>
+      <c r="D53" s="97"/>
       <c r="E53" s="23"/>
-      <c r="F53" s="75"/>
-      <c r="G53" s="74"/>
-      <c r="H53" s="74"/>
+      <c r="F53" s="98"/>
+      <c r="G53" s="97"/>
+      <c r="H53" s="97"/>
       <c r="I53" s="22" t="s">
         <v>26</v>
       </c>
@@ -31102,7 +31099,7 @@
         <v>1</v>
       </c>
       <c r="AB53" s="23"/>
-      <c r="AC53" s="74"/>
+      <c r="AC53" s="97"/>
     </row>
     <row r="54" spans="1:29" ht="16.5" customHeight="1">
       <c r="A54" s="22">
@@ -31166,99 +31163,99 @@
       <c r="AB54" s="23"/>
       <c r="AC54" s="23"/>
     </row>
-    <row r="55" spans="1:29" ht="16.5" customHeight="1">
-      <c r="A55" s="22">
+    <row r="55" spans="1:29" s="125" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A55" s="123">
         <v>38</v>
       </c>
-      <c r="B55" s="22">
+      <c r="B55" s="123">
         <v>20000053</v>
       </c>
-      <c r="C55" s="22">
+      <c r="C55" s="123">
         <v>20000053</v>
       </c>
-      <c r="D55" s="22" t="s">
+      <c r="D55" s="123" t="s">
         <v>636</v>
       </c>
-      <c r="E55" s="23" t="s">
+      <c r="E55" s="124" t="s">
         <v>637</v>
       </c>
-      <c r="F55" s="23" t="s">
+      <c r="F55" s="124" t="s">
         <v>638</v>
       </c>
-      <c r="G55" s="22" t="s">
-        <v>31</v>
-      </c>
-      <c r="H55" s="22" t="s">
+      <c r="G55" s="123" t="s">
+        <v>31</v>
+      </c>
+      <c r="H55" s="123" t="s">
         <v>549</v>
       </c>
-      <c r="I55" s="22" t="s">
-        <v>31</v>
-      </c>
-      <c r="J55" s="22" t="s">
+      <c r="I55" s="123" t="s">
+        <v>31</v>
+      </c>
+      <c r="J55" s="123" t="s">
         <v>39</v>
       </c>
-      <c r="K55" s="22">
+      <c r="K55" s="123">
         <v>3</v>
       </c>
-      <c r="L55" s="22" t="s">
-        <v>31</v>
-      </c>
-      <c r="M55" s="22" t="s">
+      <c r="L55" s="123" t="s">
+        <v>31</v>
+      </c>
+      <c r="M55" s="123" t="s">
         <v>39</v>
       </c>
-      <c r="N55" s="22">
+      <c r="N55" s="123">
         <v>4</v>
       </c>
-      <c r="O55" s="22"/>
-      <c r="P55" s="22"/>
-      <c r="Q55" s="22"/>
-      <c r="R55" s="22"/>
-      <c r="S55" s="22"/>
-      <c r="T55" s="22"/>
-      <c r="U55" s="22"/>
-      <c r="V55" s="22">
+      <c r="O55" s="123"/>
+      <c r="P55" s="123"/>
+      <c r="Q55" s="123"/>
+      <c r="R55" s="123"/>
+      <c r="S55" s="123"/>
+      <c r="T55" s="123"/>
+      <c r="U55" s="123"/>
+      <c r="V55" s="123">
         <v>29</v>
       </c>
-      <c r="W55" s="22">
-        <v>1</v>
-      </c>
-      <c r="X55" s="22"/>
-      <c r="Y55" s="22">
+      <c r="W55" s="123">
+        <v>1</v>
+      </c>
+      <c r="X55" s="123"/>
+      <c r="Y55" s="123">
         <v>30</v>
       </c>
-      <c r="Z55" s="22">
-        <v>1</v>
-      </c>
-      <c r="AA55" s="22">
+      <c r="Z55" s="123">
+        <v>1</v>
+      </c>
+      <c r="AA55" s="123">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="AB55" s="23"/>
-      <c r="AC55" s="23"/>
+      <c r="AB55" s="124"/>
+      <c r="AC55" s="124"/>
     </row>
     <row r="56" spans="1:29" ht="16.5" customHeight="1">
-      <c r="A56" s="74">
+      <c r="A56" s="97">
         <v>39</v>
       </c>
-      <c r="B56" s="74">
+      <c r="B56" s="97">
         <v>20030063</v>
       </c>
       <c r="C56" s="22">
         <v>20030063</v>
       </c>
-      <c r="D56" s="74" t="s">
+      <c r="D56" s="97" t="s">
         <v>636</v>
       </c>
       <c r="E56" s="23" t="s">
         <v>639</v>
       </c>
-      <c r="F56" s="75" t="s">
+      <c r="F56" s="98" t="s">
         <v>640</v>
       </c>
-      <c r="G56" s="74" t="s">
-        <v>31</v>
-      </c>
-      <c r="H56" s="74" t="s">
+      <c r="G56" s="97" t="s">
+        <v>31</v>
+      </c>
+      <c r="H56" s="97" t="s">
         <v>549</v>
       </c>
       <c r="I56" s="22" t="s">
@@ -31307,14 +31304,14 @@
       <c r="AC56" s="23"/>
     </row>
     <row r="57" spans="1:29" ht="16.5" customHeight="1">
-      <c r="A57" s="74"/>
-      <c r="B57" s="74"/>
+      <c r="A57" s="97"/>
+      <c r="B57" s="97"/>
       <c r="C57" s="22"/>
-      <c r="D57" s="74"/>
+      <c r="D57" s="97"/>
       <c r="E57" s="23"/>
-      <c r="F57" s="75"/>
-      <c r="G57" s="74"/>
-      <c r="H57" s="74"/>
+      <c r="F57" s="98"/>
+      <c r="G57" s="97"/>
+      <c r="H57" s="97"/>
       <c r="I57" s="22" t="s">
         <v>26</v>
       </c>
@@ -31361,14 +31358,14 @@
       <c r="AC57" s="23"/>
     </row>
     <row r="58" spans="1:29" ht="16.5" customHeight="1">
-      <c r="A58" s="74"/>
-      <c r="B58" s="74"/>
+      <c r="A58" s="97"/>
+      <c r="B58" s="97"/>
       <c r="C58" s="22"/>
-      <c r="D58" s="74"/>
+      <c r="D58" s="97"/>
       <c r="E58" s="23"/>
-      <c r="F58" s="75"/>
-      <c r="G58" s="74"/>
-      <c r="H58" s="74"/>
+      <c r="F58" s="98"/>
+      <c r="G58" s="97"/>
+      <c r="H58" s="97"/>
       <c r="I58" s="22"/>
       <c r="J58" s="22"/>
       <c r="K58" s="22"/>
@@ -31476,73 +31473,73 @@
       <c r="AB59" s="23"/>
       <c r="AC59" s="23"/>
     </row>
-    <row r="60" spans="1:29" s="63" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A60" s="61">
+    <row r="60" spans="1:29" ht="16.5" customHeight="1">
+      <c r="A60" s="22">
         <v>41</v>
       </c>
-      <c r="B60" s="61">
+      <c r="B60" s="22">
         <v>20130237</v>
       </c>
-      <c r="C60" s="61">
+      <c r="C60" s="22">
         <v>20130237</v>
       </c>
-      <c r="D60" s="61" t="s">
+      <c r="D60" s="22" t="s">
         <v>636</v>
       </c>
-      <c r="E60" s="62" t="s">
+      <c r="E60" s="23" t="s">
         <v>643</v>
       </c>
-      <c r="F60" s="62" t="s">
+      <c r="F60" s="23" t="s">
         <v>644</v>
       </c>
-      <c r="G60" s="61" t="s">
-        <v>26</v>
-      </c>
-      <c r="H60" s="61" t="s">
+      <c r="G60" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="H60" s="22" t="s">
         <v>549</v>
       </c>
-      <c r="I60" s="61" t="s">
-        <v>26</v>
-      </c>
-      <c r="J60" s="61" t="s">
+      <c r="I60" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="J60" s="22" t="s">
         <v>57</v>
       </c>
-      <c r="K60" s="61">
-        <v>2</v>
-      </c>
-      <c r="L60" s="61" t="s">
-        <v>26</v>
-      </c>
-      <c r="M60" s="61" t="s">
+      <c r="K60" s="22">
+        <v>2</v>
+      </c>
+      <c r="L60" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="M60" s="22" t="s">
         <v>57</v>
       </c>
-      <c r="N60" s="61">
+      <c r="N60" s="22">
         <v>4</v>
       </c>
-      <c r="O60" s="61" t="s">
-        <v>26</v>
-      </c>
-      <c r="P60" s="61" t="s">
+      <c r="O60" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="P60" s="22" t="s">
         <v>107</v>
       </c>
-      <c r="Q60" s="61">
+      <c r="Q60" s="22">
         <v>3</v>
       </c>
-      <c r="R60" s="61"/>
-      <c r="S60" s="61"/>
-      <c r="T60" s="61"/>
-      <c r="U60" s="61"/>
-      <c r="V60" s="61"/>
-      <c r="W60" s="61"/>
-      <c r="X60" s="61"/>
-      <c r="Y60" s="61"/>
-      <c r="Z60" s="61"/>
-      <c r="AA60" s="61">
+      <c r="R60" s="22"/>
+      <c r="S60" s="22"/>
+      <c r="T60" s="22"/>
+      <c r="U60" s="22"/>
+      <c r="V60" s="22"/>
+      <c r="W60" s="22"/>
+      <c r="X60" s="22"/>
+      <c r="Y60" s="22"/>
+      <c r="Z60" s="22"/>
+      <c r="AA60" s="22">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="AB60" s="62"/>
-      <c r="AC60" s="62"/>
+      <c r="AB60" s="23"/>
+      <c r="AC60" s="23"/>
     </row>
     <row r="61" spans="1:29" ht="16.5" customHeight="1">
       <c r="A61" s="22">
@@ -31821,28 +31818,28 @@
       <c r="AC64" s="23"/>
     </row>
     <row r="65" spans="1:29" ht="16.5" customHeight="1">
-      <c r="A65" s="74">
+      <c r="A65" s="97">
         <v>46</v>
       </c>
-      <c r="B65" s="74">
+      <c r="B65" s="97">
         <v>20170488</v>
       </c>
       <c r="C65" s="22">
         <v>20170488</v>
       </c>
-      <c r="D65" s="74" t="s">
+      <c r="D65" s="97" t="s">
         <v>649</v>
       </c>
       <c r="E65" s="23" t="s">
         <v>654</v>
       </c>
-      <c r="F65" s="75" t="s">
+      <c r="F65" s="98" t="s">
         <v>655</v>
       </c>
-      <c r="G65" s="74" t="s">
-        <v>31</v>
-      </c>
-      <c r="H65" s="74" t="s">
+      <c r="G65" s="97" t="s">
+        <v>31</v>
+      </c>
+      <c r="H65" s="97" t="s">
         <v>549</v>
       </c>
       <c r="I65" s="22" t="s">
@@ -31883,14 +31880,14 @@
       <c r="AC65" s="23"/>
     </row>
     <row r="66" spans="1:29" ht="16.5" customHeight="1">
-      <c r="A66" s="74"/>
-      <c r="B66" s="74"/>
+      <c r="A66" s="97"/>
+      <c r="B66" s="97"/>
       <c r="C66" s="22"/>
-      <c r="D66" s="74"/>
+      <c r="D66" s="97"/>
       <c r="E66" s="23"/>
-      <c r="F66" s="75"/>
-      <c r="G66" s="74"/>
-      <c r="H66" s="74"/>
+      <c r="F66" s="98"/>
+      <c r="G66" s="97"/>
+      <c r="H66" s="97"/>
       <c r="I66" s="22" t="s">
         <v>31</v>
       </c>
@@ -32127,28 +32124,28 @@
       <c r="AC69" s="23"/>
     </row>
     <row r="70" spans="1:29" ht="16.5" customHeight="1">
-      <c r="A70" s="74">
+      <c r="A70" s="97">
         <v>50</v>
       </c>
-      <c r="B70" s="74">
+      <c r="B70" s="97">
         <v>20180551</v>
       </c>
       <c r="C70" s="22">
         <v>20180551</v>
       </c>
-      <c r="D70" s="74" t="s">
+      <c r="D70" s="97" t="s">
         <v>649</v>
       </c>
       <c r="E70" s="23" t="s">
         <v>662</v>
       </c>
-      <c r="F70" s="75" t="s">
+      <c r="F70" s="98" t="s">
         <v>663</v>
       </c>
-      <c r="G70" s="74" t="s">
-        <v>31</v>
-      </c>
-      <c r="H70" s="74" t="s">
+      <c r="G70" s="97" t="s">
+        <v>31</v>
+      </c>
+      <c r="H70" s="97" t="s">
         <v>549</v>
       </c>
       <c r="I70" s="22" t="s">
@@ -32203,14 +32200,14 @@
       <c r="AC70" s="23"/>
     </row>
     <row r="71" spans="1:29" ht="16.5" customHeight="1">
-      <c r="A71" s="74"/>
-      <c r="B71" s="74"/>
+      <c r="A71" s="97"/>
+      <c r="B71" s="97"/>
       <c r="C71" s="22"/>
-      <c r="D71" s="74"/>
+      <c r="D71" s="97"/>
       <c r="E71" s="23"/>
-      <c r="F71" s="75"/>
-      <c r="G71" s="74"/>
-      <c r="H71" s="74"/>
+      <c r="F71" s="98"/>
+      <c r="G71" s="97"/>
+      <c r="H71" s="97"/>
       <c r="I71" s="22"/>
       <c r="J71" s="22"/>
       <c r="K71" s="22"/>
@@ -32435,28 +32432,28 @@
       <c r="AC74" s="23"/>
     </row>
     <row r="75" spans="1:29" ht="16.5" customHeight="1">
-      <c r="A75" s="74">
+      <c r="A75" s="97">
         <v>54</v>
       </c>
-      <c r="B75" s="74">
+      <c r="B75" s="97">
         <v>20160440</v>
       </c>
       <c r="C75" s="22">
         <v>20160440</v>
       </c>
-      <c r="D75" s="74" t="s">
+      <c r="D75" s="97" t="s">
         <v>670</v>
       </c>
       <c r="E75" s="23" t="s">
         <v>671</v>
       </c>
-      <c r="F75" s="75" t="s">
+      <c r="F75" s="98" t="s">
         <v>672</v>
       </c>
-      <c r="G75" s="74" t="s">
-        <v>31</v>
-      </c>
-      <c r="H75" s="74" t="s">
+      <c r="G75" s="97" t="s">
+        <v>31</v>
+      </c>
+      <c r="H75" s="97" t="s">
         <v>549</v>
       </c>
       <c r="I75" s="22" t="s">
@@ -32497,14 +32494,14 @@
       <c r="AC75" s="23"/>
     </row>
     <row r="76" spans="1:29" ht="16.5" customHeight="1">
-      <c r="A76" s="74"/>
-      <c r="B76" s="74"/>
+      <c r="A76" s="97"/>
+      <c r="B76" s="97"/>
       <c r="C76" s="22"/>
-      <c r="D76" s="74"/>
+      <c r="D76" s="97"/>
       <c r="E76" s="23"/>
-      <c r="F76" s="75"/>
-      <c r="G76" s="74"/>
-      <c r="H76" s="74"/>
+      <c r="F76" s="98"/>
+      <c r="G76" s="97"/>
+      <c r="H76" s="97"/>
       <c r="I76" s="22" t="s">
         <v>31</v>
       </c>
@@ -32675,28 +32672,28 @@
       <c r="AC78" s="23"/>
     </row>
     <row r="79" spans="1:29" ht="16.5" customHeight="1">
-      <c r="A79" s="74">
+      <c r="A79" s="97">
         <v>57</v>
       </c>
-      <c r="B79" s="74">
+      <c r="B79" s="97">
         <v>20180503</v>
       </c>
       <c r="C79" s="22">
         <v>20180503</v>
       </c>
-      <c r="D79" s="74" t="s">
+      <c r="D79" s="97" t="s">
         <v>670</v>
       </c>
       <c r="E79" s="23" t="s">
         <v>677</v>
       </c>
-      <c r="F79" s="75" t="s">
+      <c r="F79" s="98" t="s">
         <v>678</v>
       </c>
-      <c r="G79" s="74" t="s">
-        <v>31</v>
-      </c>
-      <c r="H79" s="74" t="s">
+      <c r="G79" s="97" t="s">
+        <v>31</v>
+      </c>
+      <c r="H79" s="97" t="s">
         <v>549</v>
       </c>
       <c r="I79" s="22" t="s">
@@ -32737,14 +32734,14 @@
       <c r="AC79" s="23"/>
     </row>
     <row r="80" spans="1:29" ht="16.5" customHeight="1">
-      <c r="A80" s="74"/>
-      <c r="B80" s="74"/>
+      <c r="A80" s="97"/>
+      <c r="B80" s="97"/>
       <c r="C80" s="22"/>
-      <c r="D80" s="74"/>
+      <c r="D80" s="97"/>
       <c r="E80" s="23"/>
-      <c r="F80" s="75"/>
-      <c r="G80" s="74"/>
-      <c r="H80" s="74"/>
+      <c r="F80" s="98"/>
+      <c r="G80" s="97"/>
+      <c r="H80" s="97"/>
       <c r="I80" s="22" t="s">
         <v>31</v>
       </c>
@@ -32783,14 +32780,14 @@
       <c r="AC80" s="23"/>
     </row>
     <row r="81" spans="1:29" ht="16.5" customHeight="1">
-      <c r="A81" s="74"/>
-      <c r="B81" s="74"/>
+      <c r="A81" s="97"/>
+      <c r="B81" s="97"/>
       <c r="C81" s="22"/>
-      <c r="D81" s="74"/>
+      <c r="D81" s="97"/>
       <c r="E81" s="23"/>
-      <c r="F81" s="75"/>
-      <c r="G81" s="74"/>
-      <c r="H81" s="74"/>
+      <c r="F81" s="98"/>
+      <c r="G81" s="97"/>
+      <c r="H81" s="97"/>
       <c r="I81" s="22" t="s">
         <v>31</v>
       </c>
@@ -32823,14 +32820,14 @@
       <c r="AC81" s="23"/>
     </row>
     <row r="82" spans="1:29" ht="16.5" customHeight="1">
-      <c r="A82" s="74"/>
-      <c r="B82" s="74"/>
+      <c r="A82" s="97"/>
+      <c r="B82" s="97"/>
       <c r="C82" s="22"/>
-      <c r="D82" s="74"/>
+      <c r="D82" s="97"/>
       <c r="E82" s="23"/>
-      <c r="F82" s="75"/>
-      <c r="G82" s="74"/>
-      <c r="H82" s="74"/>
+      <c r="F82" s="98"/>
+      <c r="G82" s="97"/>
+      <c r="H82" s="97"/>
       <c r="I82" s="22" t="s">
         <v>31</v>
       </c>
@@ -32863,14 +32860,14 @@
       <c r="AC82" s="23"/>
     </row>
     <row r="83" spans="1:29" ht="16.5" customHeight="1">
-      <c r="A83" s="74"/>
-      <c r="B83" s="74"/>
+      <c r="A83" s="97"/>
+      <c r="B83" s="97"/>
       <c r="C83" s="22"/>
-      <c r="D83" s="74"/>
+      <c r="D83" s="97"/>
       <c r="E83" s="23"/>
-      <c r="F83" s="75"/>
-      <c r="G83" s="74"/>
-      <c r="H83" s="74"/>
+      <c r="F83" s="98"/>
+      <c r="G83" s="97"/>
+      <c r="H83" s="97"/>
       <c r="I83" s="22" t="s">
         <v>31</v>
       </c>
@@ -32903,28 +32900,28 @@
       <c r="AC83" s="23"/>
     </row>
     <row r="84" spans="1:29" ht="16.5" customHeight="1">
-      <c r="A84" s="74">
+      <c r="A84" s="97">
         <v>58</v>
       </c>
-      <c r="B84" s="74">
+      <c r="B84" s="97">
         <v>20200648</v>
       </c>
       <c r="C84" s="22">
         <v>20200648</v>
       </c>
-      <c r="D84" s="74" t="s">
+      <c r="D84" s="97" t="s">
         <v>670</v>
       </c>
       <c r="E84" s="23" t="s">
         <v>679</v>
       </c>
-      <c r="F84" s="75" t="s">
+      <c r="F84" s="98" t="s">
         <v>680</v>
       </c>
-      <c r="G84" s="74" t="s">
-        <v>31</v>
-      </c>
-      <c r="H84" s="74" t="s">
+      <c r="G84" s="97" t="s">
+        <v>31</v>
+      </c>
+      <c r="H84" s="97" t="s">
         <v>549</v>
       </c>
       <c r="I84" s="22" t="s">
@@ -32965,14 +32962,14 @@
       <c r="AC84" s="23"/>
     </row>
     <row r="85" spans="1:29" ht="16.5" customHeight="1">
-      <c r="A85" s="74"/>
-      <c r="B85" s="74"/>
+      <c r="A85" s="97"/>
+      <c r="B85" s="97"/>
       <c r="C85" s="22"/>
-      <c r="D85" s="74"/>
+      <c r="D85" s="97"/>
       <c r="E85" s="23"/>
-      <c r="F85" s="75"/>
-      <c r="G85" s="74"/>
-      <c r="H85" s="74"/>
+      <c r="F85" s="98"/>
+      <c r="G85" s="97"/>
+      <c r="H85" s="97"/>
       <c r="I85" s="22" t="s">
         <v>31</v>
       </c>
@@ -33011,14 +33008,14 @@
       <c r="AC85" s="23"/>
     </row>
     <row r="86" spans="1:29" ht="16.5" customHeight="1">
-      <c r="A86" s="74"/>
-      <c r="B86" s="74"/>
+      <c r="A86" s="97"/>
+      <c r="B86" s="97"/>
       <c r="C86" s="22"/>
-      <c r="D86" s="74"/>
+      <c r="D86" s="97"/>
       <c r="E86" s="23"/>
-      <c r="F86" s="75"/>
-      <c r="G86" s="74"/>
-      <c r="H86" s="74"/>
+      <c r="F86" s="98"/>
+      <c r="G86" s="97"/>
+      <c r="H86" s="97"/>
       <c r="I86" s="22" t="s">
         <v>26</v>
       </c>
@@ -33057,14 +33054,14 @@
       <c r="AC86" s="23"/>
     </row>
     <row r="87" spans="1:29" ht="16.5" customHeight="1">
-      <c r="A87" s="74"/>
-      <c r="B87" s="74"/>
+      <c r="A87" s="97"/>
+      <c r="B87" s="97"/>
       <c r="C87" s="22"/>
-      <c r="D87" s="74"/>
+      <c r="D87" s="97"/>
       <c r="E87" s="23"/>
-      <c r="F87" s="75"/>
-      <c r="G87" s="74"/>
-      <c r="H87" s="74"/>
+      <c r="F87" s="98"/>
+      <c r="G87" s="97"/>
+      <c r="H87" s="97"/>
       <c r="I87" s="22" t="s">
         <v>26</v>
       </c>
@@ -33229,28 +33226,28 @@
       <c r="AC89" s="23"/>
     </row>
     <row r="90" spans="1:29" ht="16.5" customHeight="1">
-      <c r="A90" s="74">
+      <c r="A90" s="97">
         <v>61</v>
       </c>
-      <c r="B90" s="74">
+      <c r="B90" s="97">
         <v>19890005</v>
       </c>
       <c r="C90" s="22">
         <v>19890005</v>
       </c>
-      <c r="D90" s="74" t="s">
+      <c r="D90" s="97" t="s">
         <v>685</v>
       </c>
       <c r="E90" s="23" t="s">
         <v>686</v>
       </c>
-      <c r="F90" s="75" t="s">
+      <c r="F90" s="98" t="s">
         <v>687</v>
       </c>
-      <c r="G90" s="74" t="s">
-        <v>31</v>
-      </c>
-      <c r="H90" s="74" t="s">
+      <c r="G90" s="97" t="s">
+        <v>31</v>
+      </c>
+      <c r="H90" s="97" t="s">
         <v>549</v>
       </c>
       <c r="I90" s="22" t="s">
@@ -33291,14 +33288,14 @@
       <c r="AC90" s="23"/>
     </row>
     <row r="91" spans="1:29" ht="16.5" customHeight="1">
-      <c r="A91" s="74"/>
-      <c r="B91" s="74"/>
+      <c r="A91" s="97"/>
+      <c r="B91" s="97"/>
       <c r="C91" s="22"/>
-      <c r="D91" s="74"/>
+      <c r="D91" s="97"/>
       <c r="E91" s="23"/>
-      <c r="F91" s="75"/>
-      <c r="G91" s="74"/>
-      <c r="H91" s="74"/>
+      <c r="F91" s="98"/>
+      <c r="G91" s="97"/>
+      <c r="H91" s="97"/>
       <c r="I91" s="22" t="s">
         <v>26</v>
       </c>
@@ -33331,28 +33328,28 @@
       <c r="AC91" s="23"/>
     </row>
     <row r="92" spans="1:29" ht="16.5" customHeight="1">
-      <c r="A92" s="74">
+      <c r="A92" s="97">
         <v>62</v>
       </c>
-      <c r="B92" s="74">
+      <c r="B92" s="97">
         <v>19970047</v>
       </c>
       <c r="C92" s="22">
         <v>19970047</v>
       </c>
-      <c r="D92" s="74" t="s">
+      <c r="D92" s="97" t="s">
         <v>685</v>
       </c>
       <c r="E92" s="23" t="s">
         <v>688</v>
       </c>
-      <c r="F92" s="75" t="s">
+      <c r="F92" s="98" t="s">
         <v>689</v>
       </c>
-      <c r="G92" s="74" t="s">
-        <v>31</v>
-      </c>
-      <c r="H92" s="74" t="s">
+      <c r="G92" s="97" t="s">
+        <v>31</v>
+      </c>
+      <c r="H92" s="97" t="s">
         <v>549</v>
       </c>
       <c r="I92" s="22" t="s">
@@ -33399,14 +33396,14 @@
       <c r="AC92" s="23"/>
     </row>
     <row r="93" spans="1:29" ht="16.5" customHeight="1">
-      <c r="A93" s="74"/>
-      <c r="B93" s="74"/>
+      <c r="A93" s="97"/>
+      <c r="B93" s="97"/>
       <c r="C93" s="22"/>
-      <c r="D93" s="74"/>
+      <c r="D93" s="97"/>
       <c r="E93" s="23"/>
-      <c r="F93" s="75"/>
-      <c r="G93" s="74"/>
-      <c r="H93" s="74"/>
+      <c r="F93" s="98"/>
+      <c r="G93" s="97"/>
+      <c r="H93" s="97"/>
       <c r="I93" s="22" t="s">
         <v>26</v>
       </c>
@@ -33445,28 +33442,28 @@
       <c r="AC93" s="23"/>
     </row>
     <row r="94" spans="1:29" s="67" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A94" s="116">
+      <c r="A94" s="115">
         <v>63</v>
       </c>
-      <c r="B94" s="116">
+      <c r="B94" s="115">
         <v>20020060</v>
       </c>
       <c r="C94" s="64">
         <v>20020060</v>
       </c>
-      <c r="D94" s="116" t="s">
+      <c r="D94" s="115" t="s">
         <v>685</v>
       </c>
       <c r="E94" s="65" t="s">
         <v>690</v>
       </c>
-      <c r="F94" s="117" t="s">
+      <c r="F94" s="116" t="s">
         <v>691</v>
       </c>
-      <c r="G94" s="116" t="s">
-        <v>31</v>
-      </c>
-      <c r="H94" s="116" t="s">
+      <c r="G94" s="115" t="s">
+        <v>31</v>
+      </c>
+      <c r="H94" s="115" t="s">
         <v>549</v>
       </c>
       <c r="I94" s="64" t="s">
@@ -33507,14 +33504,14 @@
       <c r="AC94" s="65"/>
     </row>
     <row r="95" spans="1:29" s="67" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A95" s="116"/>
-      <c r="B95" s="116"/>
+      <c r="A95" s="115"/>
+      <c r="B95" s="115"/>
       <c r="C95" s="64"/>
-      <c r="D95" s="116"/>
+      <c r="D95" s="115"/>
       <c r="E95" s="65"/>
-      <c r="F95" s="117"/>
-      <c r="G95" s="116"/>
-      <c r="H95" s="116"/>
+      <c r="F95" s="116"/>
+      <c r="G95" s="115"/>
+      <c r="H95" s="115"/>
       <c r="I95" s="64"/>
       <c r="J95" s="66"/>
       <c r="K95" s="64"/>
@@ -33544,14 +33541,14 @@
       <c r="AC95" s="65"/>
     </row>
     <row r="96" spans="1:29" s="67" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A96" s="116"/>
-      <c r="B96" s="116"/>
+      <c r="A96" s="115"/>
+      <c r="B96" s="115"/>
       <c r="C96" s="64"/>
-      <c r="D96" s="116"/>
+      <c r="D96" s="115"/>
       <c r="E96" s="65"/>
-      <c r="F96" s="117"/>
-      <c r="G96" s="116"/>
-      <c r="H96" s="116"/>
+      <c r="F96" s="116"/>
+      <c r="G96" s="115"/>
+      <c r="H96" s="115"/>
       <c r="I96" s="66"/>
       <c r="J96" s="66"/>
       <c r="K96" s="64"/>
@@ -33641,28 +33638,28 @@
       <c r="AC97" s="23"/>
     </row>
     <row r="98" spans="1:29" ht="16.5" customHeight="1">
-      <c r="A98" s="74">
+      <c r="A98" s="97">
         <v>65</v>
       </c>
-      <c r="B98" s="74">
+      <c r="B98" s="97">
         <v>20140284</v>
       </c>
       <c r="C98" s="22">
         <v>20140284</v>
       </c>
-      <c r="D98" s="74" t="s">
+      <c r="D98" s="97" t="s">
         <v>685</v>
       </c>
       <c r="E98" s="23" t="s">
         <v>694</v>
       </c>
-      <c r="F98" s="75" t="s">
+      <c r="F98" s="98" t="s">
         <v>695</v>
       </c>
-      <c r="G98" s="74" t="s">
-        <v>31</v>
-      </c>
-      <c r="H98" s="74" t="s">
+      <c r="G98" s="97" t="s">
+        <v>31</v>
+      </c>
+      <c r="H98" s="97" t="s">
         <v>549</v>
       </c>
       <c r="I98" s="22" t="s">
@@ -33717,14 +33714,14 @@
       <c r="AC98" s="23"/>
     </row>
     <row r="99" spans="1:29" ht="16.5" customHeight="1">
-      <c r="A99" s="74"/>
-      <c r="B99" s="74"/>
+      <c r="A99" s="97"/>
+      <c r="B99" s="97"/>
       <c r="C99" s="22"/>
-      <c r="D99" s="74"/>
+      <c r="D99" s="97"/>
       <c r="E99" s="23"/>
-      <c r="F99" s="75"/>
-      <c r="G99" s="74"/>
-      <c r="H99" s="74"/>
+      <c r="F99" s="98"/>
+      <c r="G99" s="97"/>
+      <c r="H99" s="97"/>
       <c r="I99" s="22" t="s">
         <v>31</v>
       </c>
@@ -34019,28 +34016,28 @@
       <c r="AC103" s="23"/>
     </row>
     <row r="104" spans="1:29" ht="16.5" customHeight="1">
-      <c r="A104" s="74">
+      <c r="A104" s="97">
         <v>70</v>
       </c>
-      <c r="B104" s="74">
+      <c r="B104" s="97">
         <v>20160375</v>
       </c>
       <c r="C104" s="22">
         <v>20160375</v>
       </c>
-      <c r="D104" s="74" t="s">
+      <c r="D104" s="97" t="s">
         <v>245</v>
       </c>
       <c r="E104" s="23" t="s">
         <v>705</v>
       </c>
-      <c r="F104" s="74" t="s">
+      <c r="F104" s="97" t="s">
         <v>706</v>
       </c>
-      <c r="G104" s="74" t="s">
-        <v>31</v>
-      </c>
-      <c r="H104" s="74" t="s">
+      <c r="G104" s="97" t="s">
+        <v>31</v>
+      </c>
+      <c r="H104" s="97" t="s">
         <v>549</v>
       </c>
       <c r="I104" s="22" t="s">
@@ -34085,14 +34082,14 @@
       <c r="AC104" s="23"/>
     </row>
     <row r="105" spans="1:29" ht="16.5" customHeight="1">
-      <c r="A105" s="74"/>
-      <c r="B105" s="74"/>
+      <c r="A105" s="97"/>
+      <c r="B105" s="97"/>
       <c r="C105" s="22"/>
-      <c r="D105" s="74"/>
+      <c r="D105" s="97"/>
       <c r="E105" s="23"/>
-      <c r="F105" s="74"/>
-      <c r="G105" s="74"/>
-      <c r="H105" s="74"/>
+      <c r="F105" s="97"/>
+      <c r="G105" s="97"/>
+      <c r="H105" s="97"/>
       <c r="I105" s="22" t="s">
         <v>31</v>
       </c>
@@ -34131,14 +34128,14 @@
       <c r="AC105" s="23"/>
     </row>
     <row r="106" spans="1:29" ht="16.5" customHeight="1">
-      <c r="A106" s="74"/>
-      <c r="B106" s="74"/>
+      <c r="A106" s="97"/>
+      <c r="B106" s="97"/>
       <c r="C106" s="22"/>
-      <c r="D106" s="74"/>
+      <c r="D106" s="97"/>
       <c r="E106" s="23"/>
-      <c r="F106" s="74"/>
-      <c r="G106" s="74"/>
-      <c r="H106" s="74"/>
+      <c r="F106" s="97"/>
+      <c r="G106" s="97"/>
+      <c r="H106" s="97"/>
       <c r="I106" s="22" t="s">
         <v>31</v>
       </c>
@@ -34645,25 +34642,25 @@
       <c r="AC113" s="23"/>
     </row>
     <row r="114" spans="1:29" ht="16.5" customHeight="1">
-      <c r="A114" s="74">
+      <c r="A114" s="97">
         <v>78</v>
       </c>
-      <c r="B114" s="74">
+      <c r="B114" s="97">
         <v>20210761</v>
       </c>
       <c r="C114" s="22">
         <v>20210761</v>
       </c>
-      <c r="D114" s="74" t="s">
+      <c r="D114" s="97" t="s">
         <v>711</v>
       </c>
       <c r="E114" s="23" t="s">
         <v>723</v>
       </c>
-      <c r="F114" s="75" t="s">
+      <c r="F114" s="98" t="s">
         <v>724</v>
       </c>
-      <c r="G114" s="74" t="s">
+      <c r="G114" s="97" t="s">
         <v>26</v>
       </c>
       <c r="H114" s="22" t="s">
@@ -34717,13 +34714,13 @@
       <c r="AC114" s="23"/>
     </row>
     <row r="115" spans="1:29" ht="16.5" customHeight="1">
-      <c r="A115" s="74"/>
-      <c r="B115" s="74"/>
+      <c r="A115" s="97"/>
+      <c r="B115" s="97"/>
       <c r="C115" s="22"/>
-      <c r="D115" s="74"/>
+      <c r="D115" s="97"/>
       <c r="E115" s="23"/>
-      <c r="F115" s="75"/>
-      <c r="G115" s="74"/>
+      <c r="F115" s="98"/>
+      <c r="G115" s="97"/>
       <c r="H115" s="22"/>
       <c r="I115" s="22" t="s">
         <v>26</v>
@@ -35103,28 +35100,28 @@
       <c r="AC120" s="23"/>
     </row>
     <row r="121" spans="1:29" ht="16.5" customHeight="1">
-      <c r="A121" s="74">
+      <c r="A121" s="97">
         <v>84</v>
       </c>
-      <c r="B121" s="74">
+      <c r="B121" s="97">
         <v>20080110</v>
       </c>
       <c r="C121" s="22">
         <v>20080110</v>
       </c>
-      <c r="D121" s="74" t="s">
+      <c r="D121" s="97" t="s">
         <v>731</v>
       </c>
       <c r="E121" s="23" t="s">
         <v>736</v>
       </c>
-      <c r="F121" s="74" t="s">
+      <c r="F121" s="97" t="s">
         <v>737</v>
       </c>
-      <c r="G121" s="74" t="s">
-        <v>31</v>
-      </c>
-      <c r="H121" s="74" t="s">
+      <c r="G121" s="97" t="s">
+        <v>31</v>
+      </c>
+      <c r="H121" s="97" t="s">
         <v>549</v>
       </c>
       <c r="I121" s="22" t="s">
@@ -35165,14 +35162,14 @@
       <c r="AC121" s="23"/>
     </row>
     <row r="122" spans="1:29" ht="16.5" customHeight="1">
-      <c r="A122" s="74"/>
-      <c r="B122" s="74"/>
+      <c r="A122" s="97"/>
+      <c r="B122" s="97"/>
       <c r="C122" s="22"/>
-      <c r="D122" s="74"/>
+      <c r="D122" s="97"/>
       <c r="E122" s="23"/>
-      <c r="F122" s="74"/>
-      <c r="G122" s="74"/>
-      <c r="H122" s="74"/>
+      <c r="F122" s="97"/>
+      <c r="G122" s="97"/>
+      <c r="H122" s="97"/>
       <c r="I122" s="24"/>
       <c r="J122" s="24"/>
       <c r="K122" s="22"/>
@@ -35205,14 +35202,14 @@
       <c r="AC122" s="23"/>
     </row>
     <row r="123" spans="1:29" ht="16.5" customHeight="1">
-      <c r="A123" s="74"/>
-      <c r="B123" s="74"/>
+      <c r="A123" s="97"/>
+      <c r="B123" s="97"/>
       <c r="C123" s="22"/>
-      <c r="D123" s="74"/>
+      <c r="D123" s="97"/>
       <c r="E123" s="23"/>
-      <c r="F123" s="74"/>
-      <c r="G123" s="74"/>
-      <c r="H123" s="74"/>
+      <c r="F123" s="97"/>
+      <c r="G123" s="97"/>
+      <c r="H123" s="97"/>
       <c r="I123" s="24"/>
       <c r="J123" s="24"/>
       <c r="K123" s="22"/>
@@ -35245,14 +35242,14 @@
       <c r="AC123" s="23"/>
     </row>
     <row r="124" spans="1:29" ht="16.5" customHeight="1">
-      <c r="A124" s="74"/>
-      <c r="B124" s="74"/>
+      <c r="A124" s="97"/>
+      <c r="B124" s="97"/>
       <c r="C124" s="22"/>
-      <c r="D124" s="74"/>
+      <c r="D124" s="97"/>
       <c r="E124" s="23"/>
-      <c r="F124" s="74"/>
-      <c r="G124" s="74"/>
-      <c r="H124" s="74"/>
+      <c r="F124" s="97"/>
+      <c r="G124" s="97"/>
+      <c r="H124" s="97"/>
       <c r="I124" s="24"/>
       <c r="J124" s="24"/>
       <c r="K124" s="22"/>
@@ -35285,28 +35282,28 @@
       <c r="AC124" s="23"/>
     </row>
     <row r="125" spans="1:29" ht="16.5" customHeight="1">
-      <c r="A125" s="74">
+      <c r="A125" s="97">
         <v>85</v>
       </c>
-      <c r="B125" s="74">
+      <c r="B125" s="97">
         <v>20110151</v>
       </c>
       <c r="C125" s="22">
         <v>20110151</v>
       </c>
-      <c r="D125" s="74" t="s">
+      <c r="D125" s="97" t="s">
         <v>731</v>
       </c>
       <c r="E125" s="23" t="s">
         <v>738</v>
       </c>
-      <c r="F125" s="75" t="s">
+      <c r="F125" s="98" t="s">
         <v>739</v>
       </c>
-      <c r="G125" s="74" t="s">
-        <v>31</v>
-      </c>
-      <c r="H125" s="74" t="s">
+      <c r="G125" s="97" t="s">
+        <v>31</v>
+      </c>
+      <c r="H125" s="97" t="s">
         <v>549</v>
       </c>
       <c r="I125" s="22" t="s">
@@ -35347,14 +35344,14 @@
       <c r="AC125" s="23"/>
     </row>
     <row r="126" spans="1:29" ht="16.5" customHeight="1">
-      <c r="A126" s="74"/>
-      <c r="B126" s="74"/>
+      <c r="A126" s="97"/>
+      <c r="B126" s="97"/>
       <c r="C126" s="22"/>
-      <c r="D126" s="74"/>
+      <c r="D126" s="97"/>
       <c r="E126" s="23"/>
-      <c r="F126" s="75"/>
-      <c r="G126" s="74"/>
-      <c r="H126" s="74"/>
+      <c r="F126" s="98"/>
+      <c r="G126" s="97"/>
+      <c r="H126" s="97"/>
       <c r="I126" s="22" t="s">
         <v>31</v>
       </c>
@@ -35397,28 +35394,28 @@
       <c r="AC126" s="23"/>
     </row>
     <row r="127" spans="1:29" ht="16.5" customHeight="1">
-      <c r="A127" s="74">
+      <c r="A127" s="97">
         <v>86</v>
       </c>
-      <c r="B127" s="74">
+      <c r="B127" s="97">
         <v>20110152</v>
       </c>
       <c r="C127" s="22">
         <v>20110152</v>
       </c>
-      <c r="D127" s="74" t="s">
+      <c r="D127" s="97" t="s">
         <v>731</v>
       </c>
       <c r="E127" s="23" t="s">
         <v>740</v>
       </c>
-      <c r="F127" s="75" t="s">
+      <c r="F127" s="98" t="s">
         <v>741</v>
       </c>
-      <c r="G127" s="74" t="s">
-        <v>31</v>
-      </c>
-      <c r="H127" s="74" t="s">
+      <c r="G127" s="97" t="s">
+        <v>31</v>
+      </c>
+      <c r="H127" s="97" t="s">
         <v>549</v>
       </c>
       <c r="I127" s="22" t="s">
@@ -35457,14 +35454,14 @@
       <c r="AC127" s="23"/>
     </row>
     <row r="128" spans="1:29" ht="16.5" customHeight="1">
-      <c r="A128" s="74"/>
-      <c r="B128" s="74"/>
+      <c r="A128" s="97"/>
+      <c r="B128" s="97"/>
       <c r="C128" s="22"/>
-      <c r="D128" s="74"/>
+      <c r="D128" s="97"/>
       <c r="E128" s="23"/>
-      <c r="F128" s="75"/>
-      <c r="G128" s="74"/>
-      <c r="H128" s="74"/>
+      <c r="F128" s="98"/>
+      <c r="G128" s="97"/>
+      <c r="H128" s="97"/>
       <c r="I128" s="22" t="s">
         <v>31</v>
       </c>
@@ -35497,28 +35494,28 @@
       <c r="AC128" s="23"/>
     </row>
     <row r="129" spans="1:29" ht="16.5" customHeight="1">
-      <c r="A129" s="74">
+      <c r="A129" s="97">
         <v>87</v>
       </c>
-      <c r="B129" s="74">
+      <c r="B129" s="97">
         <v>20160362</v>
       </c>
       <c r="C129" s="22">
         <v>20160362</v>
       </c>
-      <c r="D129" s="74" t="s">
+      <c r="D129" s="97" t="s">
         <v>731</v>
       </c>
       <c r="E129" s="23" t="s">
         <v>742</v>
       </c>
-      <c r="F129" s="75" t="s">
+      <c r="F129" s="98" t="s">
         <v>743</v>
       </c>
-      <c r="G129" s="74" t="s">
-        <v>31</v>
-      </c>
-      <c r="H129" s="74" t="s">
+      <c r="G129" s="97" t="s">
+        <v>31</v>
+      </c>
+      <c r="H129" s="97" t="s">
         <v>549</v>
       </c>
       <c r="I129" s="22" t="s">
@@ -35569,14 +35566,14 @@
       <c r="AC129" s="23"/>
     </row>
     <row r="130" spans="1:29" ht="16.5" customHeight="1">
-      <c r="A130" s="74"/>
-      <c r="B130" s="74"/>
+      <c r="A130" s="97"/>
+      <c r="B130" s="97"/>
       <c r="C130" s="22"/>
-      <c r="D130" s="74"/>
+      <c r="D130" s="97"/>
       <c r="E130" s="23"/>
-      <c r="F130" s="75"/>
-      <c r="G130" s="74"/>
-      <c r="H130" s="74"/>
+      <c r="F130" s="98"/>
+      <c r="G130" s="97"/>
+      <c r="H130" s="97"/>
       <c r="I130" s="22" t="s">
         <v>31</v>
       </c>
@@ -35615,28 +35612,28 @@
       <c r="AC130" s="23"/>
     </row>
     <row r="131" spans="1:29" ht="16.5" customHeight="1">
-      <c r="A131" s="74">
+      <c r="A131" s="97">
         <v>88</v>
       </c>
-      <c r="B131" s="74">
+      <c r="B131" s="97">
         <v>20180499</v>
       </c>
       <c r="C131" s="22">
         <v>20180499</v>
       </c>
-      <c r="D131" s="74" t="s">
+      <c r="D131" s="97" t="s">
         <v>731</v>
       </c>
       <c r="E131" s="23" t="s">
         <v>744</v>
       </c>
-      <c r="F131" s="74" t="s">
+      <c r="F131" s="97" t="s">
         <v>745</v>
       </c>
-      <c r="G131" s="74" t="s">
-        <v>31</v>
-      </c>
-      <c r="H131" s="74" t="s">
+      <c r="G131" s="97" t="s">
+        <v>31</v>
+      </c>
+      <c r="H131" s="97" t="s">
         <v>549</v>
       </c>
       <c r="I131" s="22" t="s">
@@ -35677,14 +35674,14 @@
       <c r="AC131" s="23"/>
     </row>
     <row r="132" spans="1:29" ht="16.5" customHeight="1">
-      <c r="A132" s="74"/>
-      <c r="B132" s="74"/>
+      <c r="A132" s="97"/>
+      <c r="B132" s="97"/>
       <c r="C132" s="22"/>
-      <c r="D132" s="74"/>
+      <c r="D132" s="97"/>
       <c r="E132" s="23"/>
-      <c r="F132" s="74"/>
-      <c r="G132" s="74"/>
-      <c r="H132" s="74"/>
+      <c r="F132" s="97"/>
+      <c r="G132" s="97"/>
+      <c r="H132" s="97"/>
       <c r="I132" s="22" t="s">
         <v>31</v>
       </c>
@@ -36635,28 +36632,28 @@
       <c r="AC145" s="65"/>
     </row>
     <row r="146" spans="1:29" ht="16.5" customHeight="1">
-      <c r="A146" s="74">
+      <c r="A146" s="97">
         <v>102</v>
       </c>
-      <c r="B146" s="74">
+      <c r="B146" s="97">
         <v>20090128</v>
       </c>
       <c r="C146" s="22">
         <v>20090128</v>
       </c>
-      <c r="D146" s="74" t="s">
+      <c r="D146" s="97" t="s">
         <v>775</v>
       </c>
       <c r="E146" s="23" t="s">
         <v>776</v>
       </c>
-      <c r="F146" s="75" t="s">
+      <c r="F146" s="98" t="s">
         <v>777</v>
       </c>
-      <c r="G146" s="74" t="s">
-        <v>31</v>
-      </c>
-      <c r="H146" s="74" t="s">
+      <c r="G146" s="97" t="s">
+        <v>31</v>
+      </c>
+      <c r="H146" s="97" t="s">
         <v>549</v>
       </c>
       <c r="I146" s="22" t="s">
@@ -36701,14 +36698,14 @@
       <c r="AC146" s="23"/>
     </row>
     <row r="147" spans="1:29" ht="16.5" customHeight="1">
-      <c r="A147" s="74"/>
-      <c r="B147" s="74"/>
+      <c r="A147" s="97"/>
+      <c r="B147" s="97"/>
       <c r="C147" s="22"/>
-      <c r="D147" s="74"/>
+      <c r="D147" s="97"/>
       <c r="E147" s="23"/>
-      <c r="F147" s="75"/>
-      <c r="G147" s="74"/>
-      <c r="H147" s="74"/>
+      <c r="F147" s="98"/>
+      <c r="G147" s="97"/>
+      <c r="H147" s="97"/>
       <c r="I147" s="22" t="s">
         <v>26</v>
       </c>
@@ -36747,28 +36744,28 @@
       <c r="AC147" s="23"/>
     </row>
     <row r="148" spans="1:29" ht="16.5" customHeight="1">
-      <c r="A148" s="74">
+      <c r="A148" s="97">
         <v>103</v>
       </c>
-      <c r="B148" s="115">
+      <c r="B148" s="117">
         <v>20200693</v>
       </c>
       <c r="C148" s="22">
         <v>20200693</v>
       </c>
-      <c r="D148" s="74" t="s">
+      <c r="D148" s="97" t="s">
         <v>775</v>
       </c>
       <c r="E148" s="23" t="s">
         <v>778</v>
       </c>
-      <c r="F148" s="75" t="s">
+      <c r="F148" s="98" t="s">
         <v>779</v>
       </c>
-      <c r="G148" s="74" t="s">
-        <v>31</v>
-      </c>
-      <c r="H148" s="74" t="s">
+      <c r="G148" s="97" t="s">
+        <v>31</v>
+      </c>
+      <c r="H148" s="97" t="s">
         <v>549</v>
       </c>
       <c r="I148" s="22" t="s">
@@ -36809,14 +36806,14 @@
       <c r="AC148" s="23"/>
     </row>
     <row r="149" spans="1:29" ht="16.5" customHeight="1">
-      <c r="A149" s="74"/>
-      <c r="B149" s="115"/>
+      <c r="A149" s="97"/>
+      <c r="B149" s="117"/>
       <c r="C149" s="22"/>
-      <c r="D149" s="74"/>
+      <c r="D149" s="97"/>
       <c r="E149" s="23"/>
-      <c r="F149" s="75"/>
-      <c r="G149" s="74"/>
-      <c r="H149" s="74"/>
+      <c r="F149" s="98"/>
+      <c r="G149" s="97"/>
+      <c r="H149" s="97"/>
       <c r="I149" s="22" t="s">
         <v>31</v>
       </c>
@@ -36849,14 +36846,14 @@
       <c r="AC149" s="23"/>
     </row>
     <row r="150" spans="1:29" ht="16.5" customHeight="1">
-      <c r="A150" s="74"/>
-      <c r="B150" s="115"/>
+      <c r="A150" s="97"/>
+      <c r="B150" s="117"/>
       <c r="C150" s="22"/>
-      <c r="D150" s="74"/>
+      <c r="D150" s="97"/>
       <c r="E150" s="23"/>
-      <c r="F150" s="75"/>
-      <c r="G150" s="74"/>
-      <c r="H150" s="74"/>
+      <c r="F150" s="98"/>
+      <c r="G150" s="97"/>
+      <c r="H150" s="97"/>
       <c r="I150" s="22" t="s">
         <v>26</v>
       </c>
@@ -37021,28 +37018,28 @@
       </c>
     </row>
     <row r="153" spans="1:29" ht="16.5" customHeight="1">
-      <c r="A153" s="74">
+      <c r="A153" s="97">
         <v>106</v>
       </c>
-      <c r="B153" s="74">
+      <c r="B153" s="97">
         <v>20050085</v>
       </c>
       <c r="C153" s="22">
         <v>20050085</v>
       </c>
-      <c r="D153" s="74" t="s">
+      <c r="D153" s="97" t="s">
         <v>786</v>
       </c>
       <c r="E153" s="23" t="s">
         <v>787</v>
       </c>
-      <c r="F153" s="75" t="s">
+      <c r="F153" s="98" t="s">
         <v>788</v>
       </c>
-      <c r="G153" s="74" t="s">
-        <v>26</v>
-      </c>
-      <c r="H153" s="74" t="s">
+      <c r="G153" s="97" t="s">
+        <v>26</v>
+      </c>
+      <c r="H153" s="97" t="s">
         <v>549</v>
       </c>
       <c r="I153" s="22"/>
@@ -37081,14 +37078,14 @@
       <c r="AC153" s="23"/>
     </row>
     <row r="154" spans="1:29" ht="16.5" customHeight="1">
-      <c r="A154" s="74"/>
-      <c r="B154" s="74"/>
+      <c r="A154" s="97"/>
+      <c r="B154" s="97"/>
       <c r="C154" s="22"/>
-      <c r="D154" s="74"/>
+      <c r="D154" s="97"/>
       <c r="E154" s="23"/>
-      <c r="F154" s="75"/>
-      <c r="G154" s="74"/>
-      <c r="H154" s="74"/>
+      <c r="F154" s="98"/>
+      <c r="G154" s="97"/>
+      <c r="H154" s="97"/>
       <c r="I154" s="22"/>
       <c r="J154" s="22"/>
       <c r="K154" s="22"/>
@@ -37173,28 +37170,28 @@
       </c>
     </row>
     <row r="156" spans="1:29" ht="16.5" customHeight="1">
-      <c r="A156" s="74">
+      <c r="A156" s="97">
         <v>108</v>
       </c>
-      <c r="B156" s="74">
+      <c r="B156" s="97">
         <v>19920023</v>
       </c>
       <c r="C156" s="22">
         <v>19920023</v>
       </c>
-      <c r="D156" s="74" t="s">
+      <c r="D156" s="97" t="s">
         <v>792</v>
       </c>
       <c r="E156" s="23" t="s">
         <v>793</v>
       </c>
-      <c r="F156" s="75" t="s">
+      <c r="F156" s="98" t="s">
         <v>794</v>
       </c>
-      <c r="G156" s="74" t="s">
-        <v>31</v>
-      </c>
-      <c r="H156" s="74" t="s">
+      <c r="G156" s="97" t="s">
+        <v>31</v>
+      </c>
+      <c r="H156" s="97" t="s">
         <v>549</v>
       </c>
       <c r="I156" s="22" t="s">
@@ -37235,14 +37232,14 @@
       <c r="AC156" s="23"/>
     </row>
     <row r="157" spans="1:29" ht="16.5" customHeight="1">
-      <c r="A157" s="74"/>
-      <c r="B157" s="74"/>
+      <c r="A157" s="97"/>
+      <c r="B157" s="97"/>
       <c r="C157" s="22"/>
-      <c r="D157" s="74"/>
+      <c r="D157" s="97"/>
       <c r="E157" s="23"/>
-      <c r="F157" s="75"/>
-      <c r="G157" s="74"/>
-      <c r="H157" s="74"/>
+      <c r="F157" s="98"/>
+      <c r="G157" s="97"/>
+      <c r="H157" s="97"/>
       <c r="I157" s="22" t="s">
         <v>31</v>
       </c>
@@ -37281,14 +37278,14 @@
       <c r="AC157" s="23"/>
     </row>
     <row r="158" spans="1:29" ht="16.5" customHeight="1">
-      <c r="A158" s="74"/>
-      <c r="B158" s="74"/>
+      <c r="A158" s="97"/>
+      <c r="B158" s="97"/>
       <c r="C158" s="22"/>
-      <c r="D158" s="74"/>
+      <c r="D158" s="97"/>
       <c r="E158" s="23"/>
-      <c r="F158" s="75"/>
-      <c r="G158" s="74"/>
-      <c r="H158" s="74"/>
+      <c r="F158" s="98"/>
+      <c r="G158" s="97"/>
+      <c r="H158" s="97"/>
       <c r="I158" s="22"/>
       <c r="J158" s="22"/>
       <c r="K158" s="22"/>
@@ -37321,14 +37318,14 @@
       <c r="AC158" s="23"/>
     </row>
     <row r="159" spans="1:29" ht="16.5" customHeight="1">
-      <c r="A159" s="74"/>
-      <c r="B159" s="74"/>
+      <c r="A159" s="97"/>
+      <c r="B159" s="97"/>
       <c r="C159" s="22"/>
-      <c r="D159" s="74"/>
+      <c r="D159" s="97"/>
       <c r="E159" s="23"/>
-      <c r="F159" s="75"/>
-      <c r="G159" s="74"/>
-      <c r="H159" s="74"/>
+      <c r="F159" s="98"/>
+      <c r="G159" s="97"/>
+      <c r="H159" s="97"/>
       <c r="I159" s="22"/>
       <c r="J159" s="22"/>
       <c r="K159" s="22"/>
@@ -37361,14 +37358,14 @@
       <c r="AC159" s="23"/>
     </row>
     <row r="160" spans="1:29" ht="16.5" customHeight="1">
-      <c r="A160" s="74"/>
-      <c r="B160" s="74"/>
+      <c r="A160" s="97"/>
+      <c r="B160" s="97"/>
       <c r="C160" s="22"/>
-      <c r="D160" s="74"/>
+      <c r="D160" s="97"/>
       <c r="E160" s="23"/>
-      <c r="F160" s="75"/>
-      <c r="G160" s="74"/>
-      <c r="H160" s="74"/>
+      <c r="F160" s="98"/>
+      <c r="G160" s="97"/>
+      <c r="H160" s="97"/>
       <c r="I160" s="22"/>
       <c r="J160" s="22"/>
       <c r="K160" s="22"/>
@@ -37401,28 +37398,28 @@
       <c r="AC160" s="23"/>
     </row>
     <row r="161" spans="1:29" ht="16.5" customHeight="1">
-      <c r="A161" s="74">
+      <c r="A161" s="97">
         <v>109</v>
       </c>
-      <c r="B161" s="74">
+      <c r="B161" s="97">
         <v>20040074</v>
       </c>
       <c r="C161" s="22">
         <v>20040074</v>
       </c>
-      <c r="D161" s="74" t="s">
+      <c r="D161" s="97" t="s">
         <v>792</v>
       </c>
       <c r="E161" s="23" t="s">
         <v>795</v>
       </c>
-      <c r="F161" s="75" t="s">
+      <c r="F161" s="98" t="s">
         <v>796</v>
       </c>
-      <c r="G161" s="74" t="s">
-        <v>31</v>
-      </c>
-      <c r="H161" s="74" t="s">
+      <c r="G161" s="97" t="s">
+        <v>31</v>
+      </c>
+      <c r="H161" s="97" t="s">
         <v>549</v>
       </c>
       <c r="I161" s="22" t="s">
@@ -37477,14 +37474,14 @@
       <c r="AC161" s="23"/>
     </row>
     <row r="162" spans="1:29" ht="16.5" customHeight="1">
-      <c r="A162" s="74"/>
-      <c r="B162" s="74"/>
+      <c r="A162" s="97"/>
+      <c r="B162" s="97"/>
       <c r="C162" s="22"/>
-      <c r="D162" s="74"/>
+      <c r="D162" s="97"/>
       <c r="E162" s="23"/>
-      <c r="F162" s="75"/>
-      <c r="G162" s="74"/>
-      <c r="H162" s="74"/>
+      <c r="F162" s="98"/>
+      <c r="G162" s="97"/>
+      <c r="H162" s="97"/>
       <c r="I162" s="22" t="s">
         <v>26</v>
       </c>
@@ -37523,28 +37520,28 @@
       <c r="AC162" s="23"/>
     </row>
     <row r="163" spans="1:29" ht="16.5" customHeight="1">
-      <c r="A163" s="74">
+      <c r="A163" s="97">
         <v>110</v>
       </c>
-      <c r="B163" s="74">
+      <c r="B163" s="97">
         <v>20050077</v>
       </c>
       <c r="C163" s="22">
         <v>20050077</v>
       </c>
-      <c r="D163" s="74" t="s">
+      <c r="D163" s="97" t="s">
         <v>792</v>
       </c>
       <c r="E163" s="23" t="s">
         <v>797</v>
       </c>
-      <c r="F163" s="75" t="s">
+      <c r="F163" s="98" t="s">
         <v>798</v>
       </c>
-      <c r="G163" s="74" t="s">
-        <v>31</v>
-      </c>
-      <c r="H163" s="74" t="s">
+      <c r="G163" s="97" t="s">
+        <v>31</v>
+      </c>
+      <c r="H163" s="97" t="s">
         <v>549</v>
       </c>
       <c r="I163" s="22" t="s">
@@ -37589,14 +37586,14 @@
       <c r="AC163" s="23"/>
     </row>
     <row r="164" spans="1:29" ht="16.5" customHeight="1">
-      <c r="A164" s="74"/>
-      <c r="B164" s="74"/>
+      <c r="A164" s="97"/>
+      <c r="B164" s="97"/>
       <c r="C164" s="22"/>
-      <c r="D164" s="74"/>
+      <c r="D164" s="97"/>
       <c r="E164" s="23"/>
-      <c r="F164" s="75"/>
-      <c r="G164" s="74"/>
-      <c r="H164" s="74"/>
+      <c r="F164" s="98"/>
+      <c r="G164" s="97"/>
+      <c r="H164" s="97"/>
       <c r="I164" s="22" t="s">
         <v>26</v>
       </c>
@@ -37629,14 +37626,14 @@
       <c r="AC164" s="23"/>
     </row>
     <row r="165" spans="1:29" ht="16.5" customHeight="1">
-      <c r="A165" s="74"/>
-      <c r="B165" s="74"/>
+      <c r="A165" s="97"/>
+      <c r="B165" s="97"/>
       <c r="C165" s="22"/>
-      <c r="D165" s="74"/>
+      <c r="D165" s="97"/>
       <c r="E165" s="23"/>
-      <c r="F165" s="75"/>
-      <c r="G165" s="74"/>
-      <c r="H165" s="74"/>
+      <c r="F165" s="98"/>
+      <c r="G165" s="97"/>
+      <c r="H165" s="97"/>
       <c r="I165" s="22" t="s">
         <v>31</v>
       </c>
@@ -37669,28 +37666,28 @@
       <c r="AC165" s="23"/>
     </row>
     <row r="166" spans="1:29" ht="16.5" customHeight="1">
-      <c r="A166" s="74">
+      <c r="A166" s="97">
         <v>111</v>
       </c>
-      <c r="B166" s="74">
+      <c r="B166" s="97">
         <v>20080118</v>
       </c>
       <c r="C166" s="22">
         <v>20080118</v>
       </c>
-      <c r="D166" s="74" t="s">
+      <c r="D166" s="97" t="s">
         <v>792</v>
       </c>
       <c r="E166" s="23" t="s">
         <v>799</v>
       </c>
-      <c r="F166" s="75" t="s">
+      <c r="F166" s="98" t="s">
         <v>800</v>
       </c>
-      <c r="G166" s="74" t="s">
-        <v>31</v>
-      </c>
-      <c r="H166" s="74" t="s">
+      <c r="G166" s="97" t="s">
+        <v>31</v>
+      </c>
+      <c r="H166" s="97" t="s">
         <v>549</v>
       </c>
       <c r="I166" s="22" t="s">
@@ -37729,14 +37726,14 @@
       <c r="AC166" s="23"/>
     </row>
     <row r="167" spans="1:29" ht="16.5" customHeight="1">
-      <c r="A167" s="74"/>
-      <c r="B167" s="74"/>
+      <c r="A167" s="97"/>
+      <c r="B167" s="97"/>
       <c r="C167" s="22"/>
-      <c r="D167" s="74"/>
+      <c r="D167" s="97"/>
       <c r="E167" s="23"/>
-      <c r="F167" s="75"/>
-      <c r="G167" s="74"/>
-      <c r="H167" s="74"/>
+      <c r="F167" s="98"/>
+      <c r="G167" s="97"/>
+      <c r="H167" s="97"/>
       <c r="I167" s="22" t="s">
         <v>26</v>
       </c>
@@ -37769,14 +37766,14 @@
       <c r="AC167" s="23"/>
     </row>
     <row r="168" spans="1:29" ht="16.5" customHeight="1">
-      <c r="A168" s="74"/>
-      <c r="B168" s="74"/>
+      <c r="A168" s="97"/>
+      <c r="B168" s="97"/>
       <c r="C168" s="22"/>
-      <c r="D168" s="74"/>
+      <c r="D168" s="97"/>
       <c r="E168" s="23"/>
-      <c r="F168" s="75"/>
-      <c r="G168" s="74"/>
-      <c r="H168" s="74"/>
+      <c r="F168" s="98"/>
+      <c r="G168" s="97"/>
+      <c r="H168" s="97"/>
       <c r="I168" s="22" t="s">
         <v>26</v>
       </c>
@@ -37809,28 +37806,28 @@
       <c r="AC168" s="23"/>
     </row>
     <row r="169" spans="1:29" ht="16.5" customHeight="1">
-      <c r="A169" s="74">
+      <c r="A169" s="97">
         <v>112</v>
       </c>
-      <c r="B169" s="74">
+      <c r="B169" s="97">
         <v>20110144</v>
       </c>
       <c r="C169" s="22">
         <v>20110144</v>
       </c>
-      <c r="D169" s="74" t="s">
+      <c r="D169" s="97" t="s">
         <v>792</v>
       </c>
       <c r="E169" s="23" t="s">
         <v>801</v>
       </c>
-      <c r="F169" s="75" t="s">
+      <c r="F169" s="98" t="s">
         <v>802</v>
       </c>
-      <c r="G169" s="74" t="s">
-        <v>31</v>
-      </c>
-      <c r="H169" s="74" t="s">
+      <c r="G169" s="97" t="s">
+        <v>31</v>
+      </c>
+      <c r="H169" s="97" t="s">
         <v>549</v>
       </c>
       <c r="I169" s="22" t="s">
@@ -37871,14 +37868,14 @@
       <c r="AC169" s="23"/>
     </row>
     <row r="170" spans="1:29" ht="16.5" customHeight="1">
-      <c r="A170" s="74"/>
-      <c r="B170" s="74"/>
+      <c r="A170" s="97"/>
+      <c r="B170" s="97"/>
       <c r="C170" s="22"/>
-      <c r="D170" s="74"/>
+      <c r="D170" s="97"/>
       <c r="E170" s="23"/>
-      <c r="F170" s="75"/>
-      <c r="G170" s="74"/>
-      <c r="H170" s="74"/>
+      <c r="F170" s="98"/>
+      <c r="G170" s="97"/>
+      <c r="H170" s="97"/>
       <c r="I170" s="22"/>
       <c r="J170" s="22"/>
       <c r="K170" s="22"/>
@@ -37911,14 +37908,14 @@
       <c r="AC170" s="23"/>
     </row>
     <row r="171" spans="1:29" ht="16.5" customHeight="1">
-      <c r="A171" s="74"/>
-      <c r="B171" s="74"/>
+      <c r="A171" s="97"/>
+      <c r="B171" s="97"/>
       <c r="C171" s="22"/>
-      <c r="D171" s="74"/>
+      <c r="D171" s="97"/>
       <c r="E171" s="23"/>
-      <c r="F171" s="75"/>
-      <c r="G171" s="74"/>
-      <c r="H171" s="74"/>
+      <c r="F171" s="98"/>
+      <c r="G171" s="97"/>
+      <c r="H171" s="97"/>
       <c r="I171" s="22"/>
       <c r="J171" s="22"/>
       <c r="K171" s="22"/>
@@ -37951,28 +37948,28 @@
       <c r="AC171" s="23"/>
     </row>
     <row r="172" spans="1:29" s="63" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A172" s="113">
+      <c r="A172" s="118">
         <v>113</v>
       </c>
-      <c r="B172" s="113">
+      <c r="B172" s="118">
         <v>20070102</v>
       </c>
       <c r="C172" s="61">
         <v>20070102</v>
       </c>
-      <c r="D172" s="113" t="s">
+      <c r="D172" s="118" t="s">
         <v>803</v>
       </c>
       <c r="E172" s="62" t="s">
         <v>804</v>
       </c>
-      <c r="F172" s="114" t="s">
+      <c r="F172" s="119" t="s">
         <v>805</v>
       </c>
-      <c r="G172" s="113" t="s">
-        <v>31</v>
-      </c>
-      <c r="H172" s="113" t="s">
+      <c r="G172" s="118" t="s">
+        <v>31</v>
+      </c>
+      <c r="H172" s="118" t="s">
         <v>549</v>
       </c>
       <c r="I172" s="61" t="s">
@@ -38027,14 +38024,14 @@
       <c r="AC172" s="62"/>
     </row>
     <row r="173" spans="1:29" s="63" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A173" s="113"/>
-      <c r="B173" s="113"/>
+      <c r="A173" s="118"/>
+      <c r="B173" s="118"/>
       <c r="C173" s="61"/>
-      <c r="D173" s="113"/>
+      <c r="D173" s="118"/>
       <c r="E173" s="62"/>
-      <c r="F173" s="114"/>
-      <c r="G173" s="113"/>
-      <c r="H173" s="113"/>
+      <c r="F173" s="119"/>
+      <c r="G173" s="118"/>
+      <c r="H173" s="118"/>
       <c r="I173" s="61"/>
       <c r="J173" s="61"/>
       <c r="K173" s="61"/>
@@ -38067,28 +38064,28 @@
       <c r="AC173" s="62"/>
     </row>
     <row r="174" spans="1:29" ht="16.5" customHeight="1">
-      <c r="A174" s="74">
+      <c r="A174" s="97">
         <v>114</v>
       </c>
-      <c r="B174" s="74">
+      <c r="B174" s="97">
         <v>20090124</v>
       </c>
       <c r="C174" s="22">
         <v>20090124</v>
       </c>
-      <c r="D174" s="74" t="s">
+      <c r="D174" s="97" t="s">
         <v>803</v>
       </c>
       <c r="E174" s="23" t="s">
         <v>806</v>
       </c>
-      <c r="F174" s="75" t="s">
+      <c r="F174" s="98" t="s">
         <v>807</v>
       </c>
-      <c r="G174" s="74" t="s">
-        <v>31</v>
-      </c>
-      <c r="H174" s="74" t="s">
+      <c r="G174" s="97" t="s">
+        <v>31</v>
+      </c>
+      <c r="H174" s="97" t="s">
         <v>549</v>
       </c>
       <c r="I174" s="22" t="s">
@@ -38133,14 +38130,14 @@
       <c r="AC174" s="23"/>
     </row>
     <row r="175" spans="1:29" ht="16.5" customHeight="1">
-      <c r="A175" s="74"/>
-      <c r="B175" s="74"/>
+      <c r="A175" s="97"/>
+      <c r="B175" s="97"/>
       <c r="C175" s="22"/>
-      <c r="D175" s="74"/>
+      <c r="D175" s="97"/>
       <c r="E175" s="23"/>
-      <c r="F175" s="75"/>
-      <c r="G175" s="74"/>
-      <c r="H175" s="74"/>
+      <c r="F175" s="98"/>
+      <c r="G175" s="97"/>
+      <c r="H175" s="97"/>
       <c r="I175" s="22" t="s">
         <v>31</v>
       </c>
@@ -38251,22 +38248,22 @@
       <c r="AC176" s="23"/>
     </row>
     <row r="177" spans="1:29" ht="16.5" customHeight="1">
-      <c r="A177" s="74">
+      <c r="A177" s="97">
         <v>116</v>
       </c>
-      <c r="B177" s="74">
+      <c r="B177" s="97">
         <v>20120166</v>
       </c>
       <c r="C177" s="22"/>
-      <c r="D177" s="74"/>
+      <c r="D177" s="97"/>
       <c r="E177" s="23"/>
-      <c r="F177" s="75" t="s">
+      <c r="F177" s="98" t="s">
         <v>810</v>
       </c>
-      <c r="G177" s="74" t="s">
-        <v>26</v>
-      </c>
-      <c r="H177" s="74" t="s">
+      <c r="G177" s="97" t="s">
+        <v>26</v>
+      </c>
+      <c r="H177" s="97" t="s">
         <v>549</v>
       </c>
       <c r="I177" s="22" t="s">
@@ -38307,14 +38304,14 @@
       <c r="AC177" s="23"/>
     </row>
     <row r="178" spans="1:29" ht="16.5" customHeight="1">
-      <c r="A178" s="74"/>
-      <c r="B178" s="74"/>
+      <c r="A178" s="97"/>
+      <c r="B178" s="97"/>
       <c r="C178" s="22"/>
-      <c r="D178" s="74"/>
+      <c r="D178" s="97"/>
       <c r="E178" s="23"/>
-      <c r="F178" s="75"/>
-      <c r="G178" s="74"/>
-      <c r="H178" s="74"/>
+      <c r="F178" s="98"/>
+      <c r="G178" s="97"/>
+      <c r="H178" s="97"/>
       <c r="I178" s="22" t="s">
         <v>26</v>
       </c>
@@ -38353,22 +38350,22 @@
       <c r="AC178" s="23"/>
     </row>
     <row r="179" spans="1:29" ht="16.5" customHeight="1">
-      <c r="A179" s="74">
+      <c r="A179" s="97">
         <v>117</v>
       </c>
-      <c r="B179" s="74">
+      <c r="B179" s="97">
         <v>20200657</v>
       </c>
       <c r="C179" s="22"/>
-      <c r="D179" s="74"/>
+      <c r="D179" s="97"/>
       <c r="E179" s="23"/>
-      <c r="F179" s="75" t="s">
+      <c r="F179" s="98" t="s">
         <v>811</v>
       </c>
-      <c r="G179" s="74" t="s">
-        <v>26</v>
-      </c>
-      <c r="H179" s="74" t="s">
+      <c r="G179" s="97" t="s">
+        <v>26</v>
+      </c>
+      <c r="H179" s="97" t="s">
         <v>549</v>
       </c>
       <c r="I179" s="22" t="s">
@@ -38419,14 +38416,14 @@
       <c r="AC179" s="23"/>
     </row>
     <row r="180" spans="1:29" ht="16.5" customHeight="1">
-      <c r="A180" s="74"/>
-      <c r="B180" s="74"/>
+      <c r="A180" s="97"/>
+      <c r="B180" s="97"/>
       <c r="C180" s="22"/>
-      <c r="D180" s="74"/>
+      <c r="D180" s="97"/>
       <c r="E180" s="23"/>
-      <c r="F180" s="75"/>
-      <c r="G180" s="74"/>
-      <c r="H180" s="74"/>
+      <c r="F180" s="98"/>
+      <c r="G180" s="97"/>
+      <c r="H180" s="97"/>
       <c r="I180" s="22"/>
       <c r="J180" s="22"/>
       <c r="K180" s="22"/>
@@ -38519,20 +38516,20 @@
       <c r="AC181" s="23"/>
     </row>
     <row r="182" spans="1:29" ht="16.5" customHeight="1">
-      <c r="A182" s="74">
+      <c r="A182" s="97">
         <v>119</v>
       </c>
-      <c r="B182" s="74"/>
+      <c r="B182" s="97"/>
       <c r="C182" s="22"/>
-      <c r="D182" s="74"/>
+      <c r="D182" s="97"/>
       <c r="E182" s="23"/>
-      <c r="F182" s="75" t="s">
+      <c r="F182" s="98" t="s">
         <v>813</v>
       </c>
-      <c r="G182" s="74" t="s">
-        <v>26</v>
-      </c>
-      <c r="H182" s="74" t="s">
+      <c r="G182" s="97" t="s">
+        <v>26</v>
+      </c>
+      <c r="H182" s="97" t="s">
         <v>549</v>
       </c>
       <c r="I182" s="22" t="s">
@@ -38583,14 +38580,14 @@
       <c r="AC182" s="23"/>
     </row>
     <row r="183" spans="1:29" ht="16.5" customHeight="1">
-      <c r="A183" s="74"/>
-      <c r="B183" s="74"/>
+      <c r="A183" s="97"/>
+      <c r="B183" s="97"/>
       <c r="C183" s="22"/>
-      <c r="D183" s="74"/>
+      <c r="D183" s="97"/>
       <c r="E183" s="23"/>
-      <c r="F183" s="75"/>
-      <c r="G183" s="74"/>
-      <c r="H183" s="74"/>
+      <c r="F183" s="98"/>
+      <c r="G183" s="97"/>
+      <c r="H183" s="97"/>
       <c r="I183" s="22"/>
       <c r="J183" s="22"/>
       <c r="K183" s="22"/>
@@ -38728,14 +38725,14 @@
       <c r="AC185" s="23"/>
     </row>
     <row r="186" spans="1:29" s="33" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A186" s="110">
+      <c r="A186" s="120">
         <v>122</v>
       </c>
       <c r="B186" s="30"/>
       <c r="C186" s="30"/>
       <c r="D186" s="30"/>
       <c r="E186" s="31"/>
-      <c r="F186" s="110" t="s">
+      <c r="F186" s="120" t="s">
         <v>478</v>
       </c>
       <c r="G186" s="30"/>
@@ -38769,12 +38766,12 @@
       <c r="AC186" s="31"/>
     </row>
     <row r="187" spans="1:29" s="33" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A187" s="111"/>
+      <c r="A187" s="121"/>
       <c r="B187" s="30"/>
       <c r="C187" s="30"/>
       <c r="D187" s="30"/>
       <c r="E187" s="31"/>
-      <c r="F187" s="111"/>
+      <c r="F187" s="121"/>
       <c r="G187" s="30"/>
       <c r="H187" s="30"/>
       <c r="I187" s="30"/>
@@ -38806,12 +38803,12 @@
       <c r="AC187" s="31"/>
     </row>
     <row r="188" spans="1:29" s="33" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A188" s="111"/>
+      <c r="A188" s="121"/>
       <c r="B188" s="30"/>
       <c r="C188" s="30"/>
       <c r="D188" s="30"/>
       <c r="E188" s="31"/>
-      <c r="F188" s="111"/>
+      <c r="F188" s="121"/>
       <c r="G188" s="30"/>
       <c r="H188" s="30"/>
       <c r="I188" s="30"/>
@@ -38843,12 +38840,12 @@
       <c r="AC188" s="31"/>
     </row>
     <row r="189" spans="1:29" s="33" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A189" s="111"/>
+      <c r="A189" s="121"/>
       <c r="B189" s="30"/>
       <c r="C189" s="30"/>
       <c r="D189" s="30"/>
       <c r="E189" s="31"/>
-      <c r="F189" s="111"/>
+      <c r="F189" s="121"/>
       <c r="G189" s="30"/>
       <c r="H189" s="30"/>
       <c r="I189" s="30"/>
@@ -38880,12 +38877,12 @@
       <c r="AC189" s="31"/>
     </row>
     <row r="190" spans="1:29" s="33" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A190" s="111"/>
+      <c r="A190" s="121"/>
       <c r="B190" s="30"/>
       <c r="C190" s="30"/>
       <c r="D190" s="30"/>
       <c r="E190" s="31"/>
-      <c r="F190" s="111"/>
+      <c r="F190" s="121"/>
       <c r="G190" s="30"/>
       <c r="H190" s="30"/>
       <c r="I190" s="30"/>
@@ -38917,12 +38914,12 @@
       <c r="AC190" s="31"/>
     </row>
     <row r="191" spans="1:29" s="33" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A191" s="111"/>
+      <c r="A191" s="121"/>
       <c r="B191" s="30"/>
       <c r="C191" s="30"/>
       <c r="D191" s="30"/>
       <c r="E191" s="31"/>
-      <c r="F191" s="111"/>
+      <c r="F191" s="121"/>
       <c r="G191" s="30"/>
       <c r="H191" s="30"/>
       <c r="I191" s="30"/>
@@ -38954,12 +38951,12 @@
       <c r="AC191" s="31"/>
     </row>
     <row r="192" spans="1:29" s="33" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A192" s="111"/>
+      <c r="A192" s="121"/>
       <c r="B192" s="30"/>
       <c r="C192" s="30"/>
       <c r="D192" s="30"/>
       <c r="E192" s="31"/>
-      <c r="F192" s="111"/>
+      <c r="F192" s="121"/>
       <c r="G192" s="30"/>
       <c r="H192" s="30"/>
       <c r="I192" s="30"/>
@@ -38991,12 +38988,12 @@
       <c r="AC192" s="31"/>
     </row>
     <row r="193" spans="1:29" s="33" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A193" s="112"/>
+      <c r="A193" s="122"/>
       <c r="B193" s="30"/>
       <c r="C193" s="30"/>
       <c r="D193" s="30"/>
       <c r="E193" s="31"/>
-      <c r="F193" s="112"/>
+      <c r="F193" s="122"/>
       <c r="G193" s="30"/>
       <c r="H193" s="30"/>
       <c r="I193" s="30"/>
@@ -39114,16 +39111,16 @@
       <c r="AC195" s="35"/>
     </row>
     <row r="196" spans="1:29" s="36" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A196" s="69" t="s">
+      <c r="A196" s="100" t="s">
         <v>545</v>
       </c>
-      <c r="B196" s="69"/>
-      <c r="C196" s="69"/>
-      <c r="D196" s="69"/>
-      <c r="E196" s="69"/>
-      <c r="F196" s="69"/>
-      <c r="G196" s="69"/>
-      <c r="H196" s="69"/>
+      <c r="B196" s="100"/>
+      <c r="C196" s="100"/>
+      <c r="D196" s="100"/>
+      <c r="E196" s="100"/>
+      <c r="F196" s="100"/>
+      <c r="G196" s="100"/>
+      <c r="H196" s="100"/>
       <c r="I196" s="34"/>
       <c r="J196" s="34"/>
       <c r="K196" s="34">
@@ -42436,6 +42433,256 @@
     </sortState>
   </autoFilter>
   <mergeCells count="269">
+    <mergeCell ref="A186:A193"/>
+    <mergeCell ref="F186:F193"/>
+    <mergeCell ref="A196:H196"/>
+    <mergeCell ref="A182:A183"/>
+    <mergeCell ref="B182:B183"/>
+    <mergeCell ref="D182:D183"/>
+    <mergeCell ref="F182:F183"/>
+    <mergeCell ref="G182:G183"/>
+    <mergeCell ref="H182:H183"/>
+    <mergeCell ref="A179:A180"/>
+    <mergeCell ref="B179:B180"/>
+    <mergeCell ref="D179:D180"/>
+    <mergeCell ref="F179:F180"/>
+    <mergeCell ref="G179:G180"/>
+    <mergeCell ref="H179:H180"/>
+    <mergeCell ref="A177:A178"/>
+    <mergeCell ref="B177:B178"/>
+    <mergeCell ref="D177:D178"/>
+    <mergeCell ref="F177:F178"/>
+    <mergeCell ref="G177:G178"/>
+    <mergeCell ref="H177:H178"/>
+    <mergeCell ref="A174:A175"/>
+    <mergeCell ref="B174:B175"/>
+    <mergeCell ref="D174:D175"/>
+    <mergeCell ref="F174:F175"/>
+    <mergeCell ref="G174:G175"/>
+    <mergeCell ref="H174:H175"/>
+    <mergeCell ref="A172:A173"/>
+    <mergeCell ref="B172:B173"/>
+    <mergeCell ref="D172:D173"/>
+    <mergeCell ref="F172:F173"/>
+    <mergeCell ref="G172:G173"/>
+    <mergeCell ref="H172:H173"/>
+    <mergeCell ref="A169:A171"/>
+    <mergeCell ref="B169:B171"/>
+    <mergeCell ref="D169:D171"/>
+    <mergeCell ref="F169:F171"/>
+    <mergeCell ref="G169:G171"/>
+    <mergeCell ref="H169:H171"/>
+    <mergeCell ref="A166:A168"/>
+    <mergeCell ref="B166:B168"/>
+    <mergeCell ref="D166:D168"/>
+    <mergeCell ref="F166:F168"/>
+    <mergeCell ref="G166:G168"/>
+    <mergeCell ref="H166:H168"/>
+    <mergeCell ref="A163:A165"/>
+    <mergeCell ref="B163:B165"/>
+    <mergeCell ref="D163:D165"/>
+    <mergeCell ref="F163:F165"/>
+    <mergeCell ref="G163:G165"/>
+    <mergeCell ref="H163:H165"/>
+    <mergeCell ref="A161:A162"/>
+    <mergeCell ref="B161:B162"/>
+    <mergeCell ref="D161:D162"/>
+    <mergeCell ref="F161:F162"/>
+    <mergeCell ref="G161:G162"/>
+    <mergeCell ref="H161:H162"/>
+    <mergeCell ref="A156:A160"/>
+    <mergeCell ref="B156:B160"/>
+    <mergeCell ref="D156:D160"/>
+    <mergeCell ref="F156:F160"/>
+    <mergeCell ref="G156:G160"/>
+    <mergeCell ref="H156:H160"/>
+    <mergeCell ref="A153:A154"/>
+    <mergeCell ref="B153:B154"/>
+    <mergeCell ref="D153:D154"/>
+    <mergeCell ref="F153:F154"/>
+    <mergeCell ref="G153:G154"/>
+    <mergeCell ref="H153:H154"/>
+    <mergeCell ref="A148:A150"/>
+    <mergeCell ref="B148:B150"/>
+    <mergeCell ref="D148:D150"/>
+    <mergeCell ref="F148:F150"/>
+    <mergeCell ref="G148:G150"/>
+    <mergeCell ref="H148:H150"/>
+    <mergeCell ref="A146:A147"/>
+    <mergeCell ref="B146:B147"/>
+    <mergeCell ref="D146:D147"/>
+    <mergeCell ref="F146:F147"/>
+    <mergeCell ref="G146:G147"/>
+    <mergeCell ref="H146:H147"/>
+    <mergeCell ref="A131:A132"/>
+    <mergeCell ref="B131:B132"/>
+    <mergeCell ref="D131:D132"/>
+    <mergeCell ref="F131:F132"/>
+    <mergeCell ref="G131:G132"/>
+    <mergeCell ref="H131:H132"/>
+    <mergeCell ref="A129:A130"/>
+    <mergeCell ref="B129:B130"/>
+    <mergeCell ref="D129:D130"/>
+    <mergeCell ref="F129:F130"/>
+    <mergeCell ref="G129:G130"/>
+    <mergeCell ref="H129:H130"/>
+    <mergeCell ref="A127:A128"/>
+    <mergeCell ref="B127:B128"/>
+    <mergeCell ref="D127:D128"/>
+    <mergeCell ref="F127:F128"/>
+    <mergeCell ref="G127:G128"/>
+    <mergeCell ref="H127:H128"/>
+    <mergeCell ref="H121:H124"/>
+    <mergeCell ref="A125:A126"/>
+    <mergeCell ref="B125:B126"/>
+    <mergeCell ref="D125:D126"/>
+    <mergeCell ref="F125:F126"/>
+    <mergeCell ref="G125:G126"/>
+    <mergeCell ref="H125:H126"/>
+    <mergeCell ref="A114:A115"/>
+    <mergeCell ref="B114:B115"/>
+    <mergeCell ref="D114:D115"/>
+    <mergeCell ref="F114:F115"/>
+    <mergeCell ref="G114:G115"/>
+    <mergeCell ref="A121:A124"/>
+    <mergeCell ref="B121:B124"/>
+    <mergeCell ref="D121:D124"/>
+    <mergeCell ref="F121:F124"/>
+    <mergeCell ref="G121:G124"/>
+    <mergeCell ref="A104:A106"/>
+    <mergeCell ref="B104:B106"/>
+    <mergeCell ref="D104:D106"/>
+    <mergeCell ref="F104:F106"/>
+    <mergeCell ref="G104:G106"/>
+    <mergeCell ref="H104:H106"/>
+    <mergeCell ref="A98:A99"/>
+    <mergeCell ref="B98:B99"/>
+    <mergeCell ref="D98:D99"/>
+    <mergeCell ref="F98:F99"/>
+    <mergeCell ref="G98:G99"/>
+    <mergeCell ref="H98:H99"/>
+    <mergeCell ref="A94:A96"/>
+    <mergeCell ref="B94:B96"/>
+    <mergeCell ref="D94:D96"/>
+    <mergeCell ref="F94:F96"/>
+    <mergeCell ref="G94:G96"/>
+    <mergeCell ref="H94:H96"/>
+    <mergeCell ref="A92:A93"/>
+    <mergeCell ref="B92:B93"/>
+    <mergeCell ref="D92:D93"/>
+    <mergeCell ref="F92:F93"/>
+    <mergeCell ref="G92:G93"/>
+    <mergeCell ref="H92:H93"/>
+    <mergeCell ref="A90:A91"/>
+    <mergeCell ref="B90:B91"/>
+    <mergeCell ref="D90:D91"/>
+    <mergeCell ref="F90:F91"/>
+    <mergeCell ref="G90:G91"/>
+    <mergeCell ref="H90:H91"/>
+    <mergeCell ref="A84:A87"/>
+    <mergeCell ref="B84:B87"/>
+    <mergeCell ref="D84:D87"/>
+    <mergeCell ref="F84:F87"/>
+    <mergeCell ref="G84:G87"/>
+    <mergeCell ref="H84:H87"/>
+    <mergeCell ref="A79:A83"/>
+    <mergeCell ref="B79:B83"/>
+    <mergeCell ref="D79:D83"/>
+    <mergeCell ref="F79:F83"/>
+    <mergeCell ref="G79:G83"/>
+    <mergeCell ref="H79:H83"/>
+    <mergeCell ref="A75:A76"/>
+    <mergeCell ref="B75:B76"/>
+    <mergeCell ref="D75:D76"/>
+    <mergeCell ref="F75:F76"/>
+    <mergeCell ref="G75:G76"/>
+    <mergeCell ref="H75:H76"/>
+    <mergeCell ref="A70:A71"/>
+    <mergeCell ref="B70:B71"/>
+    <mergeCell ref="D70:D71"/>
+    <mergeCell ref="F70:F71"/>
+    <mergeCell ref="G70:G71"/>
+    <mergeCell ref="H70:H71"/>
+    <mergeCell ref="A65:A66"/>
+    <mergeCell ref="B65:B66"/>
+    <mergeCell ref="D65:D66"/>
+    <mergeCell ref="F65:F66"/>
+    <mergeCell ref="G65:G66"/>
+    <mergeCell ref="H65:H66"/>
+    <mergeCell ref="AC52:AC53"/>
+    <mergeCell ref="A56:A58"/>
+    <mergeCell ref="B56:B58"/>
+    <mergeCell ref="D56:D58"/>
+    <mergeCell ref="F56:F58"/>
+    <mergeCell ref="G56:G58"/>
+    <mergeCell ref="H56:H58"/>
+    <mergeCell ref="A52:A53"/>
+    <mergeCell ref="B52:B53"/>
+    <mergeCell ref="D52:D53"/>
+    <mergeCell ref="F52:F53"/>
+    <mergeCell ref="G52:G53"/>
+    <mergeCell ref="H52:H53"/>
+    <mergeCell ref="A48:A49"/>
+    <mergeCell ref="B48:B49"/>
+    <mergeCell ref="D48:D49"/>
+    <mergeCell ref="F48:F49"/>
+    <mergeCell ref="G48:G49"/>
+    <mergeCell ref="H48:H49"/>
+    <mergeCell ref="A45:A47"/>
+    <mergeCell ref="B45:B47"/>
+    <mergeCell ref="D45:D47"/>
+    <mergeCell ref="F45:F47"/>
+    <mergeCell ref="G45:G47"/>
+    <mergeCell ref="H45:H47"/>
+    <mergeCell ref="A41:A42"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="D41:D42"/>
+    <mergeCell ref="F41:F42"/>
+    <mergeCell ref="G41:G42"/>
+    <mergeCell ref="H41:H42"/>
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="B38:B39"/>
+    <mergeCell ref="D38:D39"/>
+    <mergeCell ref="F38:F39"/>
+    <mergeCell ref="G38:G39"/>
+    <mergeCell ref="H38:H39"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="D34:D35"/>
+    <mergeCell ref="F34:F35"/>
+    <mergeCell ref="G34:G35"/>
+    <mergeCell ref="H34:H35"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="D28:D29"/>
+    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="G28:G29"/>
+    <mergeCell ref="H28:H29"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="G18:G19"/>
+    <mergeCell ref="H18:H19"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="AC5:AC6"/>
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="D8:D10"/>
+    <mergeCell ref="F8:F10"/>
+    <mergeCell ref="G8:G10"/>
+    <mergeCell ref="H8:H10"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="H5:H6"/>
     <mergeCell ref="A2:A4"/>
     <mergeCell ref="B2:B4"/>
     <mergeCell ref="C2:C4"/>
@@ -42455,256 +42702,6 @@
     <mergeCell ref="O2:Q3"/>
     <mergeCell ref="R2:Z2"/>
     <mergeCell ref="AA2:AA4"/>
-    <mergeCell ref="AC5:AC6"/>
-    <mergeCell ref="A8:A10"/>
-    <mergeCell ref="B8:B10"/>
-    <mergeCell ref="D8:D10"/>
-    <mergeCell ref="F8:F10"/>
-    <mergeCell ref="G8:G10"/>
-    <mergeCell ref="H8:H10"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="F18:F19"/>
-    <mergeCell ref="G18:G19"/>
-    <mergeCell ref="H18:H19"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="H11:H12"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="B34:B35"/>
-    <mergeCell ref="D34:D35"/>
-    <mergeCell ref="F34:F35"/>
-    <mergeCell ref="G34:G35"/>
-    <mergeCell ref="H34:H35"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="D28:D29"/>
-    <mergeCell ref="F28:F29"/>
-    <mergeCell ref="G28:G29"/>
-    <mergeCell ref="H28:H29"/>
-    <mergeCell ref="A41:A42"/>
-    <mergeCell ref="B41:B42"/>
-    <mergeCell ref="D41:D42"/>
-    <mergeCell ref="F41:F42"/>
-    <mergeCell ref="G41:G42"/>
-    <mergeCell ref="H41:H42"/>
-    <mergeCell ref="A38:A39"/>
-    <mergeCell ref="B38:B39"/>
-    <mergeCell ref="D38:D39"/>
-    <mergeCell ref="F38:F39"/>
-    <mergeCell ref="G38:G39"/>
-    <mergeCell ref="H38:H39"/>
-    <mergeCell ref="A48:A49"/>
-    <mergeCell ref="B48:B49"/>
-    <mergeCell ref="D48:D49"/>
-    <mergeCell ref="F48:F49"/>
-    <mergeCell ref="G48:G49"/>
-    <mergeCell ref="H48:H49"/>
-    <mergeCell ref="A45:A47"/>
-    <mergeCell ref="B45:B47"/>
-    <mergeCell ref="D45:D47"/>
-    <mergeCell ref="F45:F47"/>
-    <mergeCell ref="G45:G47"/>
-    <mergeCell ref="H45:H47"/>
-    <mergeCell ref="AC52:AC53"/>
-    <mergeCell ref="A56:A58"/>
-    <mergeCell ref="B56:B58"/>
-    <mergeCell ref="D56:D58"/>
-    <mergeCell ref="F56:F58"/>
-    <mergeCell ref="G56:G58"/>
-    <mergeCell ref="H56:H58"/>
-    <mergeCell ref="A52:A53"/>
-    <mergeCell ref="B52:B53"/>
-    <mergeCell ref="D52:D53"/>
-    <mergeCell ref="F52:F53"/>
-    <mergeCell ref="G52:G53"/>
-    <mergeCell ref="H52:H53"/>
-    <mergeCell ref="A70:A71"/>
-    <mergeCell ref="B70:B71"/>
-    <mergeCell ref="D70:D71"/>
-    <mergeCell ref="F70:F71"/>
-    <mergeCell ref="G70:G71"/>
-    <mergeCell ref="H70:H71"/>
-    <mergeCell ref="A65:A66"/>
-    <mergeCell ref="B65:B66"/>
-    <mergeCell ref="D65:D66"/>
-    <mergeCell ref="F65:F66"/>
-    <mergeCell ref="G65:G66"/>
-    <mergeCell ref="H65:H66"/>
-    <mergeCell ref="A79:A83"/>
-    <mergeCell ref="B79:B83"/>
-    <mergeCell ref="D79:D83"/>
-    <mergeCell ref="F79:F83"/>
-    <mergeCell ref="G79:G83"/>
-    <mergeCell ref="H79:H83"/>
-    <mergeCell ref="A75:A76"/>
-    <mergeCell ref="B75:B76"/>
-    <mergeCell ref="D75:D76"/>
-    <mergeCell ref="F75:F76"/>
-    <mergeCell ref="G75:G76"/>
-    <mergeCell ref="H75:H76"/>
-    <mergeCell ref="A90:A91"/>
-    <mergeCell ref="B90:B91"/>
-    <mergeCell ref="D90:D91"/>
-    <mergeCell ref="F90:F91"/>
-    <mergeCell ref="G90:G91"/>
-    <mergeCell ref="H90:H91"/>
-    <mergeCell ref="A84:A87"/>
-    <mergeCell ref="B84:B87"/>
-    <mergeCell ref="D84:D87"/>
-    <mergeCell ref="F84:F87"/>
-    <mergeCell ref="G84:G87"/>
-    <mergeCell ref="H84:H87"/>
-    <mergeCell ref="A94:A96"/>
-    <mergeCell ref="B94:B96"/>
-    <mergeCell ref="D94:D96"/>
-    <mergeCell ref="F94:F96"/>
-    <mergeCell ref="G94:G96"/>
-    <mergeCell ref="H94:H96"/>
-    <mergeCell ref="A92:A93"/>
-    <mergeCell ref="B92:B93"/>
-    <mergeCell ref="D92:D93"/>
-    <mergeCell ref="F92:F93"/>
-    <mergeCell ref="G92:G93"/>
-    <mergeCell ref="H92:H93"/>
-    <mergeCell ref="A104:A106"/>
-    <mergeCell ref="B104:B106"/>
-    <mergeCell ref="D104:D106"/>
-    <mergeCell ref="F104:F106"/>
-    <mergeCell ref="G104:G106"/>
-    <mergeCell ref="H104:H106"/>
-    <mergeCell ref="A98:A99"/>
-    <mergeCell ref="B98:B99"/>
-    <mergeCell ref="D98:D99"/>
-    <mergeCell ref="F98:F99"/>
-    <mergeCell ref="G98:G99"/>
-    <mergeCell ref="H98:H99"/>
-    <mergeCell ref="A114:A115"/>
-    <mergeCell ref="B114:B115"/>
-    <mergeCell ref="D114:D115"/>
-    <mergeCell ref="F114:F115"/>
-    <mergeCell ref="G114:G115"/>
-    <mergeCell ref="A121:A124"/>
-    <mergeCell ref="B121:B124"/>
-    <mergeCell ref="D121:D124"/>
-    <mergeCell ref="F121:F124"/>
-    <mergeCell ref="G121:G124"/>
-    <mergeCell ref="A127:A128"/>
-    <mergeCell ref="B127:B128"/>
-    <mergeCell ref="D127:D128"/>
-    <mergeCell ref="F127:F128"/>
-    <mergeCell ref="G127:G128"/>
-    <mergeCell ref="H127:H128"/>
-    <mergeCell ref="H121:H124"/>
-    <mergeCell ref="A125:A126"/>
-    <mergeCell ref="B125:B126"/>
-    <mergeCell ref="D125:D126"/>
-    <mergeCell ref="F125:F126"/>
-    <mergeCell ref="G125:G126"/>
-    <mergeCell ref="H125:H126"/>
-    <mergeCell ref="A131:A132"/>
-    <mergeCell ref="B131:B132"/>
-    <mergeCell ref="D131:D132"/>
-    <mergeCell ref="F131:F132"/>
-    <mergeCell ref="G131:G132"/>
-    <mergeCell ref="H131:H132"/>
-    <mergeCell ref="A129:A130"/>
-    <mergeCell ref="B129:B130"/>
-    <mergeCell ref="D129:D130"/>
-    <mergeCell ref="F129:F130"/>
-    <mergeCell ref="G129:G130"/>
-    <mergeCell ref="H129:H130"/>
-    <mergeCell ref="A148:A150"/>
-    <mergeCell ref="B148:B150"/>
-    <mergeCell ref="D148:D150"/>
-    <mergeCell ref="F148:F150"/>
-    <mergeCell ref="G148:G150"/>
-    <mergeCell ref="H148:H150"/>
-    <mergeCell ref="A146:A147"/>
-    <mergeCell ref="B146:B147"/>
-    <mergeCell ref="D146:D147"/>
-    <mergeCell ref="F146:F147"/>
-    <mergeCell ref="G146:G147"/>
-    <mergeCell ref="H146:H147"/>
-    <mergeCell ref="A156:A160"/>
-    <mergeCell ref="B156:B160"/>
-    <mergeCell ref="D156:D160"/>
-    <mergeCell ref="F156:F160"/>
-    <mergeCell ref="G156:G160"/>
-    <mergeCell ref="H156:H160"/>
-    <mergeCell ref="A153:A154"/>
-    <mergeCell ref="B153:B154"/>
-    <mergeCell ref="D153:D154"/>
-    <mergeCell ref="F153:F154"/>
-    <mergeCell ref="G153:G154"/>
-    <mergeCell ref="H153:H154"/>
-    <mergeCell ref="A163:A165"/>
-    <mergeCell ref="B163:B165"/>
-    <mergeCell ref="D163:D165"/>
-    <mergeCell ref="F163:F165"/>
-    <mergeCell ref="G163:G165"/>
-    <mergeCell ref="H163:H165"/>
-    <mergeCell ref="A161:A162"/>
-    <mergeCell ref="B161:B162"/>
-    <mergeCell ref="D161:D162"/>
-    <mergeCell ref="F161:F162"/>
-    <mergeCell ref="G161:G162"/>
-    <mergeCell ref="H161:H162"/>
-    <mergeCell ref="A169:A171"/>
-    <mergeCell ref="B169:B171"/>
-    <mergeCell ref="D169:D171"/>
-    <mergeCell ref="F169:F171"/>
-    <mergeCell ref="G169:G171"/>
-    <mergeCell ref="H169:H171"/>
-    <mergeCell ref="A166:A168"/>
-    <mergeCell ref="B166:B168"/>
-    <mergeCell ref="D166:D168"/>
-    <mergeCell ref="F166:F168"/>
-    <mergeCell ref="G166:G168"/>
-    <mergeCell ref="H166:H168"/>
-    <mergeCell ref="A174:A175"/>
-    <mergeCell ref="B174:B175"/>
-    <mergeCell ref="D174:D175"/>
-    <mergeCell ref="F174:F175"/>
-    <mergeCell ref="G174:G175"/>
-    <mergeCell ref="H174:H175"/>
-    <mergeCell ref="A172:A173"/>
-    <mergeCell ref="B172:B173"/>
-    <mergeCell ref="D172:D173"/>
-    <mergeCell ref="F172:F173"/>
-    <mergeCell ref="G172:G173"/>
-    <mergeCell ref="H172:H173"/>
-    <mergeCell ref="A179:A180"/>
-    <mergeCell ref="B179:B180"/>
-    <mergeCell ref="D179:D180"/>
-    <mergeCell ref="F179:F180"/>
-    <mergeCell ref="G179:G180"/>
-    <mergeCell ref="H179:H180"/>
-    <mergeCell ref="A177:A178"/>
-    <mergeCell ref="B177:B178"/>
-    <mergeCell ref="D177:D178"/>
-    <mergeCell ref="F177:F178"/>
-    <mergeCell ref="G177:G178"/>
-    <mergeCell ref="H177:H178"/>
-    <mergeCell ref="A186:A193"/>
-    <mergeCell ref="F186:F193"/>
-    <mergeCell ref="A196:H196"/>
-    <mergeCell ref="A182:A183"/>
-    <mergeCell ref="B182:B183"/>
-    <mergeCell ref="D182:D183"/>
-    <mergeCell ref="F182:F183"/>
-    <mergeCell ref="G182:G183"/>
-    <mergeCell ref="H182:H183"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0.35433070866141736" bottom="0.35433070866141736" header="0.31496062992125984" footer="0.31496062992125984"/>
